--- a/BackTest/2019-10-28 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-28 BackTest STEEM.xlsx
@@ -2411,17 +2411,13 @@
         <v>180.3333333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>181</v>
-      </c>
-      <c r="K58" t="n">
-        <v>181</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
@@ -2450,22 +2446,14 @@
         <v>181.3333333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>181</v>
-      </c>
-      <c r="K59" t="n">
-        <v>181</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2493,22 +2481,14 @@
         <v>182.3333333333333</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>183</v>
-      </c>
-      <c r="K60" t="n">
-        <v>181</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2536,22 +2516,14 @@
         <v>183</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>183</v>
-      </c>
-      <c r="K61" t="n">
-        <v>181</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2579,22 +2551,14 @@
         <v>183.3333333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>184</v>
-      </c>
-      <c r="K62" t="n">
-        <v>181</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2622,22 +2586,14 @@
         <v>183.6666666666667</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>184</v>
-      </c>
-      <c r="K63" t="n">
-        <v>181</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2665,22 +2621,14 @@
         <v>184</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>184</v>
-      </c>
-      <c r="K64" t="n">
-        <v>181</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2656,14 @@
         <v>184</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>184</v>
-      </c>
-      <c r="K65" t="n">
-        <v>181</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2751,22 +2691,14 @@
         <v>184</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>184</v>
-      </c>
-      <c r="K66" t="n">
-        <v>181</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2794,22 +2726,14 @@
         <v>184</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>184</v>
-      </c>
-      <c r="K67" t="n">
-        <v>181</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2837,22 +2761,14 @@
         <v>184</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>184</v>
-      </c>
-      <c r="K68" t="n">
-        <v>181</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2886,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>181</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2927,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>181</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2968,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>181</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3009,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>181</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3050,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>181</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3091,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>181</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3132,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>181</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3167,22 +3041,14 @@
         <v>182.3333333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>183</v>
-      </c>
-      <c r="K76" t="n">
-        <v>181</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3210,22 +3076,14 @@
         <v>182.6666666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>182</v>
-      </c>
-      <c r="K77" t="n">
-        <v>181</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3253,22 +3111,14 @@
         <v>183</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>184</v>
-      </c>
-      <c r="K78" t="n">
-        <v>181</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3305,13 +3155,9 @@
         <v>184</v>
       </c>
       <c r="K79" t="n">
-        <v>181</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3348,11 +3194,11 @@
         <v>184</v>
       </c>
       <c r="K80" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -3382,20 +3228,18 @@
         <v>184</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>184</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M81" t="n">
@@ -3425,22 +3269,14 @@
         <v>184.6666666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>186</v>
-      </c>
-      <c r="K82" t="n">
-        <v>181</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3468,22 +3304,14 @@
         <v>185.3333333333333</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>186</v>
-      </c>
-      <c r="K83" t="n">
-        <v>181</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3517,14 +3345,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>181</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3558,14 +3380,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>181</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3599,14 +3415,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>181</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3640,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>181</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3681,14 +3485,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>181</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3722,14 +3520,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>181</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3763,14 +3555,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>181</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3804,14 +3590,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>181</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3845,14 +3625,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>181</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3886,14 +3660,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>181</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3927,14 +3695,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>181</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3968,14 +3730,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>181</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4009,14 +3765,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>181</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4050,14 +3800,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>181</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4091,14 +3835,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>181</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4132,14 +3870,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>181</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4173,14 +3905,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>181</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4214,14 +3940,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>181</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4252,19 +3972,13 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>181</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>1.022624309392265</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -4433,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -5378,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5448,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -6425,14 +6139,20 @@
         <v>186.6666666666667</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>186</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6460,14 +6180,20 @@
         <v>187</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>186</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6495,14 +6221,20 @@
         <v>188</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>189</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6537,7 +6269,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6572,7 +6308,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6607,7 +6347,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6642,7 +6386,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6677,7 +6425,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6712,7 +6464,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6747,7 +6503,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6782,7 +6542,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6817,7 +6581,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6852,7 +6620,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6887,7 +6659,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6922,7 +6698,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6957,7 +6737,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6992,7 +6776,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7027,7 +6815,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7062,7 +6854,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7097,7 +6893,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7132,7 +6932,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7167,7 +6971,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7202,7 +7010,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7237,7 +7049,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7272,7 +7088,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7307,7 +7127,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7342,7 +7166,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7377,7 +7205,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7412,7 +7244,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7447,7 +7283,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7482,7 +7322,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7361,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7552,7 +7400,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-28 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-28 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M196"/>
+  <dimension ref="A1:M197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,13 +445,13 @@
         <v>183</v>
       </c>
       <c r="F2" t="n">
-        <v>2113636</v>
+        <v>37627.7744</v>
       </c>
       <c r="G2" t="n">
-        <v>183</v>
+        <v>184.0833333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>183</v>
       </c>
       <c r="F3" t="n">
-        <v>2686296</v>
+        <v>2113636</v>
       </c>
       <c r="G3" t="n">
-        <v>183</v>
+        <v>184.0666666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,19 +515,23 @@
         <v>183</v>
       </c>
       <c r="F4" t="n">
-        <v>2655073.7975</v>
+        <v>2686296</v>
       </c>
       <c r="G4" t="n">
-        <v>183</v>
+        <v>184.05</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>183</v>
+      </c>
+      <c r="K4" t="n">
+        <v>183</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -550,10 +554,10 @@
         <v>183</v>
       </c>
       <c r="F5" t="n">
-        <v>2623810.2025</v>
+        <v>2655073.7975</v>
       </c>
       <c r="G5" t="n">
-        <v>183</v>
+        <v>184.0333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -562,8 +566,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>183</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -585,10 +595,10 @@
         <v>183</v>
       </c>
       <c r="F6" t="n">
-        <v>2644648</v>
+        <v>2623810.2025</v>
       </c>
       <c r="G6" t="n">
-        <v>183</v>
+        <v>184.0166666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -597,8 +607,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>183</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -623,7 +639,7 @@
         <v>2644648</v>
       </c>
       <c r="G7" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +671,10 @@
         <v>183</v>
       </c>
       <c r="F8" t="n">
-        <v>1207792</v>
+        <v>2644648</v>
       </c>
       <c r="G8" t="n">
-        <v>183</v>
+        <v>183.9833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +694,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D9" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E9" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F9" t="n">
-        <v>10413</v>
+        <v>1207792</v>
       </c>
       <c r="G9" t="n">
-        <v>183.3333333333333</v>
+        <v>183.9666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +729,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C10" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D10" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E10" t="n">
         <v>184</v>
       </c>
       <c r="F10" t="n">
-        <v>1302589</v>
+        <v>10413</v>
       </c>
       <c r="G10" t="n">
-        <v>184.3333333333333</v>
+        <v>183.9666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,7 +764,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" t="n">
         <v>186</v>
@@ -760,10 +776,10 @@
         <v>184</v>
       </c>
       <c r="F11" t="n">
-        <v>26089.0513</v>
+        <v>1302589</v>
       </c>
       <c r="G11" t="n">
-        <v>185.3333333333333</v>
+        <v>184</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +799,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C12" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D12" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E12" t="n">
         <v>184</v>
       </c>
       <c r="F12" t="n">
-        <v>2284698</v>
+        <v>26089.0513</v>
       </c>
       <c r="G12" t="n">
-        <v>185.3333333333333</v>
+        <v>184.0333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -824,16 +840,16 @@
         <v>184</v>
       </c>
       <c r="D13" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E13" t="n">
         <v>184</v>
       </c>
       <c r="F13" t="n">
-        <v>2646535</v>
+        <v>2284698</v>
       </c>
       <c r="G13" t="n">
-        <v>184.6666666666667</v>
+        <v>184.0333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +872,19 @@
         <v>184</v>
       </c>
       <c r="C14" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D14" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E14" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F14" t="n">
-        <v>2357064</v>
+        <v>2646535</v>
       </c>
       <c r="G14" t="n">
-        <v>183.6666666666667</v>
+        <v>184</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +904,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C15" t="n">
         <v>183</v>
       </c>
       <c r="D15" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E15" t="n">
         <v>183</v>
       </c>
       <c r="F15" t="n">
-        <v>2625852</v>
+        <v>2357064</v>
       </c>
       <c r="G15" t="n">
-        <v>183.3333333333333</v>
+        <v>183.95</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +951,10 @@
         <v>183</v>
       </c>
       <c r="F16" t="n">
-        <v>2660540.29</v>
+        <v>2625852</v>
       </c>
       <c r="G16" t="n">
-        <v>183</v>
+        <v>183.8833333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +986,10 @@
         <v>183</v>
       </c>
       <c r="F17" t="n">
-        <v>2625852</v>
+        <v>2660540.29</v>
       </c>
       <c r="G17" t="n">
-        <v>183</v>
+        <v>183.8166666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1021,10 @@
         <v>183</v>
       </c>
       <c r="F18" t="n">
-        <v>2646528</v>
+        <v>2625852</v>
       </c>
       <c r="G18" t="n">
-        <v>183</v>
+        <v>183.75</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1056,10 @@
         <v>183</v>
       </c>
       <c r="F19" t="n">
-        <v>2656866</v>
+        <v>2646528</v>
       </c>
       <c r="G19" t="n">
-        <v>183</v>
+        <v>183.6833333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1069,16 +1085,16 @@
         <v>183</v>
       </c>
       <c r="D20" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E20" t="n">
         <v>183</v>
       </c>
       <c r="F20" t="n">
-        <v>2667540.334</v>
+        <v>2656866</v>
       </c>
       <c r="G20" t="n">
-        <v>183</v>
+        <v>183.6166666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1104,16 +1120,16 @@
         <v>183</v>
       </c>
       <c r="D21" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E21" t="n">
         <v>183</v>
       </c>
       <c r="F21" t="n">
-        <v>2615514</v>
+        <v>2667540.334</v>
       </c>
       <c r="G21" t="n">
-        <v>183</v>
+        <v>183.55</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1161,10 @@
         <v>183</v>
       </c>
       <c r="F22" t="n">
-        <v>2656866</v>
+        <v>2615514</v>
       </c>
       <c r="G22" t="n">
-        <v>183</v>
+        <v>183.4833333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1196,10 @@
         <v>183</v>
       </c>
       <c r="F23" t="n">
-        <v>2667204</v>
+        <v>2656866</v>
       </c>
       <c r="G23" t="n">
-        <v>183</v>
+        <v>183.4333333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1231,10 @@
         <v>183</v>
       </c>
       <c r="F24" t="n">
-        <v>2625852</v>
+        <v>2667204</v>
       </c>
       <c r="G24" t="n">
-        <v>183</v>
+        <v>183.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1266,10 @@
         <v>183</v>
       </c>
       <c r="F25" t="n">
-        <v>2605176</v>
+        <v>2625852</v>
       </c>
       <c r="G25" t="n">
-        <v>183</v>
+        <v>183.3666666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1301,10 @@
         <v>183</v>
       </c>
       <c r="F26" t="n">
-        <v>2653968.4373</v>
+        <v>2605176</v>
       </c>
       <c r="G26" t="n">
-        <v>183</v>
+        <v>183.3333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1336,10 @@
         <v>183</v>
       </c>
       <c r="F27" t="n">
-        <v>2687880</v>
+        <v>2653968.4373</v>
       </c>
       <c r="G27" t="n">
-        <v>183</v>
+        <v>183.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1371,10 @@
         <v>183</v>
       </c>
       <c r="F28" t="n">
-        <v>2708579</v>
+        <v>2687880</v>
       </c>
       <c r="G28" t="n">
-        <v>183</v>
+        <v>183.2666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1406,10 @@
         <v>183</v>
       </c>
       <c r="F29" t="n">
-        <v>2636190</v>
+        <v>2708579</v>
       </c>
       <c r="G29" t="n">
-        <v>183</v>
+        <v>183.2333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1441,10 @@
         <v>183</v>
       </c>
       <c r="F30" t="n">
-        <v>2594838</v>
+        <v>2636190</v>
       </c>
       <c r="G30" t="n">
-        <v>183</v>
+        <v>183.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1476,10 @@
         <v>183</v>
       </c>
       <c r="F31" t="n">
-        <v>2669764.0713</v>
+        <v>2594838</v>
       </c>
       <c r="G31" t="n">
-        <v>183</v>
+        <v>183.1666666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1511,10 @@
         <v>183</v>
       </c>
       <c r="F32" t="n">
-        <v>2678725.8014</v>
+        <v>2669764.0713</v>
       </c>
       <c r="G32" t="n">
-        <v>183</v>
+        <v>183.15</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1546,10 @@
         <v>183</v>
       </c>
       <c r="F33" t="n">
-        <v>2708556</v>
+        <v>2678725.8014</v>
       </c>
       <c r="G33" t="n">
-        <v>183</v>
+        <v>183.1333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1581,10 @@
         <v>183</v>
       </c>
       <c r="F34" t="n">
-        <v>2667204</v>
+        <v>2708556</v>
       </c>
       <c r="G34" t="n">
-        <v>183</v>
+        <v>183.1333333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1616,10 @@
         <v>183</v>
       </c>
       <c r="F35" t="n">
-        <v>1323264</v>
+        <v>2667204</v>
       </c>
       <c r="G35" t="n">
-        <v>183</v>
+        <v>183.1166666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1629,16 +1645,16 @@
         <v>183</v>
       </c>
       <c r="D36" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E36" t="n">
         <v>183</v>
       </c>
       <c r="F36" t="n">
-        <v>1665358.4827</v>
+        <v>1323264</v>
       </c>
       <c r="G36" t="n">
-        <v>183</v>
+        <v>183.0666666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1664,16 +1680,16 @@
         <v>183</v>
       </c>
       <c r="D37" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E37" t="n">
         <v>183</v>
       </c>
       <c r="F37" t="n">
-        <v>2592408.47</v>
+        <v>1665358.4827</v>
       </c>
       <c r="G37" t="n">
-        <v>183</v>
+        <v>183.05</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1699,16 +1715,16 @@
         <v>183</v>
       </c>
       <c r="D38" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E38" t="n">
         <v>183</v>
       </c>
       <c r="F38" t="n">
-        <v>302001.6687</v>
+        <v>2592408.47</v>
       </c>
       <c r="G38" t="n">
-        <v>183</v>
+        <v>183.0333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1734,16 +1750,16 @@
         <v>183</v>
       </c>
       <c r="D39" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E39" t="n">
         <v>183</v>
       </c>
       <c r="F39" t="n">
-        <v>2610657.5268</v>
+        <v>302001.6687</v>
       </c>
       <c r="G39" t="n">
-        <v>183</v>
+        <v>183.0166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1791,10 @@
         <v>183</v>
       </c>
       <c r="F40" t="n">
-        <v>2580000</v>
+        <v>2610657.5268</v>
       </c>
       <c r="G40" t="n">
-        <v>183</v>
+        <v>183.0166666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1826,10 @@
         <v>183</v>
       </c>
       <c r="F41" t="n">
-        <v>2600000</v>
+        <v>2580000</v>
       </c>
       <c r="G41" t="n">
-        <v>183</v>
+        <v>183.0333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1861,10 @@
         <v>183</v>
       </c>
       <c r="F42" t="n">
-        <v>1549341.4691</v>
+        <v>2600000</v>
       </c>
       <c r="G42" t="n">
-        <v>183</v>
+        <v>183.05</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1887,19 @@
         <v>183</v>
       </c>
       <c r="C43" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D43" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E43" t="n">
         <v>183</v>
       </c>
       <c r="F43" t="n">
-        <v>691800</v>
+        <v>1549341.4691</v>
       </c>
       <c r="G43" t="n">
-        <v>183.3333333333333</v>
+        <v>183.0666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,7 +1919,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C44" t="n">
         <v>184</v>
@@ -1912,13 +1928,13 @@
         <v>184</v>
       </c>
       <c r="E44" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F44" t="n">
-        <v>2601000</v>
+        <v>691800</v>
       </c>
       <c r="G44" t="n">
-        <v>183.6666666666667</v>
+        <v>183.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1966,10 @@
         <v>184</v>
       </c>
       <c r="F45" t="n">
-        <v>2631600</v>
+        <v>2601000</v>
       </c>
       <c r="G45" t="n">
-        <v>184</v>
+        <v>183.1333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +2001,10 @@
         <v>184</v>
       </c>
       <c r="F46" t="n">
-        <v>2611200</v>
+        <v>2631600</v>
       </c>
       <c r="G46" t="n">
-        <v>184</v>
+        <v>183.1666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2036,10 @@
         <v>184</v>
       </c>
       <c r="F47" t="n">
-        <v>2601000</v>
+        <v>2611200</v>
       </c>
       <c r="G47" t="n">
-        <v>184</v>
+        <v>183.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2071,10 @@
         <v>184</v>
       </c>
       <c r="F48" t="n">
-        <v>2366400</v>
+        <v>2601000</v>
       </c>
       <c r="G48" t="n">
-        <v>184</v>
+        <v>183.2333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2094,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C49" t="n">
         <v>184</v>
       </c>
       <c r="D49" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E49" t="n">
         <v>184</v>
       </c>
       <c r="F49" t="n">
-        <v>22602.52529523</v>
+        <v>2366400</v>
       </c>
       <c r="G49" t="n">
-        <v>184</v>
+        <v>183.2666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2129,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C50" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D50" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E50" t="n">
         <v>184</v>
       </c>
       <c r="F50" t="n">
-        <v>739000</v>
+        <v>22602.52529523</v>
       </c>
       <c r="G50" t="n">
-        <v>184.3333333333333</v>
+        <v>183.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,10 +2164,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>184</v>
+      </c>
+      <c r="C51" t="n">
         <v>185</v>
-      </c>
-      <c r="C51" t="n">
-        <v>184</v>
       </c>
       <c r="D51" t="n">
         <v>185</v>
@@ -2160,10 +2176,10 @@
         <v>184</v>
       </c>
       <c r="F51" t="n">
-        <v>193382.1061</v>
+        <v>739000</v>
       </c>
       <c r="G51" t="n">
-        <v>184.3333333333333</v>
+        <v>183.35</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2199,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C52" t="n">
         <v>184</v>
       </c>
       <c r="D52" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E52" t="n">
         <v>184</v>
       </c>
       <c r="F52" t="n">
-        <v>10000</v>
+        <v>193382.1061</v>
       </c>
       <c r="G52" t="n">
-        <v>184.3333333333333</v>
+        <v>183.3666666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2246,10 @@
         <v>184</v>
       </c>
       <c r="F53" t="n">
-        <v>91.97839999999999</v>
+        <v>10000</v>
       </c>
       <c r="G53" t="n">
-        <v>184</v>
+        <v>183.3833333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2272,19 @@
         <v>184</v>
       </c>
       <c r="C54" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D54" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E54" t="n">
         <v>184</v>
       </c>
       <c r="F54" t="n">
-        <v>1362.5351</v>
+        <v>91.97839999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>184.3333333333333</v>
+        <v>183.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2304,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C55" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D55" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E55" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F55" t="n">
-        <v>664.64</v>
+        <v>1362.5351</v>
       </c>
       <c r="G55" t="n">
-        <v>183.3333333333333</v>
+        <v>183.4333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2339,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C56" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D56" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E56" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F56" t="n">
-        <v>744.1034</v>
+        <v>664.64</v>
       </c>
       <c r="G56" t="n">
-        <v>182</v>
+        <v>183.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2374,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C57" t="n">
         <v>180</v>
       </c>
       <c r="D57" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E57" t="n">
         <v>180</v>
       </c>
       <c r="F57" t="n">
-        <v>2966.3603</v>
+        <v>744.1034</v>
       </c>
       <c r="G57" t="n">
-        <v>180.3333333333333</v>
+        <v>183.3333333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2412,19 @@
         <v>181</v>
       </c>
       <c r="C58" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" t="n">
         <v>181</v>
       </c>
       <c r="E58" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F58" t="n">
-        <v>289.5372</v>
+        <v>2966.3603</v>
       </c>
       <c r="G58" t="n">
-        <v>180.3333333333333</v>
+        <v>183.2666666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2447,19 @@
         <v>181</v>
       </c>
       <c r="C59" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D59" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E59" t="n">
         <v>181</v>
       </c>
       <c r="F59" t="n">
-        <v>29506.6491</v>
+        <v>289.5372</v>
       </c>
       <c r="G59" t="n">
-        <v>181.3333333333333</v>
+        <v>183.2166666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,7 +2479,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C60" t="n">
         <v>183</v>
@@ -2472,13 +2488,13 @@
         <v>183</v>
       </c>
       <c r="E60" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F60" t="n">
-        <v>295000</v>
+        <v>29506.6491</v>
       </c>
       <c r="G60" t="n">
-        <v>182.3333333333333</v>
+        <v>183.2166666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,19 +2526,23 @@
         <v>183</v>
       </c>
       <c r="F61" t="n">
-        <v>314267.8273</v>
+        <v>295000</v>
       </c>
       <c r="G61" t="n">
-        <v>183</v>
+        <v>183.2166666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>183</v>
+      </c>
+      <c r="K61" t="n">
+        <v>183</v>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
@@ -2533,22 +2553,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C62" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E62" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F62" t="n">
-        <v>131823.9512</v>
+        <v>314267.8273</v>
       </c>
       <c r="G62" t="n">
-        <v>183.3333333333333</v>
+        <v>183.2166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,8 +2577,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>183</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2580,10 +2606,10 @@
         <v>184</v>
       </c>
       <c r="F63" t="n">
-        <v>842234.4441</v>
+        <v>131823.9512</v>
       </c>
       <c r="G63" t="n">
-        <v>183.6666666666667</v>
+        <v>183.2333333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2618,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>183</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2615,10 +2647,10 @@
         <v>184</v>
       </c>
       <c r="F64" t="n">
-        <v>1255352.5559</v>
+        <v>842234.4441</v>
       </c>
       <c r="G64" t="n">
-        <v>184</v>
+        <v>183.25</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2682,10 @@
         <v>184</v>
       </c>
       <c r="F65" t="n">
-        <v>1131322.3043</v>
+        <v>1255352.5559</v>
       </c>
       <c r="G65" t="n">
-        <v>184</v>
+        <v>183.2666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2717,10 @@
         <v>184</v>
       </c>
       <c r="F66" t="n">
-        <v>1061703</v>
+        <v>1131322.3043</v>
       </c>
       <c r="G66" t="n">
-        <v>184</v>
+        <v>183.2833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2752,10 @@
         <v>184</v>
       </c>
       <c r="F67" t="n">
-        <v>1611831.1398</v>
+        <v>1061703</v>
       </c>
       <c r="G67" t="n">
-        <v>184</v>
+        <v>183.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2749,16 +2781,16 @@
         <v>184</v>
       </c>
       <c r="D68" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E68" t="n">
         <v>184</v>
       </c>
       <c r="F68" t="n">
-        <v>1195167.5862</v>
+        <v>1611831.1398</v>
       </c>
       <c r="G68" t="n">
-        <v>184</v>
+        <v>183.3166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2810,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C69" t="n">
         <v>184</v>
       </c>
       <c r="D69" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E69" t="n">
         <v>184</v>
       </c>
       <c r="F69" t="n">
-        <v>552500</v>
+        <v>1195167.5862</v>
       </c>
       <c r="G69" t="n">
-        <v>184</v>
+        <v>183.3333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2845,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C70" t="n">
         <v>184</v>
       </c>
       <c r="D70" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E70" t="n">
         <v>184</v>
       </c>
       <c r="F70" t="n">
-        <v>1301333.07389148</v>
+        <v>552500</v>
       </c>
       <c r="G70" t="n">
-        <v>184</v>
+        <v>183.3333333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2854,16 +2886,16 @@
         <v>184</v>
       </c>
       <c r="D71" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E71" t="n">
         <v>184</v>
       </c>
       <c r="F71" t="n">
-        <v>1306500</v>
+        <v>1301333.07389148</v>
       </c>
       <c r="G71" t="n">
-        <v>184</v>
+        <v>183.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2927,10 @@
         <v>184</v>
       </c>
       <c r="F72" t="n">
-        <v>526500</v>
+        <v>1306500</v>
       </c>
       <c r="G72" t="n">
-        <v>184</v>
+        <v>183.2666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2962,10 @@
         <v>184</v>
       </c>
       <c r="F73" t="n">
-        <v>715.135</v>
+        <v>526500</v>
       </c>
       <c r="G73" t="n">
-        <v>184</v>
+        <v>183.2666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2985,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C74" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D74" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E74" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F74" t="n">
-        <v>400</v>
+        <v>715.135</v>
       </c>
       <c r="G74" t="n">
-        <v>183</v>
+        <v>183.2666666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3020,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C75" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D75" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E75" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F75" t="n">
-        <v>345.7978</v>
+        <v>400</v>
       </c>
       <c r="G75" t="n">
-        <v>182.6666666666667</v>
+        <v>183.2333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3067,10 @@
         <v>183</v>
       </c>
       <c r="F76" t="n">
-        <v>301.4399</v>
+        <v>345.7978</v>
       </c>
       <c r="G76" t="n">
-        <v>182.3333333333333</v>
+        <v>183.2333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3090,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C77" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D77" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E77" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>301.4399</v>
       </c>
       <c r="G77" t="n">
-        <v>182.6666666666667</v>
+        <v>183.2333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3125,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C78" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D78" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E78" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>183</v>
+        <v>183.2166666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3172,10 @@
         <v>184</v>
       </c>
       <c r="F79" t="n">
-        <v>2020.0706</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>183.3333333333333</v>
+        <v>183.2333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
@@ -3152,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K79" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
@@ -3179,22 +3211,20 @@
         <v>184</v>
       </c>
       <c r="F80" t="n">
-        <v>433.9274</v>
+        <v>2020.0706</v>
       </c>
       <c r="G80" t="n">
-        <v>184</v>
+        <v>183.25</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>184</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3222,10 +3252,10 @@
         <v>184</v>
       </c>
       <c r="F81" t="n">
-        <v>1586.1432</v>
+        <v>433.9274</v>
       </c>
       <c r="G81" t="n">
-        <v>184</v>
+        <v>183.2666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3235,7 +3265,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3251,31 +3281,35 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C82" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D82" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E82" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F82" t="n">
-        <v>580</v>
+        <v>1586.1432</v>
       </c>
       <c r="G82" t="n">
-        <v>184.6666666666667</v>
+        <v>183.2833333333333</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>184</v>
+      </c>
+      <c r="K82" t="n">
+        <v>184</v>
+      </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
@@ -3298,10 +3332,10 @@
         <v>186</v>
       </c>
       <c r="F83" t="n">
-        <v>430.337</v>
+        <v>580</v>
       </c>
       <c r="G83" t="n">
-        <v>185.3333333333333</v>
+        <v>183.3333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3310,8 +3344,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>184</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3321,22 +3361,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C84" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D84" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E84" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F84" t="n">
-        <v>20</v>
+        <v>430.337</v>
       </c>
       <c r="G84" t="n">
-        <v>186.3333333333333</v>
+        <v>183.3833333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3345,8 +3385,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>184</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3368,10 +3414,10 @@
         <v>187</v>
       </c>
       <c r="F85" t="n">
-        <v>413.9274</v>
+        <v>20</v>
       </c>
       <c r="G85" t="n">
-        <v>186.6666666666667</v>
+        <v>183.45</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3391,22 +3437,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C86" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D86" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E86" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F86" t="n">
-        <v>1556.52230852</v>
+        <v>413.9274</v>
       </c>
       <c r="G86" t="n">
-        <v>187.3333333333333</v>
+        <v>183.5166666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3426,22 +3472,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C87" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D87" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E87" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F87" t="n">
-        <v>836.3809</v>
+        <v>1556.52230852</v>
       </c>
       <c r="G87" t="n">
-        <v>188</v>
+        <v>183.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3461,22 +3507,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C88" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D88" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E88" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F88" t="n">
-        <v>6.25</v>
+        <v>836.3809</v>
       </c>
       <c r="G88" t="n">
-        <v>187</v>
+        <v>183.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3508,10 +3554,10 @@
         <v>184</v>
       </c>
       <c r="F89" t="n">
-        <v>336.75</v>
+        <v>6.25</v>
       </c>
       <c r="G89" t="n">
-        <v>185.6666666666667</v>
+        <v>183.7166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3531,22 +3577,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C90" t="n">
         <v>184</v>
       </c>
       <c r="D90" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E90" t="n">
         <v>184</v>
       </c>
       <c r="F90" t="n">
-        <v>841.17112299</v>
+        <v>336.75</v>
       </c>
       <c r="G90" t="n">
-        <v>184</v>
+        <v>183.7333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3566,22 +3612,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C91" t="n">
         <v>184</v>
       </c>
       <c r="D91" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E91" t="n">
         <v>184</v>
       </c>
       <c r="F91" t="n">
-        <v>310.3428</v>
+        <v>841.17112299</v>
       </c>
       <c r="G91" t="n">
-        <v>184</v>
+        <v>183.75</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3613,10 +3659,10 @@
         <v>184</v>
       </c>
       <c r="F92" t="n">
-        <v>1314.2981</v>
+        <v>310.3428</v>
       </c>
       <c r="G92" t="n">
-        <v>184</v>
+        <v>183.7666666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3636,22 +3682,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C93" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D93" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E93" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F93" t="n">
-        <v>649.4127</v>
+        <v>1314.2981</v>
       </c>
       <c r="G93" t="n">
-        <v>184.6666666666667</v>
+        <v>183.7833333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3671,22 +3717,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C94" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D94" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E94" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F94" t="n">
-        <v>1061.5427</v>
+        <v>649.4127</v>
       </c>
       <c r="G94" t="n">
-        <v>185.6666666666667</v>
+        <v>183.8333333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3706,22 +3752,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C95" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D95" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E95" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F95" t="n">
-        <v>1349.6303</v>
+        <v>1061.5427</v>
       </c>
       <c r="G95" t="n">
-        <v>186.3333333333333</v>
+        <v>183.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3741,22 +3787,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C96" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D96" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E96" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F96" t="n">
-        <v>1207.0456</v>
+        <v>1349.6303</v>
       </c>
       <c r="G96" t="n">
-        <v>186.6666666666667</v>
+        <v>183.95</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3776,7 +3822,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C97" t="n">
         <v>187</v>
@@ -3785,13 +3831,13 @@
         <v>187</v>
       </c>
       <c r="E97" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F97" t="n">
-        <v>856.7375</v>
+        <v>1207.0456</v>
       </c>
       <c r="G97" t="n">
-        <v>186.6666666666667</v>
+        <v>184.0166666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3823,10 +3869,10 @@
         <v>187</v>
       </c>
       <c r="F98" t="n">
-        <v>341.1392</v>
+        <v>856.7375</v>
       </c>
       <c r="G98" t="n">
-        <v>187</v>
+        <v>184.0833333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3846,22 +3892,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C99" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D99" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E99" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F99" t="n">
-        <v>659.6739</v>
+        <v>341.1392</v>
       </c>
       <c r="G99" t="n">
-        <v>186.3333333333333</v>
+        <v>184.15</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3881,22 +3927,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C100" t="n">
         <v>185</v>
       </c>
       <c r="D100" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E100" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F100" t="n">
-        <v>511.704</v>
+        <v>659.6739</v>
       </c>
       <c r="G100" t="n">
-        <v>185.6666666666667</v>
+        <v>184.1833333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3919,19 +3965,19 @@
         <v>185</v>
       </c>
       <c r="C101" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D101" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E101" t="n">
         <v>185</v>
       </c>
       <c r="F101" t="n">
-        <v>139.8204</v>
+        <v>511.704</v>
       </c>
       <c r="G101" t="n">
-        <v>185.3333333333333</v>
+        <v>184.2166666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3951,7 +3997,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C102" t="n">
         <v>186</v>
@@ -3960,13 +4006,13 @@
         <v>186</v>
       </c>
       <c r="E102" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F102" t="n">
-        <v>1207.5107</v>
+        <v>139.8204</v>
       </c>
       <c r="G102" t="n">
-        <v>185.6666666666667</v>
+        <v>184.2666666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3986,22 +4032,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C103" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D103" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E103" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F103" t="n">
-        <v>65.7252</v>
+        <v>1207.5107</v>
       </c>
       <c r="G103" t="n">
-        <v>185.6666666666667</v>
+        <v>184.3166666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4024,19 +4070,19 @@
         <v>185</v>
       </c>
       <c r="C104" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D104" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E104" t="n">
         <v>185</v>
       </c>
       <c r="F104" t="n">
-        <v>6064.1657</v>
+        <v>65.7252</v>
       </c>
       <c r="G104" t="n">
-        <v>185.6666666666667</v>
+        <v>184.3333333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4056,7 +4102,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C105" t="n">
         <v>186</v>
@@ -4065,13 +4111,13 @@
         <v>186</v>
       </c>
       <c r="E105" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F105" t="n">
-        <v>563022</v>
+        <v>6064.1657</v>
       </c>
       <c r="G105" t="n">
-        <v>185.6666666666667</v>
+        <v>184.3666666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4103,10 +4149,10 @@
         <v>186</v>
       </c>
       <c r="F106" t="n">
-        <v>1604310.1907</v>
+        <v>563022</v>
       </c>
       <c r="G106" t="n">
-        <v>186</v>
+        <v>184.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4138,10 +4184,10 @@
         <v>186</v>
       </c>
       <c r="F107" t="n">
-        <v>1150260</v>
+        <v>1604310.1907</v>
       </c>
       <c r="G107" t="n">
-        <v>186</v>
+        <v>184.4333333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4173,10 +4219,10 @@
         <v>186</v>
       </c>
       <c r="F108" t="n">
-        <v>216000</v>
+        <v>1150260</v>
       </c>
       <c r="G108" t="n">
-        <v>186</v>
+        <v>184.4666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4199,19 +4245,19 @@
         <v>186</v>
       </c>
       <c r="C109" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D109" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E109" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F109" t="n">
-        <v>170120.975</v>
+        <v>216000</v>
       </c>
       <c r="G109" t="n">
-        <v>186.3333333333333</v>
+        <v>184.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4231,22 +4277,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C110" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D110" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E110" t="n">
         <v>185</v>
       </c>
       <c r="F110" t="n">
-        <v>4862.3003</v>
+        <v>170120.975</v>
       </c>
       <c r="G110" t="n">
-        <v>186</v>
+        <v>184.55</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4266,22 +4312,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C111" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D111" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E111" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F111" t="n">
-        <v>443.4233</v>
+        <v>4862.3003</v>
       </c>
       <c r="G111" t="n">
-        <v>185.3333333333333</v>
+        <v>184.55</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4301,22 +4347,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C112" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D112" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E112" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F112" t="n">
-        <v>557.0767</v>
+        <v>443.4233</v>
       </c>
       <c r="G112" t="n">
-        <v>184</v>
+        <v>184.55</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4336,22 +4382,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C113" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D113" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E113" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F113" t="n">
-        <v>7411.0464</v>
+        <v>557.0767</v>
       </c>
       <c r="G113" t="n">
-        <v>184.3333333333333</v>
+        <v>184.5333333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4371,7 +4417,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C114" t="n">
         <v>186</v>
@@ -4383,10 +4429,10 @@
         <v>185</v>
       </c>
       <c r="F114" t="n">
-        <v>325030.5001</v>
+        <v>7411.0464</v>
       </c>
       <c r="G114" t="n">
-        <v>185</v>
+        <v>184.5666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4415,13 +4461,13 @@
         <v>186</v>
       </c>
       <c r="E115" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F115" t="n">
-        <v>992438</v>
+        <v>325030.5001</v>
       </c>
       <c r="G115" t="n">
-        <v>186</v>
+        <v>184.5833333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4453,10 +4499,10 @@
         <v>186</v>
       </c>
       <c r="F116" t="n">
-        <v>1095388</v>
+        <v>992438</v>
       </c>
       <c r="G116" t="n">
-        <v>186</v>
+        <v>184.6666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4488,10 +4534,10 @@
         <v>186</v>
       </c>
       <c r="F117" t="n">
-        <v>1103624</v>
+        <v>1095388</v>
       </c>
       <c r="G117" t="n">
-        <v>186</v>
+        <v>184.7666666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4517,16 +4563,16 @@
         <v>186</v>
       </c>
       <c r="D118" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E118" t="n">
         <v>186</v>
       </c>
       <c r="F118" t="n">
-        <v>1103625</v>
+        <v>1103624</v>
       </c>
       <c r="G118" t="n">
-        <v>186</v>
+        <v>184.8666666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4552,16 +4598,16 @@
         <v>186</v>
       </c>
       <c r="D119" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E119" t="n">
         <v>186</v>
       </c>
       <c r="F119" t="n">
-        <v>1095388</v>
+        <v>1103625</v>
       </c>
       <c r="G119" t="n">
-        <v>186</v>
+        <v>184.95</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4593,10 +4639,10 @@
         <v>186</v>
       </c>
       <c r="F120" t="n">
-        <v>1083034</v>
+        <v>1095388</v>
       </c>
       <c r="G120" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4628,10 +4674,10 @@
         <v>186</v>
       </c>
       <c r="F121" t="n">
-        <v>1074852.8057</v>
+        <v>1083034</v>
       </c>
       <c r="G121" t="n">
-        <v>186</v>
+        <v>185.05</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4663,10 +4709,10 @@
         <v>186</v>
       </c>
       <c r="F122" t="n">
-        <v>1087152</v>
+        <v>1074852.8057</v>
       </c>
       <c r="G122" t="n">
-        <v>186</v>
+        <v>185.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4698,10 +4744,10 @@
         <v>186</v>
       </c>
       <c r="F123" t="n">
-        <v>448862</v>
+        <v>1087152</v>
       </c>
       <c r="G123" t="n">
-        <v>186</v>
+        <v>185.1333333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4733,10 +4779,10 @@
         <v>186</v>
       </c>
       <c r="F124" t="n">
-        <v>296.6471</v>
+        <v>448862</v>
       </c>
       <c r="G124" t="n">
-        <v>186</v>
+        <v>185.1666666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4768,10 +4814,10 @@
         <v>186</v>
       </c>
       <c r="F125" t="n">
-        <v>1494.8507</v>
+        <v>296.6471</v>
       </c>
       <c r="G125" t="n">
-        <v>186</v>
+        <v>185.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4791,22 +4837,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C126" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D126" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E126" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F126" t="n">
-        <v>2106.2654</v>
+        <v>1494.8507</v>
       </c>
       <c r="G126" t="n">
-        <v>186.3333333333333</v>
+        <v>185.2333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4838,10 +4884,10 @@
         <v>187</v>
       </c>
       <c r="F127" t="n">
-        <v>6.7433</v>
+        <v>2106.2654</v>
       </c>
       <c r="G127" t="n">
-        <v>186.6666666666667</v>
+        <v>185.2833333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4873,10 +4919,10 @@
         <v>187</v>
       </c>
       <c r="F128" t="n">
-        <v>15516.6053</v>
+        <v>6.7433</v>
       </c>
       <c r="G128" t="n">
-        <v>187</v>
+        <v>185.3333333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4908,10 +4954,10 @@
         <v>187</v>
       </c>
       <c r="F129" t="n">
-        <v>421</v>
+        <v>15516.6053</v>
       </c>
       <c r="G129" t="n">
-        <v>187</v>
+        <v>185.3833333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4934,19 +4980,19 @@
         <v>187</v>
       </c>
       <c r="C130" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D130" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E130" t="n">
         <v>187</v>
       </c>
       <c r="F130" t="n">
-        <v>7219</v>
+        <v>421</v>
       </c>
       <c r="G130" t="n">
-        <v>187.3333333333333</v>
+        <v>185.4333333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4966,22 +5012,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>187</v>
+      </c>
+      <c r="C131" t="n">
         <v>188</v>
       </c>
-      <c r="C131" t="n">
-        <v>190</v>
-      </c>
       <c r="D131" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E131" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F131" t="n">
-        <v>8475.794400000001</v>
+        <v>7219</v>
       </c>
       <c r="G131" t="n">
-        <v>188.3333333333333</v>
+        <v>185.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5001,22 +5047,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C132" t="n">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D132" t="n">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E132" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F132" t="n">
-        <v>31985.56250419</v>
+        <v>8475.794400000001</v>
       </c>
       <c r="G132" t="n">
-        <v>190.3333333333333</v>
+        <v>185.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5036,22 +5082,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>191</v>
+      </c>
+      <c r="C133" t="n">
         <v>193</v>
       </c>
-      <c r="C133" t="n">
-        <v>194</v>
-      </c>
       <c r="D133" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E133" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F133" t="n">
-        <v>17309.7061</v>
+        <v>31985.56250419</v>
       </c>
       <c r="G133" t="n">
-        <v>192.3333333333333</v>
+        <v>185.75</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5071,22 +5117,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C134" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D134" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E134" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F134" t="n">
-        <v>95.43899999999999</v>
+        <v>17309.7061</v>
       </c>
       <c r="G134" t="n">
-        <v>192.6666666666667</v>
+        <v>185.9166666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5106,22 +5152,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C135" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D135" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E135" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F135" t="n">
-        <v>1380.9415</v>
+        <v>95.43899999999999</v>
       </c>
       <c r="G135" t="n">
-        <v>191.6666666666667</v>
+        <v>186.0833333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5141,28 +5187,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C136" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D136" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E136" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F136" t="n">
-        <v>203</v>
+        <v>1380.9415</v>
       </c>
       <c r="G136" t="n">
-        <v>190</v>
+        <v>186.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5176,28 +5222,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C137" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D137" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E137" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F137" t="n">
-        <v>555.684</v>
+        <v>203</v>
       </c>
       <c r="G137" t="n">
-        <v>189</v>
+        <v>186.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5223,10 +5269,10 @@
         <v>188</v>
       </c>
       <c r="F138" t="n">
-        <v>721.4974999999999</v>
+        <v>555.684</v>
       </c>
       <c r="G138" t="n">
-        <v>188.3333333333333</v>
+        <v>186.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5249,25 +5295,25 @@
         <v>188</v>
       </c>
       <c r="C139" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D139" t="n">
         <v>188</v>
       </c>
       <c r="E139" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F139" t="n">
-        <v>8000</v>
+        <v>721.4974999999999</v>
       </c>
       <c r="G139" t="n">
-        <v>187.6666666666667</v>
+        <v>186.4666666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5281,22 +5327,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C140" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D140" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E140" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G140" t="n">
-        <v>188</v>
+        <v>186.5166666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5328,10 +5374,10 @@
         <v>189</v>
       </c>
       <c r="F141" t="n">
-        <v>1508.074</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>188.3333333333333</v>
+        <v>186.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5363,10 +5409,10 @@
         <v>189</v>
       </c>
       <c r="F142" t="n">
-        <v>244932.7422</v>
+        <v>1508.074</v>
       </c>
       <c r="G142" t="n">
-        <v>189</v>
+        <v>186.6833333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5398,10 +5444,10 @@
         <v>189</v>
       </c>
       <c r="F143" t="n">
-        <v>71876.1776</v>
+        <v>244932.7422</v>
       </c>
       <c r="G143" t="n">
-        <v>189</v>
+        <v>186.7333333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5424,19 +5470,19 @@
         <v>189</v>
       </c>
       <c r="C144" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D144" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E144" t="n">
         <v>189</v>
       </c>
       <c r="F144" t="n">
-        <v>3911.9687</v>
+        <v>71876.1776</v>
       </c>
       <c r="G144" t="n">
-        <v>189.6666666666667</v>
+        <v>186.7833333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5456,7 +5502,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C145" t="n">
         <v>191</v>
@@ -5465,13 +5511,13 @@
         <v>191</v>
       </c>
       <c r="E145" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F145" t="n">
-        <v>1.1099</v>
+        <v>3911.9687</v>
       </c>
       <c r="G145" t="n">
-        <v>190.3333333333333</v>
+        <v>186.85</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5503,10 +5549,10 @@
         <v>191</v>
       </c>
       <c r="F146" t="n">
-        <v>217.0996</v>
+        <v>1.1099</v>
       </c>
       <c r="G146" t="n">
-        <v>191</v>
+        <v>186.9166666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5538,10 +5584,10 @@
         <v>191</v>
       </c>
       <c r="F147" t="n">
-        <v>82.9004</v>
+        <v>217.0996</v>
       </c>
       <c r="G147" t="n">
-        <v>191</v>
+        <v>186.9666666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5561,22 +5607,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C148" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D148" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E148" t="n">
+        <v>191</v>
+      </c>
+      <c r="F148" t="n">
+        <v>82.9004</v>
+      </c>
+      <c r="G148" t="n">
         <v>187</v>
-      </c>
-      <c r="F148" t="n">
-        <v>5382.4906</v>
-      </c>
-      <c r="G148" t="n">
-        <v>190</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5602,16 +5648,16 @@
         <v>188</v>
       </c>
       <c r="D149" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E149" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F149" t="n">
-        <v>24.3757</v>
+        <v>5382.4906</v>
       </c>
       <c r="G149" t="n">
-        <v>189</v>
+        <v>187.0666666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5643,10 +5689,10 @@
         <v>188</v>
       </c>
       <c r="F150" t="n">
-        <v>178.5705</v>
+        <v>24.3757</v>
       </c>
       <c r="G150" t="n">
-        <v>188</v>
+        <v>187.1333333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5666,22 +5712,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C151" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D151" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E151" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F151" t="n">
-        <v>2.1693</v>
+        <v>178.5705</v>
       </c>
       <c r="G151" t="n">
-        <v>188.3333333333333</v>
+        <v>187.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5701,22 +5747,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C152" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D152" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E152" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F152" t="n">
-        <v>3903.2959</v>
+        <v>2.1693</v>
       </c>
       <c r="G152" t="n">
-        <v>187.6666666666667</v>
+        <v>187.2833333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5736,22 +5782,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C153" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D153" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E153" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>3903.2959</v>
       </c>
       <c r="G153" t="n">
-        <v>188</v>
+        <v>187.3166666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5783,10 +5829,10 @@
         <v>189</v>
       </c>
       <c r="F154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>188</v>
+        <v>187.3666666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5806,22 +5852,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C155" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D155" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E155" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F155" t="n">
-        <v>436.0791</v>
+        <v>2</v>
       </c>
       <c r="G155" t="n">
-        <v>188.6666666666667</v>
+        <v>187.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5841,22 +5887,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C156" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D156" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E156" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F156" t="n">
-        <v>13049.0776</v>
+        <v>436.0791</v>
       </c>
       <c r="G156" t="n">
-        <v>187.6666666666667</v>
+        <v>187.4333333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5876,22 +5922,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C157" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D157" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E157" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>13049.0776</v>
       </c>
       <c r="G157" t="n">
-        <v>187.3333333333333</v>
+        <v>187.4166666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5923,10 +5969,10 @@
         <v>188</v>
       </c>
       <c r="F158" t="n">
-        <v>8.297800000000001</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>187.3333333333333</v>
+        <v>187.4333333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5946,22 +5992,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C159" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D159" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E159" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F159" t="n">
-        <v>8.276999999999999</v>
+        <v>8.297800000000001</v>
       </c>
       <c r="G159" t="n">
-        <v>187.3333333333333</v>
+        <v>187.45</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5981,22 +6027,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C160" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D160" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E160" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>8.276999999999999</v>
       </c>
       <c r="G160" t="n">
-        <v>187.3333333333333</v>
+        <v>187.4666666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6028,10 +6074,10 @@
         <v>188</v>
       </c>
       <c r="F161" t="n">
-        <v>4700.6848</v>
+        <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>187.3333333333333</v>
+        <v>187.5166666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6063,10 +6109,10 @@
         <v>188</v>
       </c>
       <c r="F162" t="n">
-        <v>281.2087</v>
+        <v>4700.6848</v>
       </c>
       <c r="G162" t="n">
-        <v>188</v>
+        <v>187.55</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6089,19 +6135,19 @@
         <v>188</v>
       </c>
       <c r="C163" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D163" t="n">
         <v>188</v>
       </c>
       <c r="E163" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F163" t="n">
-        <v>5667.7711</v>
+        <v>281.2087</v>
       </c>
       <c r="G163" t="n">
-        <v>187.3333333333333</v>
+        <v>187.5833333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6121,38 +6167,32 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C164" t="n">
         <v>186</v>
       </c>
       <c r="D164" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E164" t="n">
         <v>186</v>
       </c>
       <c r="F164" t="n">
-        <v>856.3132000000001</v>
+        <v>5667.7711</v>
       </c>
       <c r="G164" t="n">
-        <v>186.6666666666667</v>
+        <v>187.6</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>186</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6162,38 +6202,32 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C165" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D165" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E165" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F165" t="n">
-        <v>2</v>
+        <v>856.3132000000001</v>
       </c>
       <c r="G165" t="n">
-        <v>187</v>
+        <v>187.6</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>186</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6203,7 +6237,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C166" t="n">
         <v>189</v>
@@ -6212,29 +6246,23 @@
         <v>189</v>
       </c>
       <c r="E166" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F166" t="n">
-        <v>369</v>
+        <v>2</v>
       </c>
       <c r="G166" t="n">
-        <v>188</v>
+        <v>187.65</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>189</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6247,19 +6275,19 @@
         <v>189</v>
       </c>
       <c r="C167" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D167" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E167" t="n">
         <v>189</v>
       </c>
       <c r="F167" t="n">
-        <v>9</v>
+        <v>369</v>
       </c>
       <c r="G167" t="n">
-        <v>189.3333333333333</v>
+        <v>187.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6269,11 +6297,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6295,10 +6319,10 @@
         <v>189</v>
       </c>
       <c r="F168" t="n">
-        <v>703.4578</v>
+        <v>9</v>
       </c>
       <c r="G168" t="n">
-        <v>189.6666666666667</v>
+        <v>187.7666666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6308,11 +6332,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6322,7 +6342,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C169" t="n">
         <v>190</v>
@@ -6331,13 +6351,13 @@
         <v>190</v>
       </c>
       <c r="E169" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F169" t="n">
-        <v>931.6057</v>
+        <v>703.4578</v>
       </c>
       <c r="G169" t="n">
-        <v>190</v>
+        <v>187.8333333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6347,11 +6367,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6361,22 +6377,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C170" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D170" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E170" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F170" t="n">
-        <v>5245.96858638</v>
+        <v>931.6057</v>
       </c>
       <c r="G170" t="n">
-        <v>190.3333333333333</v>
+        <v>187.8833333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6386,11 +6402,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6412,10 +6424,10 @@
         <v>191</v>
       </c>
       <c r="F171" t="n">
-        <v>1713.49781362</v>
+        <v>5245.96858638</v>
       </c>
       <c r="G171" t="n">
-        <v>190.6666666666667</v>
+        <v>187.9833333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6425,11 +6437,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6439,22 +6447,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C172" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D172" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E172" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>1713.49781362</v>
       </c>
       <c r="G172" t="n">
-        <v>191.6666666666667</v>
+        <v>188.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6464,11 +6472,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6490,10 +6494,10 @@
         <v>193</v>
       </c>
       <c r="F173" t="n">
-        <v>1005.9896</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>192.3333333333333</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6503,11 +6507,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6520,19 +6520,19 @@
         <v>193</v>
       </c>
       <c r="C174" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D174" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E174" t="n">
         <v>193</v>
       </c>
       <c r="F174" t="n">
-        <v>1137.75758556</v>
+        <v>1005.9896</v>
       </c>
       <c r="G174" t="n">
-        <v>193.3333333333333</v>
+        <v>188.3833333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6542,11 +6542,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6559,19 +6555,19 @@
         <v>193</v>
       </c>
       <c r="C175" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D175" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E175" t="n">
         <v>193</v>
       </c>
       <c r="F175" t="n">
-        <v>150</v>
+        <v>1137.75758556</v>
       </c>
       <c r="G175" t="n">
-        <v>193.3333333333333</v>
+        <v>188.5166666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6581,11 +6577,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6595,22 +6587,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C176" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D176" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E176" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F176" t="n">
-        <v>501.2017</v>
+        <v>150</v>
       </c>
       <c r="G176" t="n">
-        <v>192.6666666666667</v>
+        <v>188.6333333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6620,11 +6612,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6634,22 +6622,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C177" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D177" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E177" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F177" t="n">
-        <v>65.26983333</v>
+        <v>501.2017</v>
       </c>
       <c r="G177" t="n">
-        <v>192</v>
+        <v>188.7166666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6659,11 +6647,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6676,19 +6660,19 @@
         <v>192</v>
       </c>
       <c r="C178" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D178" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E178" t="n">
         <v>192</v>
       </c>
       <c r="F178" t="n">
-        <v>5740.15149793</v>
+        <v>65.26983333</v>
       </c>
       <c r="G178" t="n">
-        <v>192.3333333333333</v>
+        <v>188.8166666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6698,11 +6682,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6712,22 +6692,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C179" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D179" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E179" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F179" t="n">
-        <v>2518.6528</v>
+        <v>5740.15149793</v>
       </c>
       <c r="G179" t="n">
-        <v>193</v>
+        <v>188.95</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6737,11 +6717,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6751,22 +6727,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C180" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D180" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E180" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F180" t="n">
-        <v>150</v>
+        <v>2518.6528</v>
       </c>
       <c r="G180" t="n">
-        <v>192.3333333333333</v>
+        <v>189.0666666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6776,11 +6752,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6793,19 +6765,19 @@
         <v>190</v>
       </c>
       <c r="C181" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D181" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E181" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F181" t="n">
-        <v>1478.7876</v>
+        <v>150</v>
       </c>
       <c r="G181" t="n">
-        <v>191.6666666666667</v>
+        <v>189.1333333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6815,11 +6787,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6829,22 +6797,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>190</v>
+      </c>
+      <c r="C182" t="n">
         <v>192</v>
       </c>
-      <c r="C182" t="n">
-        <v>193</v>
-      </c>
       <c r="D182" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E182" t="n">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F182" t="n">
-        <v>710.526</v>
+        <v>1478.7876</v>
       </c>
       <c r="G182" t="n">
-        <v>191.6666666666667</v>
+        <v>189.2333333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6854,11 +6822,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6868,7 +6832,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C183" t="n">
         <v>193</v>
@@ -6877,13 +6841,13 @@
         <v>193</v>
       </c>
       <c r="E183" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F183" t="n">
-        <v>466.32124352</v>
+        <v>710.526</v>
       </c>
       <c r="G183" t="n">
-        <v>192.6666666666667</v>
+        <v>189.35</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6893,11 +6857,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6907,22 +6867,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C184" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D184" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E184" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F184" t="n">
-        <v>2000</v>
+        <v>466.32124352</v>
       </c>
       <c r="G184" t="n">
-        <v>192.6666666666667</v>
+        <v>189.4666666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6932,11 +6892,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6946,22 +6902,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C185" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D185" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E185" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F185" t="n">
-        <v>2.8445</v>
+        <v>2000</v>
       </c>
       <c r="G185" t="n">
-        <v>192.6666666666667</v>
+        <v>189.5666666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6971,11 +6927,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6985,7 +6937,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C186" t="n">
         <v>193</v>
@@ -6994,13 +6946,13 @@
         <v>193</v>
       </c>
       <c r="E186" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F186" t="n">
-        <v>780.454</v>
+        <v>2.8445</v>
       </c>
       <c r="G186" t="n">
-        <v>192.6666666666667</v>
+        <v>189.6833333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7010,11 +6962,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7027,19 +6975,19 @@
         <v>192</v>
       </c>
       <c r="C187" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D187" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E187" t="n">
         <v>192</v>
       </c>
       <c r="F187" t="n">
-        <v>87.4455</v>
+        <v>780.454</v>
       </c>
       <c r="G187" t="n">
-        <v>192.6666666666667</v>
+        <v>189.7833333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7049,11 +6997,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7066,19 +7010,19 @@
         <v>192</v>
       </c>
       <c r="C188" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D188" t="n">
         <v>192</v>
       </c>
       <c r="E188" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F188" t="n">
-        <v>585.2218</v>
+        <v>87.4455</v>
       </c>
       <c r="G188" t="n">
-        <v>191.6666666666667</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7088,11 +7032,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7102,22 +7042,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C189" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D189" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E189" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F189" t="n">
-        <v>142.4827</v>
+        <v>585.2218</v>
       </c>
       <c r="G189" t="n">
-        <v>190.3333333333333</v>
+        <v>189.9166666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7127,11 +7067,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7153,10 +7089,10 @@
         <v>189</v>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>142.4827</v>
       </c>
       <c r="G190" t="n">
-        <v>189.3333333333333</v>
+        <v>189.95</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7166,11 +7102,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7180,22 +7112,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C191" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D191" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E191" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F191" t="n">
-        <v>525.7140000000001</v>
+        <v>200</v>
       </c>
       <c r="G191" t="n">
-        <v>189.3333333333333</v>
+        <v>189.9666666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7205,11 +7137,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7219,22 +7147,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C192" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D192" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E192" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F192" t="n">
-        <v>99</v>
+        <v>525.7140000000001</v>
       </c>
       <c r="G192" t="n">
-        <v>190</v>
+        <v>189.9666666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7244,11 +7172,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7258,22 +7182,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C193" t="n">
         <v>191</v>
       </c>
       <c r="D193" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E193" t="n">
         <v>191</v>
       </c>
       <c r="F193" t="n">
-        <v>83.625</v>
+        <v>99</v>
       </c>
       <c r="G193" t="n">
-        <v>190.6666666666667</v>
+        <v>189.9333333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7283,11 +7207,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7297,22 +7217,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C194" t="n">
         <v>191</v>
       </c>
       <c r="D194" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E194" t="n">
         <v>191</v>
       </c>
       <c r="F194" t="n">
-        <v>9.2302</v>
+        <v>83.625</v>
       </c>
       <c r="G194" t="n">
-        <v>191</v>
+        <v>189.8833333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7322,11 +7242,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7348,10 +7264,10 @@
         <v>191</v>
       </c>
       <c r="F195" t="n">
-        <v>3255.0025</v>
+        <v>9.2302</v>
       </c>
       <c r="G195" t="n">
-        <v>191</v>
+        <v>189.8833333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7361,11 +7277,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7387,10 +7299,10 @@
         <v>191</v>
       </c>
       <c r="F196" t="n">
-        <v>2364.9548</v>
+        <v>3255.0025</v>
       </c>
       <c r="G196" t="n">
-        <v>191</v>
+        <v>189.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7400,12 +7312,43 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>191</v>
+      </c>
+      <c r="C197" t="n">
+        <v>191</v>
+      </c>
+      <c r="D197" t="n">
+        <v>191</v>
+      </c>
+      <c r="E197" t="n">
+        <v>191</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2364.9548</v>
+      </c>
+      <c r="G197" t="n">
+        <v>189.9333333333333</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-28 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-28 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M197"/>
+  <dimension ref="A1:N207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>37627.7744</v>
       </c>
       <c r="G2" t="n">
+        <v>182.9333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>184.0833333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>2113636</v>
       </c>
       <c r="G3" t="n">
+        <v>183</v>
+      </c>
+      <c r="H3" t="n">
         <v>184.0666666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,22 +529,21 @@
         <v>2686296</v>
       </c>
       <c r="G4" t="n">
+        <v>183.0666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>184.05</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>183</v>
-      </c>
-      <c r="K4" t="n">
-        <v>183</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -557,24 +567,21 @@
         <v>2655073.7975</v>
       </c>
       <c r="G5" t="n">
+        <v>183.1333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>184.0333333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>183</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -598,24 +605,21 @@
         <v>2623810.2025</v>
       </c>
       <c r="G6" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="H6" t="n">
         <v>184.0166666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>183</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -639,18 +643,21 @@
         <v>2644648</v>
       </c>
       <c r="G7" t="n">
-        <v>184</v>
+        <v>183.2</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,18 +681,21 @@
         <v>2644648</v>
       </c>
       <c r="G8" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="H8" t="n">
         <v>183.9833333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -709,18 +719,21 @@
         <v>1207792</v>
       </c>
       <c r="G9" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="H9" t="n">
         <v>183.9666666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -744,18 +757,21 @@
         <v>10413</v>
       </c>
       <c r="G10" t="n">
+        <v>183.2666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>183.9666666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -779,18 +795,21 @@
         <v>1302589</v>
       </c>
       <c r="G11" t="n">
-        <v>184</v>
+        <v>183.4666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -814,18 +833,21 @@
         <v>26089.0513</v>
       </c>
       <c r="G12" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="H12" t="n">
         <v>184.0333333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -849,18 +871,21 @@
         <v>2284698</v>
       </c>
       <c r="G13" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="H13" t="n">
         <v>184.0333333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -884,18 +909,21 @@
         <v>2646535</v>
       </c>
       <c r="G14" t="n">
-        <v>184</v>
+        <v>183.6</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -919,18 +947,21 @@
         <v>2357064</v>
       </c>
       <c r="G15" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="H15" t="n">
         <v>183.95</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -954,18 +985,21 @@
         <v>2625852</v>
       </c>
       <c r="G16" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="H16" t="n">
         <v>183.8833333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -989,18 +1023,21 @@
         <v>2660540.29</v>
       </c>
       <c r="G17" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="H17" t="n">
         <v>183.8166666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1024,18 +1061,21 @@
         <v>2625852</v>
       </c>
       <c r="G18" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="H18" t="n">
         <v>183.75</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1059,18 +1099,21 @@
         <v>2646528</v>
       </c>
       <c r="G19" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="H19" t="n">
         <v>183.6833333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1094,18 +1137,21 @@
         <v>2656866</v>
       </c>
       <c r="G20" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="H20" t="n">
         <v>183.6166666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1129,18 +1175,21 @@
         <v>2667540.334</v>
       </c>
       <c r="G21" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="H21" t="n">
         <v>183.55</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1164,18 +1213,21 @@
         <v>2615514</v>
       </c>
       <c r="G22" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="H22" t="n">
         <v>183.4833333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1199,18 +1251,21 @@
         <v>2656866</v>
       </c>
       <c r="G23" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="H23" t="n">
         <v>183.4333333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1234,18 +1289,21 @@
         <v>2667204</v>
       </c>
       <c r="G24" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="H24" t="n">
         <v>183.4</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1269,18 +1327,21 @@
         <v>2625852</v>
       </c>
       <c r="G25" t="n">
+        <v>183.5333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>183.3666666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1307,15 +1368,18 @@
         <v>183.3333333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>183.3333333333333</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,18 +1403,21 @@
         <v>2653968.4373</v>
       </c>
       <c r="G27" t="n">
+        <v>183.1333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>183.3</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,18 +1441,21 @@
         <v>2687880</v>
       </c>
       <c r="G28" t="n">
+        <v>183.0666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>183.2666666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,18 +1479,21 @@
         <v>2708579</v>
       </c>
       <c r="G29" t="n">
+        <v>183</v>
+      </c>
+      <c r="H29" t="n">
         <v>183.2333333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,18 +1517,21 @@
         <v>2636190</v>
       </c>
       <c r="G30" t="n">
+        <v>183</v>
+      </c>
+      <c r="H30" t="n">
         <v>183.2</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,18 +1555,21 @@
         <v>2594838</v>
       </c>
       <c r="G31" t="n">
+        <v>183</v>
+      </c>
+      <c r="H31" t="n">
         <v>183.1666666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,18 +1593,21 @@
         <v>2669764.0713</v>
       </c>
       <c r="G32" t="n">
+        <v>183</v>
+      </c>
+      <c r="H32" t="n">
         <v>183.15</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,18 +1631,21 @@
         <v>2678725.8014</v>
       </c>
       <c r="G33" t="n">
+        <v>183</v>
+      </c>
+      <c r="H33" t="n">
         <v>183.1333333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1669,21 @@
         <v>2708556</v>
       </c>
       <c r="G34" t="n">
+        <v>183</v>
+      </c>
+      <c r="H34" t="n">
         <v>183.1333333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,18 +1707,21 @@
         <v>2667204</v>
       </c>
       <c r="G35" t="n">
+        <v>183</v>
+      </c>
+      <c r="H35" t="n">
         <v>183.1166666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,18 +1745,21 @@
         <v>1323264</v>
       </c>
       <c r="G36" t="n">
+        <v>183</v>
+      </c>
+      <c r="H36" t="n">
         <v>183.0666666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,18 +1783,21 @@
         <v>1665358.4827</v>
       </c>
       <c r="G37" t="n">
+        <v>183</v>
+      </c>
+      <c r="H37" t="n">
         <v>183.05</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,18 +1821,21 @@
         <v>2592408.47</v>
       </c>
       <c r="G38" t="n">
+        <v>183</v>
+      </c>
+      <c r="H38" t="n">
         <v>183.0333333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,18 +1859,21 @@
         <v>302001.6687</v>
       </c>
       <c r="G39" t="n">
+        <v>183</v>
+      </c>
+      <c r="H39" t="n">
         <v>183.0166666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,18 +1897,21 @@
         <v>2610657.5268</v>
       </c>
       <c r="G40" t="n">
+        <v>183</v>
+      </c>
+      <c r="H40" t="n">
         <v>183.0166666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +1935,21 @@
         <v>2580000</v>
       </c>
       <c r="G41" t="n">
+        <v>183</v>
+      </c>
+      <c r="H41" t="n">
         <v>183.0333333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +1973,21 @@
         <v>2600000</v>
       </c>
       <c r="G42" t="n">
+        <v>183</v>
+      </c>
+      <c r="H42" t="n">
         <v>183.05</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2011,21 @@
         <v>1549341.4691</v>
       </c>
       <c r="G43" t="n">
+        <v>183</v>
+      </c>
+      <c r="H43" t="n">
         <v>183.0666666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2049,21 @@
         <v>691800</v>
       </c>
       <c r="G44" t="n">
+        <v>183.0666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>183.1</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1972,15 +2090,18 @@
         <v>183.1333333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>183.1333333333333</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +2125,21 @@
         <v>2631600</v>
       </c>
       <c r="G46" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="H46" t="n">
         <v>183.1666666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,18 +2163,21 @@
         <v>2611200</v>
       </c>
       <c r="G47" t="n">
+        <v>183.2666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>183.2</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,18 +2201,21 @@
         <v>2601000</v>
       </c>
       <c r="G48" t="n">
+        <v>183.3333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>183.2333333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,18 +2239,21 @@
         <v>2366400</v>
       </c>
       <c r="G49" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="H49" t="n">
         <v>183.2666666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,18 +2277,21 @@
         <v>22602.52529523</v>
       </c>
       <c r="G50" t="n">
+        <v>183.4666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>183.3</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,18 +2315,21 @@
         <v>739000</v>
       </c>
       <c r="G51" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="H51" t="n">
         <v>183.35</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,18 +2353,21 @@
         <v>193382.1061</v>
       </c>
       <c r="G52" t="n">
+        <v>183.6666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>183.3666666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,18 +2391,21 @@
         <v>10000</v>
       </c>
       <c r="G53" t="n">
+        <v>183.7333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>183.3833333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,18 +2429,21 @@
         <v>91.97839999999999</v>
       </c>
       <c r="G54" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="H54" t="n">
         <v>183.4</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,18 +2467,21 @@
         <v>1362.5351</v>
       </c>
       <c r="G55" t="n">
+        <v>183.9333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>183.4333333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,18 +2505,21 @@
         <v>664.64</v>
       </c>
       <c r="G56" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="H56" t="n">
         <v>183.4</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,18 +2543,21 @@
         <v>744.1034</v>
       </c>
       <c r="G57" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="H57" t="n">
         <v>183.3333333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,18 +2581,21 @@
         <v>2966.3603</v>
       </c>
       <c r="G58" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="H58" t="n">
         <v>183.2666666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2459,18 +2619,25 @@
         <v>289.5372</v>
       </c>
       <c r="G59" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="H59" t="n">
         <v>183.2166666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>180</v>
+      </c>
+      <c r="L59" t="n">
+        <v>180</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,18 +2661,29 @@
         <v>29506.6491</v>
       </c>
       <c r="G60" t="n">
+        <v>183.1333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>183.2166666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>181</v>
+      </c>
+      <c r="L60" t="n">
+        <v>180</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,22 +2707,29 @@
         <v>295000</v>
       </c>
       <c r="G61" t="n">
+        <v>183.0666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>183.2166666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
         <v>183</v>
       </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>180</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,24 +2753,25 @@
         <v>314267.8273</v>
       </c>
       <c r="G62" t="n">
+        <v>183</v>
+      </c>
+      <c r="H62" t="n">
         <v>183.2166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="n">
         <v>183</v>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>183</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2609,24 +2795,29 @@
         <v>131823.9512</v>
       </c>
       <c r="G63" t="n">
+        <v>183</v>
+      </c>
+      <c r="H63" t="n">
         <v>183.2333333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="n">
         <v>183</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="n">
+        <v>183</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2650,18 +2841,27 @@
         <v>842234.4441</v>
       </c>
       <c r="G64" t="n">
+        <v>183</v>
+      </c>
+      <c r="H64" t="n">
         <v>183.25</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>183</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2685,18 +2885,21 @@
         <v>1255352.5559</v>
       </c>
       <c r="G65" t="n">
+        <v>183</v>
+      </c>
+      <c r="H65" t="n">
         <v>183.2666666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2720,18 +2923,21 @@
         <v>1131322.3043</v>
       </c>
       <c r="G66" t="n">
+        <v>182.9333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>183.2833333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2755,18 +2961,21 @@
         <v>1061703</v>
       </c>
       <c r="G67" t="n">
+        <v>182.9333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>183.3</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2790,18 +2999,21 @@
         <v>1611831.1398</v>
       </c>
       <c r="G68" t="n">
+        <v>182.9333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>183.3166666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2825,18 +3037,21 @@
         <v>1195167.5862</v>
       </c>
       <c r="G69" t="n">
+        <v>182.9333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>183.3333333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2860,18 +3075,21 @@
         <v>552500</v>
       </c>
       <c r="G70" t="n">
+        <v>182.8666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>183.3333333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2895,18 +3113,21 @@
         <v>1301333.07389148</v>
       </c>
       <c r="G71" t="n">
+        <v>183.0666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>183.3</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2930,18 +3151,21 @@
         <v>1306500</v>
       </c>
       <c r="G72" t="n">
+        <v>183.3333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>183.2666666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2965,18 +3189,21 @@
         <v>526500</v>
       </c>
       <c r="G73" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="H73" t="n">
         <v>183.2666666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3000,18 +3227,21 @@
         <v>715.135</v>
       </c>
       <c r="G74" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="H74" t="n">
         <v>183.2666666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3035,18 +3265,21 @@
         <v>400</v>
       </c>
       <c r="G75" t="n">
+        <v>183.6666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>183.2333333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3070,18 +3303,21 @@
         <v>345.7978</v>
       </c>
       <c r="G76" t="n">
+        <v>183.6666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>183.2333333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3105,18 +3341,21 @@
         <v>301.4399</v>
       </c>
       <c r="G77" t="n">
+        <v>183.6666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>183.2333333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3140,18 +3379,25 @@
         <v>10</v>
       </c>
       <c r="G78" t="n">
+        <v>183.5333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>183.2166666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>183</v>
+      </c>
+      <c r="L78" t="n">
+        <v>183</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3175,22 +3421,29 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
+        <v>183.5333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>183.2333333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>182</v>
       </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>183</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3214,24 +3467,29 @@
         <v>2020.0706</v>
       </c>
       <c r="G80" t="n">
+        <v>183.5333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>183.25</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="n">
-        <v>182</v>
-      </c>
-      <c r="L80" t="inlineStr">
+        <v>184</v>
+      </c>
+      <c r="L80" t="n">
+        <v>183</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3255,24 +3513,21 @@
         <v>433.9274</v>
       </c>
       <c r="G81" t="n">
+        <v>183.5333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>183.2666666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>182</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3296,22 +3551,25 @@
         <v>1586.1432</v>
       </c>
       <c r="G82" t="n">
+        <v>183.5333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>183.2833333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
         <v>184</v>
       </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>184</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3335,24 +3593,29 @@
         <v>580</v>
       </c>
       <c r="G83" t="n">
+        <v>183.6666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>183.3333333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="n">
         <v>184</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="n">
+        <v>184</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3376,24 +3639,27 @@
         <v>430.337</v>
       </c>
       <c r="G84" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="H84" t="n">
         <v>183.3833333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>184</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>184</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3417,18 +3683,21 @@
         <v>20</v>
       </c>
       <c r="G85" t="n">
+        <v>184</v>
+      </c>
+      <c r="H85" t="n">
         <v>183.45</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3452,18 +3721,21 @@
         <v>413.9274</v>
       </c>
       <c r="G86" t="n">
+        <v>184.2</v>
+      </c>
+      <c r="H86" t="n">
         <v>183.5166666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3487,18 +3759,21 @@
         <v>1556.52230852</v>
       </c>
       <c r="G87" t="n">
+        <v>184.4666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>183.6</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3522,18 +3797,21 @@
         <v>836.3809</v>
       </c>
       <c r="G88" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="H88" t="n">
         <v>183.7</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3557,18 +3835,21 @@
         <v>6.25</v>
       </c>
       <c r="G89" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="H89" t="n">
         <v>183.7166666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,18 +3873,21 @@
         <v>336.75</v>
       </c>
       <c r="G90" t="n">
+        <v>185</v>
+      </c>
+      <c r="H90" t="n">
         <v>183.7333333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3627,18 +3911,21 @@
         <v>841.17112299</v>
       </c>
       <c r="G91" t="n">
+        <v>185.0666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>183.75</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3662,18 +3949,21 @@
         <v>310.3428</v>
       </c>
       <c r="G92" t="n">
+        <v>185.1333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>183.7666666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3697,18 +3987,21 @@
         <v>1314.2981</v>
       </c>
       <c r="G93" t="n">
+        <v>185.2666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>183.7833333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3732,18 +4025,21 @@
         <v>649.4127</v>
       </c>
       <c r="G94" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="H94" t="n">
         <v>183.8333333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3767,18 +4063,21 @@
         <v>1061.5427</v>
       </c>
       <c r="G95" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="H95" t="n">
         <v>183.9</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3802,18 +4101,21 @@
         <v>1349.6303</v>
       </c>
       <c r="G96" t="n">
+        <v>185.7333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>183.95</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3837,18 +4139,21 @@
         <v>1207.0456</v>
       </c>
       <c r="G97" t="n">
+        <v>185.9333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>184.0166666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3872,18 +4177,21 @@
         <v>856.7375</v>
       </c>
       <c r="G98" t="n">
+        <v>186</v>
+      </c>
+      <c r="H98" t="n">
         <v>184.0833333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3907,18 +4215,21 @@
         <v>341.1392</v>
       </c>
       <c r="G99" t="n">
+        <v>186.0666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>184.15</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3942,18 +4253,21 @@
         <v>659.6739</v>
       </c>
       <c r="G100" t="n">
+        <v>185.9333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>184.1833333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3977,18 +4291,21 @@
         <v>511.704</v>
       </c>
       <c r="G101" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="H101" t="n">
         <v>184.2166666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4012,18 +4329,21 @@
         <v>139.8204</v>
       </c>
       <c r="G102" t="n">
+        <v>185.6666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>184.2666666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4047,18 +4367,21 @@
         <v>1207.5107</v>
       </c>
       <c r="G103" t="n">
+        <v>185.4666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>184.3166666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4082,18 +4405,21 @@
         <v>65.7252</v>
       </c>
       <c r="G104" t="n">
+        <v>185.5333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>184.3333333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4117,18 +4443,21 @@
         <v>6064.1657</v>
       </c>
       <c r="G105" t="n">
+        <v>185.6666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>184.3666666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4152,18 +4481,21 @@
         <v>563022</v>
       </c>
       <c r="G106" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="H106" t="n">
         <v>184.4</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4187,18 +4519,21 @@
         <v>1604310.1907</v>
       </c>
       <c r="G107" t="n">
+        <v>185.9333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>184.4333333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,18 +4557,21 @@
         <v>1150260</v>
       </c>
       <c r="G108" t="n">
+        <v>186.0666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>184.4666666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4257,18 +4595,21 @@
         <v>216000</v>
       </c>
       <c r="G109" t="n">
+        <v>186.0666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>184.5</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4292,18 +4633,27 @@
         <v>170120.975</v>
       </c>
       <c r="G110" t="n">
+        <v>186.0666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>184.55</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>186</v>
+      </c>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4327,18 +4677,27 @@
         <v>4862.3003</v>
       </c>
       <c r="G111" t="n">
+        <v>186</v>
+      </c>
+      <c r="H111" t="n">
         <v>184.55</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>187</v>
+      </c>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4362,18 +4721,27 @@
         <v>443.4233</v>
       </c>
       <c r="G112" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="H112" t="n">
         <v>184.55</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>185</v>
+      </c>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4397,18 +4765,27 @@
         <v>557.0767</v>
       </c>
       <c r="G113" t="n">
+        <v>185.5333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>184.5333333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>184</v>
+      </c>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4432,18 +4809,27 @@
         <v>7411.0464</v>
       </c>
       <c r="G114" t="n">
+        <v>185.4666666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>184.5666666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>183</v>
+      </c>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4467,18 +4853,27 @@
         <v>325030.5001</v>
       </c>
       <c r="G115" t="n">
+        <v>185.5333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>184.5833333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>186</v>
+      </c>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4502,18 +4897,25 @@
         <v>992438</v>
       </c>
       <c r="G116" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="H116" t="n">
         <v>184.6666666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4537,18 +4939,25 @@
         <v>1095388</v>
       </c>
       <c r="G117" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="H117" t="n">
         <v>184.7666666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4572,18 +4981,25 @@
         <v>1103624</v>
       </c>
       <c r="G118" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="H118" t="n">
         <v>184.8666666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4607,18 +5023,25 @@
         <v>1103625</v>
       </c>
       <c r="G119" t="n">
+        <v>185.6666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>184.95</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4642,18 +5065,25 @@
         <v>1095388</v>
       </c>
       <c r="G120" t="n">
+        <v>185.6666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>185</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4677,18 +5107,25 @@
         <v>1083034</v>
       </c>
       <c r="G121" t="n">
+        <v>185.6666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>185.05</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4712,18 +5149,27 @@
         <v>1074852.8057</v>
       </c>
       <c r="G122" t="n">
+        <v>185.6666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>185.1</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>186</v>
+      </c>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4747,18 +5193,27 @@
         <v>1087152</v>
       </c>
       <c r="G123" t="n">
+        <v>185.6666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>185.1333333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>186</v>
+      </c>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4782,18 +5237,27 @@
         <v>448862</v>
       </c>
       <c r="G124" t="n">
+        <v>185.6666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>185.1666666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>186</v>
+      </c>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4817,18 +5281,27 @@
         <v>296.6471</v>
       </c>
       <c r="G125" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="H125" t="n">
         <v>185.2</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>186</v>
+      </c>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4852,18 +5325,25 @@
         <v>1494.8507</v>
       </c>
       <c r="G126" t="n">
+        <v>185.6666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>185.2333333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4887,18 +5367,25 @@
         <v>2106.2654</v>
       </c>
       <c r="G127" t="n">
+        <v>185.8666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>185.2833333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,18 +5409,25 @@
         <v>6.7433</v>
       </c>
       <c r="G128" t="n">
+        <v>186.1333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>185.3333333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4957,18 +5451,25 @@
         <v>15516.6053</v>
       </c>
       <c r="G129" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="H129" t="n">
         <v>185.3833333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4992,18 +5493,25 @@
         <v>421</v>
       </c>
       <c r="G130" t="n">
+        <v>186.2666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>185.4333333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5027,18 +5535,25 @@
         <v>7219</v>
       </c>
       <c r="G131" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="H131" t="n">
         <v>185.5</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5062,18 +5577,25 @@
         <v>8475.794400000001</v>
       </c>
       <c r="G132" t="n">
+        <v>186.6666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>185.6</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5097,18 +5619,25 @@
         <v>31985.56250419</v>
       </c>
       <c r="G133" t="n">
+        <v>187.1333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>185.75</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5132,18 +5661,25 @@
         <v>17309.7061</v>
       </c>
       <c r="G134" t="n">
+        <v>187.6666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>185.9166666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5167,18 +5703,25 @@
         <v>95.43899999999999</v>
       </c>
       <c r="G135" t="n">
+        <v>188</v>
+      </c>
+      <c r="H135" t="n">
         <v>186.0833333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5202,18 +5745,25 @@
         <v>1380.9415</v>
       </c>
       <c r="G136" t="n">
+        <v>188.2666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>186.2</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5237,18 +5787,25 @@
         <v>203</v>
       </c>
       <c r="G137" t="n">
+        <v>188.4666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>186.3</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5272,18 +5829,25 @@
         <v>555.684</v>
       </c>
       <c r="G138" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="H138" t="n">
         <v>186.4</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5307,18 +5871,25 @@
         <v>721.4974999999999</v>
       </c>
       <c r="G139" t="n">
+        <v>188.7333333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>186.4666666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5342,18 +5913,25 @@
         <v>8000</v>
       </c>
       <c r="G140" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="H140" t="n">
         <v>186.5166666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5377,18 +5955,25 @@
         <v>1</v>
       </c>
       <c r="G141" t="n">
+        <v>189</v>
+      </c>
+      <c r="H141" t="n">
         <v>186.6</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5412,18 +5997,25 @@
         <v>1508.074</v>
       </c>
       <c r="G142" t="n">
+        <v>189.1333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>186.6833333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5447,18 +6039,25 @@
         <v>244932.7422</v>
       </c>
       <c r="G143" t="n">
+        <v>189.2666666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>186.7333333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5482,18 +6081,25 @@
         <v>71876.1776</v>
       </c>
       <c r="G144" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="H144" t="n">
         <v>186.7833333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5517,18 +6123,25 @@
         <v>3911.9687</v>
       </c>
       <c r="G145" t="n">
+        <v>189.6666666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>186.85</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5552,18 +6165,25 @@
         <v>1.1099</v>
       </c>
       <c r="G146" t="n">
+        <v>189.8666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>186.9166666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5587,18 +6207,25 @@
         <v>217.0996</v>
       </c>
       <c r="G147" t="n">
+        <v>189.9333333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>186.9666666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5622,18 +6249,25 @@
         <v>82.9004</v>
       </c>
       <c r="G148" t="n">
+        <v>189.8</v>
+      </c>
+      <c r="H148" t="n">
         <v>187</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5657,18 +6291,25 @@
         <v>5382.4906</v>
       </c>
       <c r="G149" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="H149" t="n">
         <v>187.0666666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5692,18 +6333,25 @@
         <v>24.3757</v>
       </c>
       <c r="G150" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="H150" t="n">
         <v>187.1333333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5727,18 +6375,25 @@
         <v>178.5705</v>
       </c>
       <c r="G151" t="n">
+        <v>189.0666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>187.2</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5762,18 +6417,25 @@
         <v>2.1693</v>
       </c>
       <c r="G152" t="n">
+        <v>189.0666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>187.2833333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5797,18 +6459,25 @@
         <v>3903.2959</v>
       </c>
       <c r="G153" t="n">
+        <v>188.9333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>187.3166666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5832,18 +6501,25 @@
         <v>1</v>
       </c>
       <c r="G154" t="n">
+        <v>189</v>
+      </c>
+      <c r="H154" t="n">
         <v>187.3666666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5867,18 +6543,25 @@
         <v>2</v>
       </c>
       <c r="G155" t="n">
+        <v>189.1333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>187.4</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5902,18 +6585,25 @@
         <v>436.0791</v>
       </c>
       <c r="G156" t="n">
+        <v>189.0666666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>187.4333333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5937,18 +6627,25 @@
         <v>13049.0776</v>
       </c>
       <c r="G157" t="n">
+        <v>188.8666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>187.4166666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5972,18 +6669,25 @@
         <v>1</v>
       </c>
       <c r="G158" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="H158" t="n">
         <v>187.4333333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,18 +6711,25 @@
         <v>8.297800000000001</v>
       </c>
       <c r="G159" t="n">
+        <v>188.7333333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>187.45</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6042,18 +6753,25 @@
         <v>8.276999999999999</v>
       </c>
       <c r="G160" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="H160" t="n">
         <v>187.4666666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6077,18 +6795,25 @@
         <v>1</v>
       </c>
       <c r="G161" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="H161" t="n">
         <v>187.5166666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6112,18 +6837,25 @@
         <v>4700.6848</v>
       </c>
       <c r="G162" t="n">
+        <v>188</v>
+      </c>
+      <c r="H162" t="n">
         <v>187.55</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6147,18 +6879,25 @@
         <v>281.2087</v>
       </c>
       <c r="G163" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="H163" t="n">
         <v>187.5833333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6182,18 +6921,25 @@
         <v>5667.7711</v>
       </c>
       <c r="G164" t="n">
+        <v>187.6666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>187.6</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6217,18 +6963,25 @@
         <v>856.3132000000001</v>
       </c>
       <c r="G165" t="n">
+        <v>187.5333333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>187.6</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6252,18 +7005,25 @@
         <v>2</v>
       </c>
       <c r="G166" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="H166" t="n">
         <v>187.65</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6287,18 +7047,25 @@
         <v>369</v>
       </c>
       <c r="G167" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="H167" t="n">
         <v>187.7</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6322,18 +7089,25 @@
         <v>9</v>
       </c>
       <c r="G168" t="n">
+        <v>187.8666666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>187.7666666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6357,18 +7131,25 @@
         <v>703.4578</v>
       </c>
       <c r="G169" t="n">
+        <v>187.9333333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>187.8333333333333</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6392,18 +7173,25 @@
         <v>931.6057</v>
       </c>
       <c r="G170" t="n">
+        <v>188</v>
+      </c>
+      <c r="H170" t="n">
         <v>187.8833333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6427,18 +7215,25 @@
         <v>5245.96858638</v>
       </c>
       <c r="G171" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="H171" t="n">
         <v>187.9833333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6462,18 +7257,25 @@
         <v>1713.49781362</v>
       </c>
       <c r="G172" t="n">
+        <v>188.5333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>188.1</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6497,18 +7299,25 @@
         <v>1</v>
       </c>
       <c r="G173" t="n">
+        <v>188.8666666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>188.2666666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6532,18 +7341,25 @@
         <v>1005.9896</v>
       </c>
       <c r="G174" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="H174" t="n">
         <v>188.3833333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6567,18 +7383,25 @@
         <v>1137.75758556</v>
       </c>
       <c r="G175" t="n">
+        <v>189.7333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>188.5166666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6602,18 +7425,25 @@
         <v>150</v>
       </c>
       <c r="G176" t="n">
+        <v>190.0666666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>188.6333333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6637,18 +7467,25 @@
         <v>501.2017</v>
       </c>
       <c r="G177" t="n">
+        <v>190.2666666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>188.7166666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6672,18 +7509,25 @@
         <v>65.26983333</v>
       </c>
       <c r="G178" t="n">
+        <v>190.5333333333333</v>
+      </c>
+      <c r="H178" t="n">
         <v>188.8166666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6707,18 +7551,25 @@
         <v>5740.15149793</v>
       </c>
       <c r="G179" t="n">
+        <v>191.0666666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>188.95</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6742,20 +7593,25 @@
         <v>2518.6528</v>
       </c>
       <c r="G180" t="n">
+        <v>191.5333333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>189.0666666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6777,18 +7633,21 @@
         <v>150</v>
       </c>
       <c r="G181" t="n">
+        <v>191.6</v>
+      </c>
+      <c r="H181" t="n">
         <v>189.1333333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6812,18 +7671,21 @@
         <v>1478.7876</v>
       </c>
       <c r="G182" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="H182" t="n">
         <v>189.2333333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6847,18 +7709,21 @@
         <v>710.526</v>
       </c>
       <c r="G183" t="n">
+        <v>192</v>
+      </c>
+      <c r="H183" t="n">
         <v>189.35</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6882,18 +7747,21 @@
         <v>466.32124352</v>
       </c>
       <c r="G184" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="H184" t="n">
         <v>189.4666666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6917,18 +7785,21 @@
         <v>2000</v>
       </c>
       <c r="G185" t="n">
+        <v>192.3333333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>189.5666666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6952,18 +7823,21 @@
         <v>2.8445</v>
       </c>
       <c r="G186" t="n">
+        <v>192.4666666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>189.6833333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6987,18 +7861,21 @@
         <v>780.454</v>
       </c>
       <c r="G187" t="n">
+        <v>192.6</v>
+      </c>
+      <c r="H187" t="n">
         <v>189.7833333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7022,18 +7899,21 @@
         <v>87.4455</v>
       </c>
       <c r="G188" t="n">
+        <v>192.5333333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>189.8666666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7057,18 +7937,21 @@
         <v>585.2218</v>
       </c>
       <c r="G189" t="n">
+        <v>192.3333333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>189.9166666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7092,18 +7975,21 @@
         <v>142.4827</v>
       </c>
       <c r="G190" t="n">
+        <v>192</v>
+      </c>
+      <c r="H190" t="n">
         <v>189.95</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7127,18 +8013,21 @@
         <v>200</v>
       </c>
       <c r="G191" t="n">
+        <v>191.7333333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>189.9666666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7162,18 +8051,21 @@
         <v>525.7140000000001</v>
       </c>
       <c r="G192" t="n">
+        <v>191.6666666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>189.9666666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7197,18 +8089,21 @@
         <v>99</v>
       </c>
       <c r="G193" t="n">
+        <v>191.6</v>
+      </c>
+      <c r="H193" t="n">
         <v>189.9333333333333</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7232,18 +8127,21 @@
         <v>83.625</v>
       </c>
       <c r="G194" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="H194" t="n">
         <v>189.8833333333333</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7267,18 +8165,21 @@
         <v>9.2302</v>
       </c>
       <c r="G195" t="n">
+        <v>191.2666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>189.8833333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7302,18 +8203,21 @@
         <v>3255.0025</v>
       </c>
       <c r="G196" t="n">
+        <v>191.3333333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>189.9</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7337,18 +8241,401 @@
         <v>2364.9548</v>
       </c>
       <c r="G197" t="n">
+        <v>191.2666666666667</v>
+      </c>
+      <c r="H197" t="n">
         <v>189.9333333333333</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>190</v>
+      </c>
+      <c r="C198" t="n">
+        <v>190</v>
+      </c>
+      <c r="D198" t="n">
+        <v>190</v>
+      </c>
+      <c r="E198" t="n">
+        <v>190</v>
+      </c>
+      <c r="F198" t="n">
+        <v>174.286</v>
+      </c>
+      <c r="G198" t="n">
+        <v>191.0666666666667</v>
+      </c>
+      <c r="H198" t="n">
+        <v>189.9666666666667</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>188</v>
+      </c>
+      <c r="C199" t="n">
+        <v>188</v>
+      </c>
+      <c r="D199" t="n">
+        <v>188</v>
+      </c>
+      <c r="E199" t="n">
+        <v>188</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1058.8888</v>
+      </c>
+      <c r="G199" t="n">
+        <v>190.7333333333333</v>
+      </c>
+      <c r="H199" t="n">
+        <v>189.9666666666667</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>191</v>
+      </c>
+      <c r="C200" t="n">
+        <v>192</v>
+      </c>
+      <c r="D200" t="n">
+        <v>192</v>
+      </c>
+      <c r="E200" t="n">
+        <v>191</v>
+      </c>
+      <c r="F200" t="n">
+        <v>6273.19421458</v>
+      </c>
+      <c r="G200" t="n">
+        <v>190.7333333333333</v>
+      </c>
+      <c r="H200" t="n">
+        <v>190.05</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>190</v>
+      </c>
+      <c r="C201" t="n">
+        <v>190</v>
+      </c>
+      <c r="D201" t="n">
+        <v>190</v>
+      </c>
+      <c r="E201" t="n">
+        <v>190</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1641.3526</v>
+      </c>
+      <c r="G201" t="n">
+        <v>190.5333333333333</v>
+      </c>
+      <c r="H201" t="n">
+        <v>190.0666666666667</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>188</v>
+      </c>
+      <c r="C202" t="n">
+        <v>190</v>
+      </c>
+      <c r="D202" t="n">
+        <v>190</v>
+      </c>
+      <c r="E202" t="n">
+        <v>188</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1497.7806</v>
+      </c>
+      <c r="G202" t="n">
+        <v>190.3333333333333</v>
+      </c>
+      <c r="H202" t="n">
+        <v>190.0833333333333</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>190</v>
+      </c>
+      <c r="C203" t="n">
+        <v>190</v>
+      </c>
+      <c r="D203" t="n">
+        <v>190</v>
+      </c>
+      <c r="E203" t="n">
+        <v>190</v>
+      </c>
+      <c r="F203" t="n">
+        <v>335.5086</v>
+      </c>
+      <c r="G203" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="H203" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>188</v>
+      </c>
+      <c r="C204" t="n">
+        <v>188</v>
+      </c>
+      <c r="D204" t="n">
+        <v>188</v>
+      </c>
+      <c r="E204" t="n">
+        <v>188</v>
+      </c>
+      <c r="F204" t="n">
+        <v>617.9854</v>
+      </c>
+      <c r="G204" t="n">
+        <v>190.0666666666667</v>
+      </c>
+      <c r="H204" t="n">
+        <v>190.0833333333333</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>188</v>
+      </c>
+      <c r="C205" t="n">
+        <v>188</v>
+      </c>
+      <c r="D205" t="n">
+        <v>188</v>
+      </c>
+      <c r="E205" t="n">
+        <v>188</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2</v>
+      </c>
+      <c r="G205" t="n">
+        <v>190</v>
+      </c>
+      <c r="H205" t="n">
+        <v>190.0333333333333</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>185</v>
+      </c>
+      <c r="C206" t="n">
+        <v>184</v>
+      </c>
+      <c r="D206" t="n">
+        <v>185</v>
+      </c>
+      <c r="E206" t="n">
+        <v>184</v>
+      </c>
+      <c r="F206" t="n">
+        <v>11350.0146</v>
+      </c>
+      <c r="G206" t="n">
+        <v>189.6666666666667</v>
+      </c>
+      <c r="H206" t="n">
+        <v>189.9166666666667</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>187</v>
+      </c>
+      <c r="C207" t="n">
+        <v>187</v>
+      </c>
+      <c r="D207" t="n">
+        <v>187</v>
+      </c>
+      <c r="E207" t="n">
+        <v>187</v>
+      </c>
+      <c r="F207" t="n">
+        <v>15.957</v>
+      </c>
+      <c r="G207" t="n">
+        <v>189.4666666666667</v>
+      </c>
+      <c r="H207" t="n">
+        <v>189.85</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-28 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-28 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M236"/>
+  <dimension ref="A1:N194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C2" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D2" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E2" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F2" t="n">
-        <v>1359601</v>
+        <v>2357064</v>
       </c>
       <c r="G2" t="n">
-        <v>-1392179.4525957</v>
+        <v>183.6666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" t="n">
         <v>183</v>
       </c>
       <c r="D3" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E3" t="n">
         <v>183</v>
       </c>
       <c r="F3" t="n">
-        <v>1960738.1722</v>
+        <v>2625852</v>
       </c>
       <c r="G3" t="n">
-        <v>-3352917.624795699</v>
+        <v>183.3333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E4" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F4" t="n">
-        <v>544.96</v>
+        <v>2660540.29</v>
       </c>
       <c r="G4" t="n">
-        <v>-3352372.6647957</v>
+        <v>183</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C5" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D5" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E5" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2625852</v>
       </c>
       <c r="G5" t="n">
-        <v>-3352371.6647957</v>
+        <v>183</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C6" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E6" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" t="n">
-        <v>828.434</v>
+        <v>2646528</v>
       </c>
       <c r="G6" t="n">
-        <v>-3353200.098795699</v>
+        <v>183</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C7" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D7" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E7" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F7" t="n">
-        <v>932753</v>
+        <v>2656866</v>
       </c>
       <c r="G7" t="n">
-        <v>-3353200.098795699</v>
+        <v>183</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D8" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E8" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8" t="n">
-        <v>163472</v>
+        <v>2667540.334</v>
       </c>
       <c r="G8" t="n">
-        <v>-3353200.098795699</v>
+        <v>183</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -690,10 +702,10 @@
         <v>183</v>
       </c>
       <c r="F9" t="n">
-        <v>2014020</v>
+        <v>2615514</v>
       </c>
       <c r="G9" t="n">
-        <v>-5367220.098795699</v>
+        <v>183</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -716,19 +729,19 @@
         <v>183</v>
       </c>
       <c r="C10" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D10" t="n">
         <v>183</v>
       </c>
       <c r="E10" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F10" t="n">
-        <v>11922.4541</v>
+        <v>2656866</v>
       </c>
       <c r="G10" t="n">
-        <v>-5379142.552895699</v>
+        <v>183</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C11" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D11" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E11" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F11" t="n">
-        <v>1619199.5163</v>
+        <v>2667204</v>
       </c>
       <c r="G11" t="n">
-        <v>-5379142.552895699</v>
+        <v>183</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C12" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D12" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E12" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F12" t="n">
-        <v>1837417.6226</v>
+        <v>2625852</v>
       </c>
       <c r="G12" t="n">
-        <v>-5379142.552895699</v>
+        <v>183</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C13" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D13" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E13" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F13" t="n">
-        <v>1836294.5494</v>
+        <v>2605176</v>
       </c>
       <c r="G13" t="n">
-        <v>-5379142.552895699</v>
+        <v>183</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D14" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E14" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F14" t="n">
-        <v>911820</v>
+        <v>2653968.4373</v>
       </c>
       <c r="G14" t="n">
-        <v>-5379142.552895699</v>
+        <v>183</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C15" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D15" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E15" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F15" t="n">
-        <v>1624461.53230434</v>
+        <v>2687880</v>
       </c>
       <c r="G15" t="n">
-        <v>-5379142.552895699</v>
+        <v>183</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D16" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E16" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F16" t="n">
-        <v>2484960</v>
+        <v>2708579</v>
       </c>
       <c r="G16" t="n">
-        <v>-5379142.552895699</v>
+        <v>183</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D17" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E17" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F17" t="n">
-        <v>2535061</v>
+        <v>2636190</v>
       </c>
       <c r="G17" t="n">
-        <v>-5379142.552895699</v>
+        <v>183</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D18" t="n">
         <v>183</v>
       </c>
       <c r="E18" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F18" t="n">
-        <v>2515020</v>
+        <v>2594838</v>
       </c>
       <c r="G18" t="n">
-        <v>-5379142.552895699</v>
+        <v>183</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C19" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D19" t="n">
         <v>183</v>
       </c>
       <c r="E19" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F19" t="n">
-        <v>2525468.415</v>
+        <v>2669764.0713</v>
       </c>
       <c r="G19" t="n">
-        <v>-5379142.552895699</v>
+        <v>183</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C20" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D20" t="n">
         <v>183</v>
       </c>
       <c r="E20" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F20" t="n">
-        <v>2394780</v>
+        <v>2678725.8014</v>
       </c>
       <c r="G20" t="n">
-        <v>-5379142.552895699</v>
+        <v>183</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C21" t="n">
         <v>183</v>
       </c>
       <c r="D21" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E21" t="n">
         <v>183</v>
       </c>
       <c r="F21" t="n">
-        <v>330661</v>
+        <v>2708556</v>
       </c>
       <c r="G21" t="n">
-        <v>-5048481.552895699</v>
+        <v>183</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1139,16 +1164,16 @@
         <v>183</v>
       </c>
       <c r="D22" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E22" t="n">
         <v>183</v>
       </c>
       <c r="F22" t="n">
-        <v>2545080</v>
+        <v>2667204</v>
       </c>
       <c r="G22" t="n">
-        <v>-5048481.552895699</v>
+        <v>183</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1180,10 +1206,10 @@
         <v>183</v>
       </c>
       <c r="F23" t="n">
-        <v>2515020</v>
+        <v>1323264</v>
       </c>
       <c r="G23" t="n">
-        <v>-5048481.552895699</v>
+        <v>183</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1209,16 +1236,16 @@
         <v>183</v>
       </c>
       <c r="D24" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E24" t="n">
         <v>183</v>
       </c>
       <c r="F24" t="n">
-        <v>2525040</v>
+        <v>1665358.4827</v>
       </c>
       <c r="G24" t="n">
-        <v>-5048481.552895699</v>
+        <v>183</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1250,10 +1278,10 @@
         <v>183</v>
       </c>
       <c r="F25" t="n">
-        <v>721440</v>
+        <v>2592408.47</v>
       </c>
       <c r="G25" t="n">
-        <v>-5048481.552895699</v>
+        <v>183</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C26" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D26" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E26" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F26" t="n">
-        <v>1893780</v>
+        <v>302001.6687</v>
       </c>
       <c r="G26" t="n">
-        <v>-3154701.552895699</v>
+        <v>183</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C27" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D27" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E27" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F27" t="n">
-        <v>2535060</v>
+        <v>2610657.5268</v>
       </c>
       <c r="G27" t="n">
-        <v>-3154701.552895699</v>
+        <v>183</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C28" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D28" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E28" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F28" t="n">
-        <v>2555181.08108108</v>
+        <v>2580000</v>
       </c>
       <c r="G28" t="n">
-        <v>-3154701.552895699</v>
+        <v>183</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C29" t="n">
         <v>183</v>
       </c>
       <c r="D29" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E29" t="n">
         <v>183</v>
       </c>
       <c r="F29" t="n">
-        <v>1781808</v>
+        <v>2600000</v>
       </c>
       <c r="G29" t="n">
-        <v>-4936509.552895699</v>
+        <v>183</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1425,10 +1458,10 @@
         <v>183</v>
       </c>
       <c r="F30" t="n">
-        <v>2239056</v>
+        <v>1549341.4691</v>
       </c>
       <c r="G30" t="n">
-        <v>-4936509.552895699</v>
+        <v>183</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1451,19 +1485,19 @@
         <v>183</v>
       </c>
       <c r="C31" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D31" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E31" t="n">
         <v>183</v>
       </c>
       <c r="F31" t="n">
-        <v>37627.7744</v>
+        <v>691800</v>
       </c>
       <c r="G31" t="n">
-        <v>-4936509.552895699</v>
+        <v>183.3333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C32" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D32" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E32" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F32" t="n">
-        <v>2113636</v>
+        <v>2601000</v>
       </c>
       <c r="G32" t="n">
-        <v>-4936509.552895699</v>
+        <v>183.6666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C33" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D33" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E33" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F33" t="n">
-        <v>2686296</v>
+        <v>2631600</v>
       </c>
       <c r="G33" t="n">
-        <v>-4936509.552895699</v>
+        <v>184</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C34" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D34" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E34" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F34" t="n">
-        <v>2655073.7975</v>
+        <v>2611200</v>
       </c>
       <c r="G34" t="n">
-        <v>-4936509.552895699</v>
+        <v>184</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C35" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D35" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E35" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F35" t="n">
-        <v>2623810.2025</v>
+        <v>2601000</v>
       </c>
       <c r="G35" t="n">
-        <v>-4936509.552895699</v>
+        <v>184</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C36" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D36" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E36" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F36" t="n">
-        <v>2644648</v>
+        <v>2366400</v>
       </c>
       <c r="G36" t="n">
-        <v>-4936509.552895699</v>
+        <v>184</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C37" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D37" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E37" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F37" t="n">
-        <v>2644648</v>
+        <v>22602.52529523</v>
       </c>
       <c r="G37" t="n">
-        <v>-4936509.552895699</v>
+        <v>184</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C38" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D38" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E38" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F38" t="n">
-        <v>1207792</v>
+        <v>739000</v>
       </c>
       <c r="G38" t="n">
-        <v>-4936509.552895699</v>
+        <v>184.3333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1740,10 +1782,10 @@
         <v>184</v>
       </c>
       <c r="F39" t="n">
-        <v>10413</v>
+        <v>193382.1061</v>
       </c>
       <c r="G39" t="n">
-        <v>-4926096.552895699</v>
+        <v>184.3333333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1766,19 +1809,19 @@
         <v>184</v>
       </c>
       <c r="C40" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D40" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E40" t="n">
         <v>184</v>
       </c>
       <c r="F40" t="n">
-        <v>1302589</v>
+        <v>10000</v>
       </c>
       <c r="G40" t="n">
-        <v>-3623507.552895699</v>
+        <v>184.3333333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C41" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D41" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E41" t="n">
         <v>184</v>
       </c>
       <c r="F41" t="n">
-        <v>26089.0513</v>
+        <v>91.97839999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>-3623507.552895699</v>
+        <v>184</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1836,19 +1881,19 @@
         <v>184</v>
       </c>
       <c r="C42" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D42" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E42" t="n">
         <v>184</v>
       </c>
       <c r="F42" t="n">
-        <v>2284698</v>
+        <v>1362.5351</v>
       </c>
       <c r="G42" t="n">
-        <v>-5908205.552895699</v>
+        <v>184.3333333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C43" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D43" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E43" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F43" t="n">
-        <v>2646535</v>
+        <v>664.64</v>
       </c>
       <c r="G43" t="n">
-        <v>-5908205.552895699</v>
+        <v>183.3333333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C44" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D44" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E44" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F44" t="n">
-        <v>2357064</v>
+        <v>744.1034</v>
       </c>
       <c r="G44" t="n">
-        <v>-8265269.552895699</v>
+        <v>182</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C45" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D45" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E45" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F45" t="n">
-        <v>2625852</v>
+        <v>2966.3603</v>
       </c>
       <c r="G45" t="n">
-        <v>-8265269.552895699</v>
+        <v>180.3333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C46" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D46" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E46" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F46" t="n">
-        <v>2660540.29</v>
+        <v>289.5372</v>
       </c>
       <c r="G46" t="n">
-        <v>-8265269.552895699</v>
+        <v>180.3333333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,13 +2051,14 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C47" t="n">
         <v>183</v>
@@ -2017,13 +2067,13 @@
         <v>183</v>
       </c>
       <c r="E47" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F47" t="n">
-        <v>2625852</v>
+        <v>29506.6491</v>
       </c>
       <c r="G47" t="n">
-        <v>-8265269.552895699</v>
+        <v>181.3333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2055,10 +2106,10 @@
         <v>183</v>
       </c>
       <c r="F48" t="n">
-        <v>2646528</v>
+        <v>295000</v>
       </c>
       <c r="G48" t="n">
-        <v>-8265269.552895699</v>
+        <v>182.3333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2090,10 +2142,10 @@
         <v>183</v>
       </c>
       <c r="F49" t="n">
-        <v>2656866</v>
+        <v>314267.8273</v>
       </c>
       <c r="G49" t="n">
-        <v>-8265269.552895699</v>
+        <v>183</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C50" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D50" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E50" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F50" t="n">
-        <v>2667540.334</v>
+        <v>131823.9512</v>
       </c>
       <c r="G50" t="n">
-        <v>-8265269.552895699</v>
+        <v>183.3333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C51" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D51" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E51" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F51" t="n">
-        <v>2615514</v>
+        <v>842234.4441</v>
       </c>
       <c r="G51" t="n">
-        <v>-8265269.552895699</v>
+        <v>183.6666666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C52" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D52" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E52" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F52" t="n">
-        <v>2656866</v>
+        <v>1255352.5559</v>
       </c>
       <c r="G52" t="n">
-        <v>-8265269.552895699</v>
+        <v>184</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C53" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D53" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E53" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F53" t="n">
-        <v>2667204</v>
+        <v>1131322.3043</v>
       </c>
       <c r="G53" t="n">
-        <v>-8265269.552895699</v>
+        <v>184</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C54" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D54" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E54" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F54" t="n">
-        <v>2625852</v>
+        <v>1061703</v>
       </c>
       <c r="G54" t="n">
-        <v>-8265269.552895699</v>
+        <v>184</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C55" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D55" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E55" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F55" t="n">
-        <v>2605176</v>
+        <v>1611831.1398</v>
       </c>
       <c r="G55" t="n">
-        <v>-8265269.552895699</v>
+        <v>184</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C56" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D56" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E56" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F56" t="n">
-        <v>2653968.4373</v>
+        <v>1195167.5862</v>
       </c>
       <c r="G56" t="n">
-        <v>-8265269.552895699</v>
+        <v>184</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C57" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D57" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E57" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F57" t="n">
-        <v>2687880</v>
+        <v>552500</v>
       </c>
       <c r="G57" t="n">
-        <v>-8265269.552895699</v>
+        <v>184</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C58" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D58" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E58" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F58" t="n">
-        <v>2708579</v>
+        <v>1301333.07389148</v>
       </c>
       <c r="G58" t="n">
-        <v>-8265269.552895699</v>
+        <v>184</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C59" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D59" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E59" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F59" t="n">
-        <v>2636190</v>
+        <v>1306500</v>
       </c>
       <c r="G59" t="n">
-        <v>-8265269.552895699</v>
+        <v>184</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C60" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E60" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F60" t="n">
-        <v>2594838</v>
+        <v>526500</v>
       </c>
       <c r="G60" t="n">
-        <v>-8265269.552895699</v>
+        <v>184</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C61" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E61" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F61" t="n">
-        <v>2669764.0713</v>
+        <v>715.135</v>
       </c>
       <c r="G61" t="n">
-        <v>-8265269.552895699</v>
+        <v>184</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C62" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E62" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F62" t="n">
-        <v>2678725.8014</v>
+        <v>400</v>
       </c>
       <c r="G62" t="n">
-        <v>-8265269.552895699</v>
+        <v>183</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2580,10 +2646,10 @@
         <v>183</v>
       </c>
       <c r="F63" t="n">
-        <v>2708556</v>
+        <v>345.7978</v>
       </c>
       <c r="G63" t="n">
-        <v>-8265269.552895699</v>
+        <v>182.6666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2615,10 +2682,10 @@
         <v>183</v>
       </c>
       <c r="F64" t="n">
-        <v>2667204</v>
+        <v>301.4399</v>
       </c>
       <c r="G64" t="n">
-        <v>-8265269.552895699</v>
+        <v>182.3333333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C65" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D65" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E65" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F65" t="n">
-        <v>1323264</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>-8265269.552895699</v>
+        <v>182.6666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C66" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D66" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E66" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F66" t="n">
-        <v>1665358.4827</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>-8265269.552895699</v>
+        <v>183</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C67" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D67" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E67" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F67" t="n">
-        <v>2592408.47</v>
+        <v>2020.0706</v>
       </c>
       <c r="G67" t="n">
-        <v>-8265269.552895699</v>
+        <v>183.3333333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C68" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D68" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E68" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F68" t="n">
-        <v>302001.6687</v>
+        <v>433.9274</v>
       </c>
       <c r="G68" t="n">
-        <v>-8265269.552895699</v>
+        <v>184</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C69" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D69" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E69" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F69" t="n">
-        <v>2610657.5268</v>
+        <v>1586.1432</v>
       </c>
       <c r="G69" t="n">
-        <v>-8265269.552895699</v>
+        <v>184</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C70" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D70" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E70" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F70" t="n">
-        <v>2580000</v>
+        <v>580</v>
       </c>
       <c r="G70" t="n">
-        <v>-8265269.552895699</v>
+        <v>184.6666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C71" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D71" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E71" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F71" t="n">
-        <v>2600000</v>
+        <v>430.337</v>
       </c>
       <c r="G71" t="n">
-        <v>-8265269.552895699</v>
+        <v>185.3333333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C72" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D72" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E72" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F72" t="n">
-        <v>1549341.4691</v>
+        <v>20</v>
       </c>
       <c r="G72" t="n">
-        <v>-8265269.552895699</v>
+        <v>186.3333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C73" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D73" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E73" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F73" t="n">
-        <v>691800</v>
+        <v>413.9274</v>
       </c>
       <c r="G73" t="n">
-        <v>-7573469.552895699</v>
+        <v>186.6666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C74" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D74" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E74" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F74" t="n">
-        <v>2601000</v>
+        <v>1556.52230852</v>
       </c>
       <c r="G74" t="n">
-        <v>-7573469.552895699</v>
+        <v>187.3333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C75" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D75" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E75" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F75" t="n">
-        <v>2631600</v>
+        <v>836.3809</v>
       </c>
       <c r="G75" t="n">
-        <v>-7573469.552895699</v>
+        <v>188</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3035,10 +3114,10 @@
         <v>184</v>
       </c>
       <c r="F76" t="n">
-        <v>2611200</v>
+        <v>6.25</v>
       </c>
       <c r="G76" t="n">
-        <v>-7573469.552895699</v>
+        <v>187</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3070,10 +3150,10 @@
         <v>184</v>
       </c>
       <c r="F77" t="n">
-        <v>2601000</v>
+        <v>336.75</v>
       </c>
       <c r="G77" t="n">
-        <v>-7573469.552895699</v>
+        <v>185.6666666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C78" t="n">
         <v>184</v>
       </c>
       <c r="D78" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E78" t="n">
         <v>184</v>
       </c>
       <c r="F78" t="n">
-        <v>2366400</v>
+        <v>841.17112299</v>
       </c>
       <c r="G78" t="n">
-        <v>-7573469.552895699</v>
+        <v>184</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C79" t="n">
         <v>184</v>
       </c>
       <c r="D79" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E79" t="n">
         <v>184</v>
       </c>
       <c r="F79" t="n">
-        <v>22602.52529523</v>
+        <v>310.3428</v>
       </c>
       <c r="G79" t="n">
-        <v>-7573469.552895699</v>
+        <v>184</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3166,19 +3249,19 @@
         <v>184</v>
       </c>
       <c r="C80" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D80" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E80" t="n">
         <v>184</v>
       </c>
       <c r="F80" t="n">
-        <v>739000</v>
+        <v>1314.2981</v>
       </c>
       <c r="G80" t="n">
-        <v>-6834469.552895699</v>
+        <v>184</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C81" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D81" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E81" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F81" t="n">
-        <v>193382.1061</v>
+        <v>649.4127</v>
       </c>
       <c r="G81" t="n">
-        <v>-7027851.658995699</v>
+        <v>184.6666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C82" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D82" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E82" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F82" t="n">
-        <v>10000</v>
+        <v>1061.5427</v>
       </c>
       <c r="G82" t="n">
-        <v>-7027851.658995699</v>
+        <v>185.6666666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C83" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D83" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E83" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F83" t="n">
-        <v>91.97839999999999</v>
+        <v>1349.6303</v>
       </c>
       <c r="G83" t="n">
-        <v>-7027851.658995699</v>
+        <v>186.3333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3306,19 +3393,19 @@
         <v>184</v>
       </c>
       <c r="C84" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D84" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E84" t="n">
         <v>184</v>
       </c>
       <c r="F84" t="n">
-        <v>1362.5351</v>
+        <v>1207.0456</v>
       </c>
       <c r="G84" t="n">
-        <v>-7026489.123895699</v>
+        <v>186.6666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C85" t="n">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D85" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E85" t="n">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F85" t="n">
-        <v>664.64</v>
+        <v>856.7375</v>
       </c>
       <c r="G85" t="n">
-        <v>-7027153.763895699</v>
+        <v>186.6666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C86" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D86" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E86" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F86" t="n">
-        <v>744.1034</v>
+        <v>341.1392</v>
       </c>
       <c r="G86" t="n">
-        <v>-7027897.867295699</v>
+        <v>187</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C87" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D87" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E87" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F87" t="n">
-        <v>2966.3603</v>
+        <v>659.6739</v>
       </c>
       <c r="G87" t="n">
-        <v>-7027897.867295699</v>
+        <v>186.3333333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C88" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D88" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E88" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F88" t="n">
-        <v>289.5372</v>
+        <v>511.704</v>
       </c>
       <c r="G88" t="n">
-        <v>-7027608.330095699</v>
+        <v>185.6666666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C89" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D89" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E89" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F89" t="n">
-        <v>29506.6491</v>
+        <v>139.8204</v>
       </c>
       <c r="G89" t="n">
-        <v>-6998101.680995699</v>
+        <v>185.3333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C90" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D90" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E90" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F90" t="n">
-        <v>295000</v>
+        <v>1207.5107</v>
       </c>
       <c r="G90" t="n">
-        <v>-6998101.680995699</v>
+        <v>185.6666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C91" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D91" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E91" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F91" t="n">
-        <v>314267.8273</v>
+        <v>65.7252</v>
       </c>
       <c r="G91" t="n">
-        <v>-6998101.680995699</v>
+        <v>185.6666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D92" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E92" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F92" t="n">
-        <v>131823.9512</v>
+        <v>6064.1657</v>
       </c>
       <c r="G92" t="n">
-        <v>-6866277.729795699</v>
+        <v>185.6666666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C93" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D93" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E93" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F93" t="n">
-        <v>842234.4441</v>
+        <v>563022</v>
       </c>
       <c r="G93" t="n">
-        <v>-6866277.729795699</v>
+        <v>185.6666666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C94" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D94" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E94" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F94" t="n">
-        <v>1255352.5559</v>
+        <v>1604310.1907</v>
       </c>
       <c r="G94" t="n">
-        <v>-6866277.729795699</v>
+        <v>186</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C95" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D95" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E95" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F95" t="n">
-        <v>1131322.3043</v>
+        <v>1150260</v>
       </c>
       <c r="G95" t="n">
-        <v>-6866277.729795699</v>
+        <v>186</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C96" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D96" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E96" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F96" t="n">
-        <v>1061703</v>
+        <v>216000</v>
       </c>
       <c r="G96" t="n">
-        <v>-6866277.729795699</v>
+        <v>186</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C97" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D97" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E97" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F97" t="n">
-        <v>1611831.1398</v>
+        <v>170120.975</v>
       </c>
       <c r="G97" t="n">
-        <v>-6866277.729795699</v>
+        <v>186.3333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C98" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D98" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E98" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F98" t="n">
-        <v>1195167.5862</v>
+        <v>4862.3003</v>
       </c>
       <c r="G98" t="n">
-        <v>-6866277.729795699</v>
+        <v>186</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C99" t="n">
         <v>184</v>
       </c>
       <c r="D99" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E99" t="n">
         <v>184</v>
       </c>
       <c r="F99" t="n">
-        <v>552500</v>
+        <v>443.4233</v>
       </c>
       <c r="G99" t="n">
-        <v>-6866277.729795699</v>
+        <v>185.3333333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C100" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D100" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E100" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F100" t="n">
-        <v>1301333.07389148</v>
+        <v>557.0767</v>
       </c>
       <c r="G100" t="n">
-        <v>-6866277.729795699</v>
+        <v>184</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C101" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D101" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E101" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F101" t="n">
-        <v>1306500</v>
+        <v>7411.0464</v>
       </c>
       <c r="G101" t="n">
-        <v>-6866277.729795699</v>
+        <v>184.3333333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C102" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D102" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E102" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F102" t="n">
-        <v>526500</v>
+        <v>325030.5001</v>
       </c>
       <c r="G102" t="n">
-        <v>-6866277.729795699</v>
+        <v>185</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C103" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D103" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E103" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F103" t="n">
-        <v>715.135</v>
+        <v>992438</v>
       </c>
       <c r="G103" t="n">
-        <v>-6866277.729795699</v>
+        <v>186</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C104" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D104" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E104" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F104" t="n">
-        <v>400</v>
+        <v>1095388</v>
       </c>
       <c r="G104" t="n">
-        <v>-6866677.729795699</v>
+        <v>186</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C105" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D105" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E105" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F105" t="n">
-        <v>345.7978</v>
+        <v>1103624</v>
       </c>
       <c r="G105" t="n">
-        <v>-6866331.931995699</v>
+        <v>186</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C106" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D106" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E106" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F106" t="n">
-        <v>301.4399</v>
+        <v>1103625</v>
       </c>
       <c r="G106" t="n">
-        <v>-6866331.931995699</v>
+        <v>186</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C107" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D107" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E107" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>1095388</v>
       </c>
       <c r="G107" t="n">
-        <v>-6866341.931995699</v>
+        <v>186</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C108" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D108" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E108" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>1083034</v>
       </c>
       <c r="G108" t="n">
-        <v>-6866340.931995699</v>
+        <v>186</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C109" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D109" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E109" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F109" t="n">
-        <v>2020.0706</v>
+        <v>1074852.8057</v>
       </c>
       <c r="G109" t="n">
-        <v>-6866340.931995699</v>
+        <v>186</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C110" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D110" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E110" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F110" t="n">
-        <v>433.9274</v>
+        <v>1087152</v>
       </c>
       <c r="G110" t="n">
-        <v>-6866340.931995699</v>
+        <v>186</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C111" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D111" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E111" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F111" t="n">
-        <v>1586.1432</v>
+        <v>448862</v>
       </c>
       <c r="G111" t="n">
-        <v>-6866340.931995699</v>
+        <v>186</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,6 +4391,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4295,10 +4410,10 @@
         <v>186</v>
       </c>
       <c r="F112" t="n">
-        <v>580</v>
+        <v>296.6471</v>
       </c>
       <c r="G112" t="n">
-        <v>-6865760.931995699</v>
+        <v>186</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,6 +4427,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4330,10 +4446,10 @@
         <v>186</v>
       </c>
       <c r="F113" t="n">
-        <v>430.337</v>
+        <v>1494.8507</v>
       </c>
       <c r="G113" t="n">
-        <v>-6865760.931995699</v>
+        <v>186</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,6 +4463,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4365,10 +4482,10 @@
         <v>187</v>
       </c>
       <c r="F114" t="n">
-        <v>20</v>
+        <v>2106.2654</v>
       </c>
       <c r="G114" t="n">
-        <v>-6865740.931995699</v>
+        <v>186.3333333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,6 +4499,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4400,10 +4518,10 @@
         <v>187</v>
       </c>
       <c r="F115" t="n">
-        <v>413.9274</v>
+        <v>6.7433</v>
       </c>
       <c r="G115" t="n">
-        <v>-6865740.931995699</v>
+        <v>186.6666666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C116" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D116" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E116" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F116" t="n">
-        <v>1556.52230852</v>
+        <v>15516.6053</v>
       </c>
       <c r="G116" t="n">
-        <v>-6864184.409687179</v>
+        <v>187</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C117" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D117" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E117" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F117" t="n">
-        <v>836.3809</v>
+        <v>421</v>
       </c>
       <c r="G117" t="n">
-        <v>-6863348.028787179</v>
+        <v>187</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C118" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D118" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E118" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F118" t="n">
-        <v>6.25</v>
+        <v>7219</v>
       </c>
       <c r="G118" t="n">
-        <v>-6863354.278787179</v>
+        <v>187.3333333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4643,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C119" t="n">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D119" t="n">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E119" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F119" t="n">
-        <v>336.75</v>
+        <v>8475.794400000001</v>
       </c>
       <c r="G119" t="n">
-        <v>-6863354.278787179</v>
+        <v>188.3333333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +4679,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C120" t="n">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D120" t="n">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E120" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F120" t="n">
-        <v>841.17112299</v>
+        <v>31985.56250419</v>
       </c>
       <c r="G120" t="n">
-        <v>-6863354.278787179</v>
+        <v>190.3333333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +4715,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C121" t="n">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D121" t="n">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E121" t="n">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F121" t="n">
-        <v>310.3428</v>
+        <v>17309.7061</v>
       </c>
       <c r="G121" t="n">
-        <v>-6863354.278787179</v>
+        <v>192.3333333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C122" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D122" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E122" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F122" t="n">
-        <v>1314.2981</v>
+        <v>95.43899999999999</v>
       </c>
       <c r="G122" t="n">
-        <v>-6863354.278787179</v>
+        <v>192.6666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4787,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C123" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D123" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E123" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F123" t="n">
-        <v>649.4127</v>
+        <v>1380.9415</v>
       </c>
       <c r="G123" t="n">
-        <v>-6862704.866087179</v>
+        <v>191.6666666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +4823,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C124" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D124" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E124" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F124" t="n">
-        <v>1061.5427</v>
+        <v>203</v>
       </c>
       <c r="G124" t="n">
-        <v>-6861643.323387179</v>
+        <v>190</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +4859,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C125" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D125" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E125" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F125" t="n">
-        <v>1349.6303</v>
+        <v>555.684</v>
       </c>
       <c r="G125" t="n">
-        <v>-6862992.953687179</v>
+        <v>189</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +4895,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C126" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D126" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E126" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F126" t="n">
-        <v>1207.0456</v>
+        <v>721.4974999999999</v>
       </c>
       <c r="G126" t="n">
-        <v>-6861785.908087179</v>
+        <v>188.3333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,28 +4931,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C127" t="n">
         <v>187</v>
       </c>
       <c r="D127" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E127" t="n">
         <v>187</v>
       </c>
       <c r="F127" t="n">
-        <v>856.7375</v>
+        <v>8000</v>
       </c>
       <c r="G127" t="n">
-        <v>-6861785.908087179</v>
+        <v>187.6666666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,28 +4967,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C128" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D128" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E128" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F128" t="n">
-        <v>341.1392</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>-6861785.908087179</v>
+        <v>188</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4872,28 +5003,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C129" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D129" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E129" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F129" t="n">
-        <v>659.6739</v>
+        <v>1508.074</v>
       </c>
       <c r="G129" t="n">
-        <v>-6862445.581987179</v>
+        <v>188.3333333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4907,28 +5039,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C130" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D130" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E130" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F130" t="n">
-        <v>511.704</v>
+        <v>244932.7422</v>
       </c>
       <c r="G130" t="n">
-        <v>-6862445.581987179</v>
+        <v>189</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,28 +5075,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C131" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D131" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E131" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F131" t="n">
-        <v>139.8204</v>
+        <v>71876.1776</v>
       </c>
       <c r="G131" t="n">
-        <v>-6862305.761587179</v>
+        <v>189</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,28 +5111,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C132" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D132" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E132" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F132" t="n">
-        <v>1207.5107</v>
+        <v>3911.9687</v>
       </c>
       <c r="G132" t="n">
-        <v>-6862305.761587179</v>
+        <v>189.6666666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5012,28 +5147,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C133" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D133" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E133" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F133" t="n">
-        <v>65.7252</v>
+        <v>1.1099</v>
       </c>
       <c r="G133" t="n">
-        <v>-6862371.486787179</v>
+        <v>190.3333333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5047,28 +5183,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C134" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D134" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E134" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F134" t="n">
-        <v>6064.1657</v>
+        <v>217.0996</v>
       </c>
       <c r="G134" t="n">
-        <v>-6856307.32108718</v>
+        <v>191</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5082,28 +5219,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C135" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D135" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E135" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F135" t="n">
-        <v>563022</v>
+        <v>82.9004</v>
       </c>
       <c r="G135" t="n">
-        <v>-6856307.32108718</v>
+        <v>191</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5117,28 +5255,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C136" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D136" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E136" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F136" t="n">
-        <v>1604310.1907</v>
+        <v>5382.4906</v>
       </c>
       <c r="G136" t="n">
-        <v>-6856307.32108718</v>
+        <v>190</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5152,28 +5291,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C137" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D137" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E137" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F137" t="n">
-        <v>1150260</v>
+        <v>24.3757</v>
       </c>
       <c r="G137" t="n">
-        <v>-6856307.32108718</v>
+        <v>189</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5187,28 +5327,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C138" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D138" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E138" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F138" t="n">
-        <v>216000</v>
+        <v>178.5705</v>
       </c>
       <c r="G138" t="n">
-        <v>-6856307.32108718</v>
+        <v>188</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5222,110 +5363,111 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C139" t="n">
+        <v>189</v>
+      </c>
+      <c r="D139" t="n">
+        <v>189</v>
+      </c>
+      <c r="E139" t="n">
+        <v>189</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2.1693</v>
+      </c>
+      <c r="G139" t="n">
+        <v>188.3333333333333</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>188</v>
+      </c>
+      <c r="K139" t="n">
+        <v>188</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
         <v>187</v>
       </c>
-      <c r="D139" t="n">
+      <c r="C140" t="n">
+        <v>186</v>
+      </c>
+      <c r="D140" t="n">
         <v>187</v>
       </c>
-      <c r="E139" t="n">
-        <v>185</v>
-      </c>
-      <c r="F139" t="n">
-        <v>170120.975</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-6686186.34608718</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>186</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
+      <c r="E140" t="n">
+        <v>186</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3903.2959</v>
+      </c>
+      <c r="G140" t="n">
+        <v>187.6666666666667</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>188</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>185</v>
-      </c>
-      <c r="C140" t="n">
-        <v>185</v>
-      </c>
-      <c r="D140" t="n">
-        <v>185</v>
-      </c>
-      <c r="E140" t="n">
-        <v>185</v>
-      </c>
-      <c r="F140" t="n">
-        <v>4862.3003</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-6691048.64638718</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>187</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C141" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D141" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E141" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F141" t="n">
-        <v>443.4233</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>-6691492.06968718</v>
+        <v>188</v>
       </c>
       <c r="H141" t="n">
         <v>1</v>
@@ -5334,9 +5476,11 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>185</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
+        <v>186</v>
+      </c>
+      <c r="K141" t="n">
+        <v>188</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5345,39 +5489,40 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C142" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D142" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E142" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F142" t="n">
-        <v>557.0767</v>
+        <v>2</v>
       </c>
       <c r="G142" t="n">
-        <v>-6692049.14638718</v>
+        <v>188</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>184</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>188</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5386,28 +5531,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C143" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D143" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E143" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F143" t="n">
-        <v>7411.0464</v>
+        <v>436.0791</v>
       </c>
       <c r="G143" t="n">
-        <v>-6684638.09998718</v>
+        <v>188.6666666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5416,7 +5562,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>188</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5425,6 +5573,7 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5440,13 +5589,13 @@
         <v>186</v>
       </c>
       <c r="E144" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F144" t="n">
-        <v>325030.5001</v>
+        <v>13049.0776</v>
       </c>
       <c r="G144" t="n">
-        <v>-6684638.09998718</v>
+        <v>187.6666666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5455,7 +5604,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>188</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5464,37 +5615,42 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C145" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D145" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E145" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F145" t="n">
-        <v>992438</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>-6684638.09998718</v>
+        <v>187.3333333333333</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>186</v>
+      </c>
+      <c r="K145" t="n">
+        <v>188</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5503,37 +5659,42 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C146" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D146" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E146" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F146" t="n">
-        <v>1095388</v>
+        <v>8.297800000000001</v>
       </c>
       <c r="G146" t="n">
-        <v>-6684638.09998718</v>
+        <v>187.3333333333333</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>188</v>
+      </c>
+      <c r="K146" t="n">
+        <v>188</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5542,6 +5703,7 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5560,10 +5722,10 @@
         <v>186</v>
       </c>
       <c r="F147" t="n">
-        <v>1103624</v>
+        <v>8.276999999999999</v>
       </c>
       <c r="G147" t="n">
-        <v>-6684638.09998718</v>
+        <v>187.3333333333333</v>
       </c>
       <c r="H147" t="n">
         <v>1</v>
@@ -5572,9 +5734,11 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>186</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="K147" t="n">
+        <v>188</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5583,28 +5747,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C148" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D148" t="n">
         <v>188</v>
       </c>
       <c r="E148" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F148" t="n">
-        <v>1103625</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>-6684638.09998718</v>
+        <v>187.3333333333333</v>
       </c>
       <c r="H148" t="n">
         <v>1</v>
@@ -5615,7 +5780,9 @@
       <c r="J148" t="n">
         <v>186</v>
       </c>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>188</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5624,28 +5791,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C149" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D149" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E149" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F149" t="n">
-        <v>1095388</v>
+        <v>4700.6848</v>
       </c>
       <c r="G149" t="n">
-        <v>-6684638.09998718</v>
+        <v>187.3333333333333</v>
       </c>
       <c r="H149" t="n">
         <v>1</v>
@@ -5654,9 +5822,11 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>186</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="K149" t="n">
+        <v>188</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5665,37 +5835,42 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C150" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D150" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E150" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F150" t="n">
-        <v>1083034</v>
+        <v>281.2087</v>
       </c>
       <c r="G150" t="n">
-        <v>-6684638.09998718</v>
+        <v>188</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>188</v>
+      </c>
+      <c r="K150" t="n">
+        <v>188</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5704,37 +5879,42 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C151" t="n">
         <v>186</v>
       </c>
       <c r="D151" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E151" t="n">
         <v>186</v>
       </c>
       <c r="F151" t="n">
-        <v>1074852.8057</v>
+        <v>5667.7711</v>
       </c>
       <c r="G151" t="n">
-        <v>-6684638.09998718</v>
+        <v>187.3333333333333</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>188</v>
+      </c>
+      <c r="K151" t="n">
+        <v>188</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5743,37 +5923,42 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C152" t="n">
         <v>186</v>
       </c>
       <c r="D152" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E152" t="n">
         <v>186</v>
       </c>
       <c r="F152" t="n">
-        <v>1087152</v>
+        <v>856.3132000000001</v>
       </c>
       <c r="G152" t="n">
-        <v>-6684638.09998718</v>
+        <v>186.6666666666667</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>186</v>
+      </c>
+      <c r="K152" t="n">
+        <v>188</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5782,37 +5967,42 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C153" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D153" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E153" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F153" t="n">
-        <v>448862</v>
+        <v>2</v>
       </c>
       <c r="G153" t="n">
-        <v>-6684638.09998718</v>
+        <v>187</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>186</v>
+      </c>
+      <c r="K153" t="n">
+        <v>188</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5821,37 +6011,42 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C154" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D154" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E154" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F154" t="n">
-        <v>296.6471</v>
+        <v>369</v>
       </c>
       <c r="G154" t="n">
-        <v>-6684638.09998718</v>
+        <v>188</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>189</v>
+      </c>
+      <c r="K154" t="n">
+        <v>188</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5860,28 +6055,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C155" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D155" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E155" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F155" t="n">
-        <v>1494.8507</v>
+        <v>9</v>
       </c>
       <c r="G155" t="n">
-        <v>-6684638.09998718</v>
+        <v>189.3333333333333</v>
       </c>
       <c r="H155" t="n">
         <v>1</v>
@@ -5890,9 +6086,11 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>186</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
+        <v>189</v>
+      </c>
+      <c r="K155" t="n">
+        <v>188</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5901,28 +6099,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C156" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D156" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E156" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F156" t="n">
-        <v>2106.2654</v>
+        <v>703.4578</v>
       </c>
       <c r="G156" t="n">
-        <v>-6682531.83458718</v>
+        <v>189.6666666666667</v>
       </c>
       <c r="H156" t="n">
         <v>1</v>
@@ -5931,9 +6130,11 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>186</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
+        <v>190</v>
+      </c>
+      <c r="K156" t="n">
+        <v>188</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5942,28 +6143,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C157" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D157" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E157" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F157" t="n">
-        <v>6.7433</v>
+        <v>931.6057</v>
       </c>
       <c r="G157" t="n">
-        <v>-6682531.83458718</v>
+        <v>190</v>
       </c>
       <c r="H157" t="n">
         <v>1</v>
@@ -5972,9 +6174,11 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>187</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
+        <v>190</v>
+      </c>
+      <c r="K157" t="n">
+        <v>188</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5983,28 +6187,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C158" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D158" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E158" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F158" t="n">
-        <v>15516.6053</v>
+        <v>5245.96858638</v>
       </c>
       <c r="G158" t="n">
-        <v>-6682531.83458718</v>
+        <v>190.3333333333333</v>
       </c>
       <c r="H158" t="n">
         <v>1</v>
@@ -6013,9 +6218,11 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>187</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
+        <v>190</v>
+      </c>
+      <c r="K158" t="n">
+        <v>188</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6024,28 +6231,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C159" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D159" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E159" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F159" t="n">
-        <v>421</v>
+        <v>1713.49781362</v>
       </c>
       <c r="G159" t="n">
-        <v>-6682531.83458718</v>
+        <v>190.6666666666667</v>
       </c>
       <c r="H159" t="n">
         <v>1</v>
@@ -6054,9 +6262,11 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>187</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
+        <v>191</v>
+      </c>
+      <c r="K159" t="n">
+        <v>188</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6065,129 +6275,121 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C160" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D160" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E160" t="n">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F160" t="n">
-        <v>7219</v>
+        <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>-6675312.83458718</v>
+        <v>191.6666666666667</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>187</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>188</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>1</v>
-      </c>
+        <v>1.021595744680851</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C161" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D161" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E161" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F161" t="n">
-        <v>8475.794400000001</v>
+        <v>1005.9896</v>
       </c>
       <c r="G161" t="n">
-        <v>-6666837.04018718</v>
+        <v>192.3333333333333</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>188</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C162" t="n">
+        <v>194</v>
+      </c>
+      <c r="D162" t="n">
+        <v>194</v>
+      </c>
+      <c r="E162" t="n">
         <v>193</v>
       </c>
-      <c r="D162" t="n">
-        <v>193</v>
-      </c>
-      <c r="E162" t="n">
-        <v>191</v>
-      </c>
       <c r="F162" t="n">
-        <v>31985.56250419</v>
+        <v>1137.75758556</v>
       </c>
       <c r="G162" t="n">
-        <v>-6634851.47768299</v>
+        <v>193.3333333333333</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>190</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6197,36 +6399,33 @@
         <v>193</v>
       </c>
       <c r="C163" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D163" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E163" t="n">
         <v>193</v>
       </c>
       <c r="F163" t="n">
-        <v>17309.7061</v>
+        <v>150</v>
       </c>
       <c r="G163" t="n">
-        <v>-6617541.77158299</v>
+        <v>193.3333333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6245,244 +6444,226 @@
         <v>191</v>
       </c>
       <c r="F164" t="n">
-        <v>95.43899999999999</v>
+        <v>501.2017</v>
       </c>
       <c r="G164" t="n">
-        <v>-6617637.21058299</v>
+        <v>192.6666666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C165" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D165" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E165" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F165" t="n">
-        <v>1380.9415</v>
+        <v>65.26983333</v>
       </c>
       <c r="G165" t="n">
-        <v>-6619018.15208299</v>
+        <v>192</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C166" t="n">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D166" t="n">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E166" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F166" t="n">
-        <v>203</v>
+        <v>5740.15149793</v>
       </c>
       <c r="G166" t="n">
-        <v>-6619221.15208299</v>
+        <v>192.3333333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C167" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D167" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E167" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F167" t="n">
-        <v>555.684</v>
+        <v>2518.6528</v>
       </c>
       <c r="G167" t="n">
-        <v>-6619776.83608299</v>
+        <v>193</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C168" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D168" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E168" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F168" t="n">
-        <v>721.4974999999999</v>
+        <v>150</v>
       </c>
       <c r="G168" t="n">
-        <v>-6619776.83608299</v>
+        <v>192.3333333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C169" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D169" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E169" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F169" t="n">
-        <v>8000</v>
+        <v>1478.7876</v>
       </c>
       <c r="G169" t="n">
-        <v>-6627776.83608299</v>
+        <v>191.6666666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C170" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D170" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E170" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>710.526</v>
       </c>
       <c r="G170" t="n">
-        <v>-6627775.83608299</v>
+        <v>191.6666666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6492,231 +6673,213 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C171" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D171" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E171" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F171" t="n">
-        <v>1508.074</v>
+        <v>466.32124352</v>
       </c>
       <c r="G171" t="n">
-        <v>-6627775.83608299</v>
+        <v>192.6666666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C172" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D172" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E172" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F172" t="n">
-        <v>244932.7422</v>
+        <v>2000</v>
       </c>
       <c r="G172" t="n">
-        <v>-6627775.83608299</v>
+        <v>192.6666666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C173" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D173" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E173" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F173" t="n">
-        <v>71876.1776</v>
+        <v>2.8445</v>
       </c>
       <c r="G173" t="n">
-        <v>-6627775.83608299</v>
+        <v>192.6666666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C174" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D174" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E174" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F174" t="n">
-        <v>3911.9687</v>
+        <v>780.454</v>
       </c>
       <c r="G174" t="n">
-        <v>-6623863.86738299</v>
+        <v>192.6666666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C175" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D175" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E175" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F175" t="n">
-        <v>1.1099</v>
+        <v>87.4455</v>
       </c>
       <c r="G175" t="n">
-        <v>-6623863.86738299</v>
+        <v>192.6666666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C176" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D176" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E176" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F176" t="n">
-        <v>217.0996</v>
+        <v>585.2218</v>
       </c>
       <c r="G176" t="n">
-        <v>-6623863.86738299</v>
+        <v>191.6666666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6726,36 +6889,33 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C177" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D177" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E177" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F177" t="n">
-        <v>82.9004</v>
+        <v>142.4827</v>
       </c>
       <c r="G177" t="n">
-        <v>-6623863.86738299</v>
+        <v>190.3333333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6765,36 +6925,33 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C178" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D178" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E178" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F178" t="n">
-        <v>5382.4906</v>
+        <v>200</v>
       </c>
       <c r="G178" t="n">
-        <v>-6629246.35798299</v>
+        <v>189.3333333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6804,36 +6961,33 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C179" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D179" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E179" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F179" t="n">
-        <v>24.3757</v>
+        <v>525.7140000000001</v>
       </c>
       <c r="G179" t="n">
-        <v>-6629246.35798299</v>
+        <v>189.3333333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6843,36 +6997,33 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C180" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D180" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E180" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F180" t="n">
-        <v>178.5705</v>
+        <v>99</v>
       </c>
       <c r="G180" t="n">
-        <v>-6629246.35798299</v>
+        <v>190</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6882,114 +7033,105 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C181" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D181" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E181" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F181" t="n">
-        <v>2.1693</v>
+        <v>83.625</v>
       </c>
       <c r="G181" t="n">
-        <v>-6629244.18868299</v>
+        <v>190.6666666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C182" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D182" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E182" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F182" t="n">
-        <v>3903.2959</v>
+        <v>9.2302</v>
       </c>
       <c r="G182" t="n">
-        <v>-6633147.48458299</v>
+        <v>191</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C183" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D183" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E183" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>3255.0025</v>
       </c>
       <c r="G183" t="n">
-        <v>-6633146.48458299</v>
+        <v>191</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6999,36 +7141,33 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C184" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D184" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E184" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F184" t="n">
-        <v>2</v>
+        <v>2364.9548</v>
       </c>
       <c r="G184" t="n">
-        <v>-6633146.48458299</v>
+        <v>191</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7038,36 +7177,33 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C185" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D185" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E185" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F185" t="n">
-        <v>436.0791</v>
+        <v>174.286</v>
       </c>
       <c r="G185" t="n">
-        <v>-6633582.56368299</v>
+        <v>190.6666666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7077,36 +7213,33 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C186" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D186" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E186" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F186" t="n">
-        <v>13049.0776</v>
+        <v>1058.8888</v>
       </c>
       <c r="G186" t="n">
-        <v>-6646631.641282991</v>
+        <v>189.6666666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7116,36 +7249,33 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C187" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D187" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E187" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>6273.19421458</v>
       </c>
       <c r="G187" t="n">
-        <v>-6646630.641282991</v>
+        <v>190</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7155,36 +7285,33 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C188" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D188" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E188" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F188" t="n">
-        <v>8.297800000000001</v>
+        <v>1641.3526</v>
       </c>
       <c r="G188" t="n">
-        <v>-6646630.641282991</v>
+        <v>190</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7194,36 +7321,33 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C189" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D189" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E189" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F189" t="n">
-        <v>8.276999999999999</v>
+        <v>1497.7806</v>
       </c>
       <c r="G189" t="n">
-        <v>-6646638.91828299</v>
+        <v>190.6666666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7233,36 +7357,33 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C190" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D190" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E190" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>335.5086</v>
       </c>
       <c r="G190" t="n">
-        <v>-6646637.91828299</v>
+        <v>190</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7272,14 +7393,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7298,10 +7416,10 @@
         <v>188</v>
       </c>
       <c r="F191" t="n">
-        <v>4700.6848</v>
+        <v>617.9854</v>
       </c>
       <c r="G191" t="n">
-        <v>-6646637.91828299</v>
+        <v>189.3333333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7311,14 +7429,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7337,10 +7452,10 @@
         <v>188</v>
       </c>
       <c r="F192" t="n">
-        <v>281.2087</v>
+        <v>2</v>
       </c>
       <c r="G192" t="n">
-        <v>-6646637.91828299</v>
+        <v>188.6666666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7350,36 +7465,33 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C193" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D193" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E193" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F193" t="n">
-        <v>5667.7711</v>
+        <v>11350.0146</v>
       </c>
       <c r="G193" t="n">
-        <v>-6652305.68938299</v>
+        <v>186.6666666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7389,14 +7501,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7406,19 +7515,19 @@
         <v>187</v>
       </c>
       <c r="C194" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D194" t="n">
         <v>187</v>
       </c>
       <c r="E194" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F194" t="n">
-        <v>856.3132000000001</v>
+        <v>15.957</v>
       </c>
       <c r="G194" t="n">
-        <v>-6652305.68938299</v>
+        <v>186.3333333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7428,1518 +7537,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>188</v>
-      </c>
-      <c r="C195" t="n">
-        <v>189</v>
-      </c>
-      <c r="D195" t="n">
-        <v>189</v>
-      </c>
-      <c r="E195" t="n">
-        <v>188</v>
-      </c>
-      <c r="F195" t="n">
-        <v>2</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-6652303.68938299</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>189</v>
-      </c>
-      <c r="C196" t="n">
-        <v>189</v>
-      </c>
-      <c r="D196" t="n">
-        <v>189</v>
-      </c>
-      <c r="E196" t="n">
-        <v>189</v>
-      </c>
-      <c r="F196" t="n">
-        <v>369</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-6652303.68938299</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>189</v>
-      </c>
-      <c r="C197" t="n">
-        <v>190</v>
-      </c>
-      <c r="D197" t="n">
-        <v>190</v>
-      </c>
-      <c r="E197" t="n">
-        <v>189</v>
-      </c>
-      <c r="F197" t="n">
-        <v>9</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-6652294.68938299</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>189</v>
-      </c>
-      <c r="C198" t="n">
-        <v>190</v>
-      </c>
-      <c r="D198" t="n">
-        <v>190</v>
-      </c>
-      <c r="E198" t="n">
-        <v>189</v>
-      </c>
-      <c r="F198" t="n">
-        <v>703.4578</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-6652294.68938299</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>190</v>
-      </c>
-      <c r="C199" t="n">
-        <v>190</v>
-      </c>
-      <c r="D199" t="n">
-        <v>190</v>
-      </c>
-      <c r="E199" t="n">
-        <v>190</v>
-      </c>
-      <c r="F199" t="n">
-        <v>931.6057</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-6652294.68938299</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>191</v>
-      </c>
-      <c r="C200" t="n">
-        <v>191</v>
-      </c>
-      <c r="D200" t="n">
-        <v>191</v>
-      </c>
-      <c r="E200" t="n">
-        <v>191</v>
-      </c>
-      <c r="F200" t="n">
-        <v>5245.96858638</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-6647048.72079661</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>191</v>
-      </c>
-      <c r="C201" t="n">
-        <v>191</v>
-      </c>
-      <c r="D201" t="n">
-        <v>191</v>
-      </c>
-      <c r="E201" t="n">
-        <v>191</v>
-      </c>
-      <c r="F201" t="n">
-        <v>1713.49781362</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-6647048.72079661</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>193</v>
-      </c>
-      <c r="C202" t="n">
-        <v>193</v>
-      </c>
-      <c r="D202" t="n">
-        <v>193</v>
-      </c>
-      <c r="E202" t="n">
-        <v>193</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-6647047.72079661</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>193</v>
-      </c>
-      <c r="C203" t="n">
-        <v>193</v>
-      </c>
-      <c r="D203" t="n">
-        <v>193</v>
-      </c>
-      <c r="E203" t="n">
-        <v>193</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1005.9896</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-6647047.72079661</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>193</v>
-      </c>
-      <c r="C204" t="n">
-        <v>194</v>
-      </c>
-      <c r="D204" t="n">
-        <v>194</v>
-      </c>
-      <c r="E204" t="n">
-        <v>193</v>
-      </c>
-      <c r="F204" t="n">
-        <v>1137.75758556</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-6645909.96321105</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>193</v>
-      </c>
-      <c r="C205" t="n">
-        <v>193</v>
-      </c>
-      <c r="D205" t="n">
-        <v>193</v>
-      </c>
-      <c r="E205" t="n">
-        <v>193</v>
-      </c>
-      <c r="F205" t="n">
-        <v>150</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-6646059.96321105</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>191</v>
-      </c>
-      <c r="C206" t="n">
-        <v>191</v>
-      </c>
-      <c r="D206" t="n">
-        <v>191</v>
-      </c>
-      <c r="E206" t="n">
-        <v>191</v>
-      </c>
-      <c r="F206" t="n">
-        <v>501.2017</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-6646561.16491105</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>192</v>
-      </c>
-      <c r="C207" t="n">
-        <v>192</v>
-      </c>
-      <c r="D207" t="n">
-        <v>192</v>
-      </c>
-      <c r="E207" t="n">
-        <v>192</v>
-      </c>
-      <c r="F207" t="n">
-        <v>65.26983333</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-6646495.89507772</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>192</v>
-      </c>
-      <c r="C208" t="n">
-        <v>194</v>
-      </c>
-      <c r="D208" t="n">
-        <v>194</v>
-      </c>
-      <c r="E208" t="n">
-        <v>192</v>
-      </c>
-      <c r="F208" t="n">
-        <v>5740.15149793</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-6640755.74357979</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>193</v>
-      </c>
-      <c r="C209" t="n">
-        <v>193</v>
-      </c>
-      <c r="D209" t="n">
-        <v>193</v>
-      </c>
-      <c r="E209" t="n">
-        <v>193</v>
-      </c>
-      <c r="F209" t="n">
-        <v>2518.6528</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-6643274.39637979</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>190</v>
-      </c>
-      <c r="C210" t="n">
-        <v>190</v>
-      </c>
-      <c r="D210" t="n">
-        <v>190</v>
-      </c>
-      <c r="E210" t="n">
-        <v>190</v>
-      </c>
-      <c r="F210" t="n">
-        <v>150</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-6643424.39637979</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>190</v>
-      </c>
-      <c r="C211" t="n">
-        <v>192</v>
-      </c>
-      <c r="D211" t="n">
-        <v>192</v>
-      </c>
-      <c r="E211" t="n">
-        <v>188</v>
-      </c>
-      <c r="F211" t="n">
-        <v>1478.7876</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-6641945.60877979</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>192</v>
-      </c>
-      <c r="C212" t="n">
-        <v>193</v>
-      </c>
-      <c r="D212" t="n">
-        <v>193</v>
-      </c>
-      <c r="E212" t="n">
-        <v>192</v>
-      </c>
-      <c r="F212" t="n">
-        <v>710.526</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-6641235.08277979</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>193</v>
-      </c>
-      <c r="C213" t="n">
-        <v>193</v>
-      </c>
-      <c r="D213" t="n">
-        <v>193</v>
-      </c>
-      <c r="E213" t="n">
-        <v>193</v>
-      </c>
-      <c r="F213" t="n">
-        <v>466.32124352</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-6641235.08277979</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>192</v>
-      </c>
-      <c r="C214" t="n">
-        <v>192</v>
-      </c>
-      <c r="D214" t="n">
-        <v>192</v>
-      </c>
-      <c r="E214" t="n">
-        <v>192</v>
-      </c>
-      <c r="F214" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-6643235.08277979</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>193</v>
-      </c>
-      <c r="C215" t="n">
-        <v>193</v>
-      </c>
-      <c r="D215" t="n">
-        <v>193</v>
-      </c>
-      <c r="E215" t="n">
-        <v>193</v>
-      </c>
-      <c r="F215" t="n">
-        <v>2.8445</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-6643232.238279791</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>192</v>
-      </c>
-      <c r="C216" t="n">
-        <v>193</v>
-      </c>
-      <c r="D216" t="n">
-        <v>193</v>
-      </c>
-      <c r="E216" t="n">
-        <v>192</v>
-      </c>
-      <c r="F216" t="n">
-        <v>780.454</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-6643232.238279791</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>192</v>
-      </c>
-      <c r="C217" t="n">
-        <v>192</v>
-      </c>
-      <c r="D217" t="n">
-        <v>192</v>
-      </c>
-      <c r="E217" t="n">
-        <v>192</v>
-      </c>
-      <c r="F217" t="n">
-        <v>87.4455</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-6643319.683779791</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>192</v>
-      </c>
-      <c r="C218" t="n">
-        <v>190</v>
-      </c>
-      <c r="D218" t="n">
-        <v>192</v>
-      </c>
-      <c r="E218" t="n">
-        <v>190</v>
-      </c>
-      <c r="F218" t="n">
-        <v>585.2218</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-6643904.905579791</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>189</v>
-      </c>
-      <c r="C219" t="n">
-        <v>189</v>
-      </c>
-      <c r="D219" t="n">
-        <v>189</v>
-      </c>
-      <c r="E219" t="n">
-        <v>189</v>
-      </c>
-      <c r="F219" t="n">
-        <v>142.4827</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-6644047.388279791</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>189</v>
-      </c>
-      <c r="C220" t="n">
-        <v>189</v>
-      </c>
-      <c r="D220" t="n">
-        <v>189</v>
-      </c>
-      <c r="E220" t="n">
-        <v>189</v>
-      </c>
-      <c r="F220" t="n">
-        <v>200</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-6644047.388279791</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>190</v>
-      </c>
-      <c r="C221" t="n">
-        <v>190</v>
-      </c>
-      <c r="D221" t="n">
-        <v>190</v>
-      </c>
-      <c r="E221" t="n">
-        <v>190</v>
-      </c>
-      <c r="F221" t="n">
-        <v>525.7140000000001</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-6643521.674279791</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>191</v>
-      </c>
-      <c r="C222" t="n">
-        <v>191</v>
-      </c>
-      <c r="D222" t="n">
-        <v>191</v>
-      </c>
-      <c r="E222" t="n">
-        <v>191</v>
-      </c>
-      <c r="F222" t="n">
-        <v>99</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-6643422.674279791</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>192</v>
-      </c>
-      <c r="C223" t="n">
-        <v>191</v>
-      </c>
-      <c r="D223" t="n">
-        <v>192</v>
-      </c>
-      <c r="E223" t="n">
-        <v>191</v>
-      </c>
-      <c r="F223" t="n">
-        <v>83.625</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-6643422.674279791</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>191</v>
-      </c>
-      <c r="C224" t="n">
-        <v>191</v>
-      </c>
-      <c r="D224" t="n">
-        <v>191</v>
-      </c>
-      <c r="E224" t="n">
-        <v>191</v>
-      </c>
-      <c r="F224" t="n">
-        <v>9.2302</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-6643422.674279791</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>191</v>
-      </c>
-      <c r="C225" t="n">
-        <v>191</v>
-      </c>
-      <c r="D225" t="n">
-        <v>191</v>
-      </c>
-      <c r="E225" t="n">
-        <v>191</v>
-      </c>
-      <c r="F225" t="n">
-        <v>3255.0025</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-6643422.674279791</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>191</v>
-      </c>
-      <c r="C226" t="n">
-        <v>191</v>
-      </c>
-      <c r="D226" t="n">
-        <v>191</v>
-      </c>
-      <c r="E226" t="n">
-        <v>191</v>
-      </c>
-      <c r="F226" t="n">
-        <v>2364.9548</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-6643422.674279791</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>190</v>
-      </c>
-      <c r="C227" t="n">
-        <v>190</v>
-      </c>
-      <c r="D227" t="n">
-        <v>190</v>
-      </c>
-      <c r="E227" t="n">
-        <v>190</v>
-      </c>
-      <c r="F227" t="n">
-        <v>174.286</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-6643596.960279792</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>188</v>
-      </c>
-      <c r="C228" t="n">
-        <v>188</v>
-      </c>
-      <c r="D228" t="n">
-        <v>188</v>
-      </c>
-      <c r="E228" t="n">
-        <v>188</v>
-      </c>
-      <c r="F228" t="n">
-        <v>1058.8888</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-6644655.849079791</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>191</v>
-      </c>
-      <c r="C229" t="n">
-        <v>192</v>
-      </c>
-      <c r="D229" t="n">
-        <v>192</v>
-      </c>
-      <c r="E229" t="n">
-        <v>191</v>
-      </c>
-      <c r="F229" t="n">
-        <v>6273.19421458</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-6638382.654865212</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>190</v>
-      </c>
-      <c r="C230" t="n">
-        <v>190</v>
-      </c>
-      <c r="D230" t="n">
-        <v>190</v>
-      </c>
-      <c r="E230" t="n">
-        <v>190</v>
-      </c>
-      <c r="F230" t="n">
-        <v>1641.3526</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-6640024.007465212</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>188</v>
-      </c>
-      <c r="C231" t="n">
-        <v>190</v>
-      </c>
-      <c r="D231" t="n">
-        <v>190</v>
-      </c>
-      <c r="E231" t="n">
-        <v>188</v>
-      </c>
-      <c r="F231" t="n">
-        <v>1497.7806</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-6640024.007465212</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>190</v>
-      </c>
-      <c r="C232" t="n">
-        <v>190</v>
-      </c>
-      <c r="D232" t="n">
-        <v>190</v>
-      </c>
-      <c r="E232" t="n">
-        <v>190</v>
-      </c>
-      <c r="F232" t="n">
-        <v>335.5086</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-6640024.007465212</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>188</v>
-      </c>
-      <c r="C233" t="n">
-        <v>188</v>
-      </c>
-      <c r="D233" t="n">
-        <v>188</v>
-      </c>
-      <c r="E233" t="n">
-        <v>188</v>
-      </c>
-      <c r="F233" t="n">
-        <v>617.9854</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-6640641.992865211</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>188</v>
-      </c>
-      <c r="C234" t="n">
-        <v>188</v>
-      </c>
-      <c r="D234" t="n">
-        <v>188</v>
-      </c>
-      <c r="E234" t="n">
-        <v>188</v>
-      </c>
-      <c r="F234" t="n">
-        <v>2</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-6640641.992865211</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>185</v>
-      </c>
-      <c r="C235" t="n">
-        <v>184</v>
-      </c>
-      <c r="D235" t="n">
-        <v>185</v>
-      </c>
-      <c r="E235" t="n">
-        <v>184</v>
-      </c>
-      <c r="F235" t="n">
-        <v>11350.0146</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-6651992.007465212</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>187</v>
-      </c>
-      <c r="C236" t="n">
-        <v>187</v>
-      </c>
-      <c r="D236" t="n">
-        <v>187</v>
-      </c>
-      <c r="E236" t="n">
-        <v>187</v>
-      </c>
-      <c r="F236" t="n">
-        <v>15.957</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-6651976.050465211</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
+      <c r="N194" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-28 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-28 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N194"/>
+  <dimension ref="A1:N265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
         <v>184</v>
       </c>
       <c r="C2" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D2" t="n">
         <v>184</v>
       </c>
       <c r="E2" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F2" t="n">
-        <v>2357064</v>
+        <v>2213500</v>
       </c>
       <c r="G2" t="n">
-        <v>183.6666666666667</v>
+        <v>1004342.3275</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C3" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D3" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E3" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F3" t="n">
-        <v>2625852</v>
+        <v>2232500</v>
       </c>
       <c r="G3" t="n">
-        <v>183.3333333333333</v>
+        <v>1004342.3275</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C4" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D4" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E4" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F4" t="n">
-        <v>2660540.29</v>
+        <v>2242000</v>
       </c>
       <c r="G4" t="n">
-        <v>183</v>
+        <v>1004342.3275</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C5" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D5" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E5" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F5" t="n">
-        <v>2625852</v>
+        <v>679289.2544</v>
       </c>
       <c r="G5" t="n">
-        <v>183</v>
+        <v>1004342.3275</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,32 +582,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C6" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D6" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E6" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F6" t="n">
-        <v>2646528</v>
+        <v>1425228.9229</v>
       </c>
       <c r="G6" t="n">
-        <v>183</v>
+        <v>1004342.3275</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>184</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +624,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C7" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D7" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E7" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F7" t="n">
-        <v>2656866</v>
+        <v>2309500</v>
       </c>
       <c r="G7" t="n">
-        <v>183</v>
+        <v>1004342.3275</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +649,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +664,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D8" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E8" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F8" t="n">
-        <v>2667540.334</v>
+        <v>2360500</v>
       </c>
       <c r="G8" t="n">
-        <v>183</v>
+        <v>1004342.3275</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -679,7 +689,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +704,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C9" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D9" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E9" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F9" t="n">
-        <v>2615514</v>
+        <v>2390000</v>
       </c>
       <c r="G9" t="n">
-        <v>183</v>
+        <v>1004342.3275</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -715,7 +729,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +744,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C10" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D10" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E10" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F10" t="n">
-        <v>2656866</v>
+        <v>2409500</v>
       </c>
       <c r="G10" t="n">
-        <v>183</v>
+        <v>1004342.3275</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,7 +769,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +784,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C11" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D11" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E11" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F11" t="n">
-        <v>2667204</v>
+        <v>2400500</v>
       </c>
       <c r="G11" t="n">
-        <v>183</v>
+        <v>1004342.3275</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -787,7 +809,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +824,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C12" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D12" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E12" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F12" t="n">
-        <v>2625852</v>
+        <v>424928.4824043</v>
       </c>
       <c r="G12" t="n">
-        <v>183</v>
+        <v>1429270.8099043</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -823,7 +849,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +864,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C13" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D13" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E13" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F13" t="n">
-        <v>2605176</v>
+        <v>1281000</v>
       </c>
       <c r="G13" t="n">
-        <v>183</v>
+        <v>1429270.8099043</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -859,7 +889,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +904,36 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C14" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D14" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E14" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F14" t="n">
-        <v>2653968.4373</v>
+        <v>576633.2252</v>
       </c>
       <c r="G14" t="n">
-        <v>183</v>
+        <v>2005904.0351043</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +944,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C15" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D15" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E15" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F15" t="n">
-        <v>2687880</v>
+        <v>1362650.0214</v>
       </c>
       <c r="G15" t="n">
-        <v>183</v>
+        <v>2005904.0351043</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -931,7 +969,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +984,36 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C16" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D16" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E16" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F16" t="n">
-        <v>2708579</v>
+        <v>1604137.9786</v>
       </c>
       <c r="G16" t="n">
-        <v>183</v>
+        <v>2005904.0351043</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1024,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C17" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D17" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E17" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F17" t="n">
-        <v>2636190</v>
+        <v>424962.3967</v>
       </c>
       <c r="G17" t="n">
-        <v>183</v>
+        <v>2005904.0351043</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1003,7 +1049,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,35 +1064,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C18" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D18" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E18" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F18" t="n">
-        <v>2594838</v>
+        <v>968000</v>
       </c>
       <c r="G18" t="n">
-        <v>183</v>
+        <v>2005904.0351043</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1050,28 +1102,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C19" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D19" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E19" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F19" t="n">
-        <v>2669764.0713</v>
+        <v>976000</v>
       </c>
       <c r="G19" t="n">
-        <v>183</v>
+        <v>2005904.0351043</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1138,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C20" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D20" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E20" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F20" t="n">
-        <v>2678725.8014</v>
+        <v>956000</v>
       </c>
       <c r="G20" t="n">
-        <v>183</v>
+        <v>2005904.0351043</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,22 +1174,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C21" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D21" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E21" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F21" t="n">
-        <v>2708556</v>
+        <v>802999.3946999999</v>
       </c>
       <c r="G21" t="n">
-        <v>183</v>
+        <v>1202904.6404043</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,28 +1210,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C22" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D22" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E22" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F22" t="n">
-        <v>2667204</v>
+        <v>1668684.093</v>
       </c>
       <c r="G22" t="n">
-        <v>183</v>
+        <v>-465779.4525956998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,22 +1246,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C23" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D23" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E23" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F23" t="n">
-        <v>1323264</v>
+        <v>2544427.8541</v>
       </c>
       <c r="G23" t="n">
-        <v>183</v>
+        <v>-465779.4525956998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,28 +1282,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C24" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D24" t="n">
         <v>186</v>
       </c>
       <c r="E24" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F24" t="n">
-        <v>1665358.4827</v>
+        <v>2481982.2709</v>
       </c>
       <c r="G24" t="n">
-        <v>183</v>
+        <v>-465779.4525956998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1318,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C25" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D25" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E25" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F25" t="n">
-        <v>2592408.47</v>
+        <v>2578603.79273246</v>
       </c>
       <c r="G25" t="n">
-        <v>183</v>
+        <v>-465779.4525956998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1354,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C26" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D26" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E26" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F26" t="n">
-        <v>302001.6687</v>
+        <v>2472000</v>
       </c>
       <c r="G26" t="n">
-        <v>183</v>
+        <v>-465779.4525956998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1390,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C27" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D27" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E27" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F27" t="n">
-        <v>2610657.5268</v>
+        <v>2493934.393</v>
       </c>
       <c r="G27" t="n">
-        <v>183</v>
+        <v>-465779.4525956998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1426,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C28" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D28" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E28" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F28" t="n">
-        <v>2580000</v>
+        <v>2410200</v>
       </c>
       <c r="G28" t="n">
-        <v>183</v>
+        <v>-465779.4525956998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,22 +1462,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C29" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D29" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E29" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F29" t="n">
-        <v>2600000</v>
+        <v>422589.9902</v>
       </c>
       <c r="G29" t="n">
-        <v>183</v>
+        <v>-465779.4525956998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1498,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C30" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D30" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E30" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F30" t="n">
-        <v>1549341.4691</v>
+        <v>926400</v>
       </c>
       <c r="G30" t="n">
-        <v>183</v>
+        <v>-1392179.4525957</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1534,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C31" t="n">
         <v>184</v>
       </c>
       <c r="D31" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E31" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F31" t="n">
-        <v>691800</v>
+        <v>1359601</v>
       </c>
       <c r="G31" t="n">
-        <v>183.3333333333333</v>
+        <v>-1392179.4525957</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1521,19 +1573,19 @@
         <v>184</v>
       </c>
       <c r="C32" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D32" t="n">
         <v>184</v>
       </c>
       <c r="E32" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F32" t="n">
-        <v>2601000</v>
+        <v>1960738.1722</v>
       </c>
       <c r="G32" t="n">
-        <v>183.6666666666667</v>
+        <v>-3352917.624795699</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1560,16 +1612,16 @@
         <v>184</v>
       </c>
       <c r="D33" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E33" t="n">
         <v>184</v>
       </c>
       <c r="F33" t="n">
-        <v>2631600</v>
+        <v>544.96</v>
       </c>
       <c r="G33" t="n">
-        <v>184</v>
+        <v>-3352372.6647957</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1642,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C34" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D34" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E34" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F34" t="n">
-        <v>2611200</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>184</v>
+        <v>-3352371.6647957</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1678,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C35" t="n">
         <v>184</v>
       </c>
       <c r="D35" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E35" t="n">
         <v>184</v>
       </c>
       <c r="F35" t="n">
-        <v>2601000</v>
+        <v>828.434</v>
       </c>
       <c r="G35" t="n">
-        <v>184</v>
+        <v>-3353200.098795699</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1714,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C36" t="n">
         <v>184</v>
       </c>
       <c r="D36" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E36" t="n">
         <v>184</v>
       </c>
       <c r="F36" t="n">
-        <v>2366400</v>
+        <v>932753</v>
       </c>
       <c r="G36" t="n">
-        <v>184</v>
+        <v>-3353200.098795699</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1750,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C37" t="n">
         <v>184</v>
       </c>
       <c r="D37" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E37" t="n">
         <v>184</v>
       </c>
       <c r="F37" t="n">
-        <v>22602.52529523</v>
+        <v>163472</v>
       </c>
       <c r="G37" t="n">
-        <v>184</v>
+        <v>-3353200.098795699</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1786,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C38" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D38" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E38" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F38" t="n">
-        <v>739000</v>
+        <v>2014020</v>
       </c>
       <c r="G38" t="n">
-        <v>184.3333333333333</v>
+        <v>-5367220.098795699</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1822,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C39" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D39" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E39" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F39" t="n">
-        <v>193382.1061</v>
+        <v>11922.4541</v>
       </c>
       <c r="G39" t="n">
-        <v>184.3333333333333</v>
+        <v>-5379142.552895699</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1858,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C40" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D40" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E40" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F40" t="n">
-        <v>10000</v>
+        <v>1619199.5163</v>
       </c>
       <c r="G40" t="n">
-        <v>184.3333333333333</v>
+        <v>-5379142.552895699</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1894,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C41" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D41" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E41" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F41" t="n">
-        <v>91.97839999999999</v>
+        <v>1837417.6226</v>
       </c>
       <c r="G41" t="n">
-        <v>184</v>
+        <v>-5379142.552895699</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1930,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C42" t="n">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D42" t="n">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E42" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F42" t="n">
-        <v>1362.5351</v>
+        <v>1836294.5494</v>
       </c>
       <c r="G42" t="n">
-        <v>184.3333333333333</v>
+        <v>-5379142.552895699</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1966,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C43" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D43" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E43" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F43" t="n">
-        <v>664.64</v>
+        <v>911820</v>
       </c>
       <c r="G43" t="n">
-        <v>183.3333333333333</v>
+        <v>-5379142.552895699</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +2002,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C44" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D44" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E44" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F44" t="n">
-        <v>744.1034</v>
+        <v>1624461.53230434</v>
       </c>
       <c r="G44" t="n">
-        <v>182</v>
+        <v>-5379142.552895699</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +2038,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C45" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D45" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E45" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F45" t="n">
-        <v>2966.3603</v>
+        <v>2484960</v>
       </c>
       <c r="G45" t="n">
-        <v>180.3333333333333</v>
+        <v>-5379142.552895699</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2074,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C46" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D46" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E46" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F46" t="n">
-        <v>289.5372</v>
+        <v>2535061</v>
       </c>
       <c r="G46" t="n">
-        <v>180.3333333333333</v>
+        <v>-5379142.552895699</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2110,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C47" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D47" t="n">
         <v>183</v>
       </c>
       <c r="E47" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F47" t="n">
-        <v>29506.6491</v>
+        <v>2515020</v>
       </c>
       <c r="G47" t="n">
-        <v>181.3333333333333</v>
+        <v>-5379142.552895699</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2146,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C48" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D48" t="n">
         <v>183</v>
       </c>
       <c r="E48" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F48" t="n">
-        <v>295000</v>
+        <v>2525468.415</v>
       </c>
       <c r="G48" t="n">
-        <v>182.3333333333333</v>
+        <v>-5379142.552895699</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2182,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C49" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D49" t="n">
         <v>183</v>
       </c>
       <c r="E49" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F49" t="n">
-        <v>314267.8273</v>
+        <v>2394780</v>
       </c>
       <c r="G49" t="n">
-        <v>183</v>
+        <v>-5379142.552895699</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2218,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C50" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D50" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E50" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F50" t="n">
-        <v>131823.9512</v>
+        <v>330661</v>
       </c>
       <c r="G50" t="n">
-        <v>183.3333333333333</v>
+        <v>-5048481.552895699</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2254,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C51" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D51" t="n">
         <v>184</v>
       </c>
       <c r="E51" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F51" t="n">
-        <v>842234.4441</v>
+        <v>2545080</v>
       </c>
       <c r="G51" t="n">
-        <v>183.6666666666667</v>
+        <v>-5048481.552895699</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2290,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C52" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D52" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E52" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F52" t="n">
-        <v>1255352.5559</v>
+        <v>2515020</v>
       </c>
       <c r="G52" t="n">
-        <v>184</v>
+        <v>-5048481.552895699</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2326,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C53" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D53" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E53" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F53" t="n">
-        <v>1131322.3043</v>
+        <v>2525040</v>
       </c>
       <c r="G53" t="n">
-        <v>184</v>
+        <v>-5048481.552895699</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2362,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C54" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D54" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E54" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F54" t="n">
-        <v>1061703</v>
+        <v>721440</v>
       </c>
       <c r="G54" t="n">
-        <v>184</v>
+        <v>-5048481.552895699</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2358,10 +2410,10 @@
         <v>184</v>
       </c>
       <c r="F55" t="n">
-        <v>1611831.1398</v>
+        <v>1893780</v>
       </c>
       <c r="G55" t="n">
-        <v>184</v>
+        <v>-3154701.552895699</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2388,16 +2440,16 @@
         <v>184</v>
       </c>
       <c r="D56" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E56" t="n">
         <v>184</v>
       </c>
       <c r="F56" t="n">
-        <v>1195167.5862</v>
+        <v>2535060</v>
       </c>
       <c r="G56" t="n">
-        <v>184</v>
+        <v>-3154701.552895699</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,7 +2470,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C57" t="n">
         <v>184</v>
@@ -2430,10 +2482,10 @@
         <v>184</v>
       </c>
       <c r="F57" t="n">
-        <v>552500</v>
+        <v>2555181.08108108</v>
       </c>
       <c r="G57" t="n">
-        <v>184</v>
+        <v>-3154701.552895699</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2457,19 +2509,19 @@
         <v>184</v>
       </c>
       <c r="C58" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D58" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E58" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F58" t="n">
-        <v>1301333.07389148</v>
+        <v>1781808</v>
       </c>
       <c r="G58" t="n">
-        <v>184</v>
+        <v>-4936509.552895699</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2542,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C59" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D59" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E59" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F59" t="n">
-        <v>1306500</v>
+        <v>2239056</v>
       </c>
       <c r="G59" t="n">
-        <v>184</v>
+        <v>-4936509.552895699</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2578,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C60" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E60" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F60" t="n">
-        <v>526500</v>
+        <v>37627.7744</v>
       </c>
       <c r="G60" t="n">
-        <v>184</v>
+        <v>-4936509.552895699</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2614,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C61" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E61" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F61" t="n">
-        <v>715.135</v>
+        <v>2113636</v>
       </c>
       <c r="G61" t="n">
-        <v>184</v>
+        <v>-4936509.552895699</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2650,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C62" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E62" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F62" t="n">
-        <v>400</v>
+        <v>2686296</v>
       </c>
       <c r="G62" t="n">
-        <v>183</v>
+        <v>-4936509.552895699</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2646,10 +2698,10 @@
         <v>183</v>
       </c>
       <c r="F63" t="n">
-        <v>345.7978</v>
+        <v>2655073.7975</v>
       </c>
       <c r="G63" t="n">
-        <v>182.6666666666667</v>
+        <v>-4936509.552895699</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2682,10 +2734,10 @@
         <v>183</v>
       </c>
       <c r="F64" t="n">
-        <v>301.4399</v>
+        <v>2623810.2025</v>
       </c>
       <c r="G64" t="n">
-        <v>182.3333333333333</v>
+        <v>-4936509.552895699</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2758,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C65" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D65" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E65" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>2644648</v>
       </c>
       <c r="G65" t="n">
-        <v>182.6666666666667</v>
+        <v>-4936509.552895699</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2794,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C66" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D66" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E66" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>2644648</v>
       </c>
       <c r="G66" t="n">
-        <v>183</v>
+        <v>-4936509.552895699</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2830,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C67" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D67" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E67" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F67" t="n">
-        <v>2020.0706</v>
+        <v>1207792</v>
       </c>
       <c r="G67" t="n">
-        <v>183.3333333333333</v>
+        <v>-4936509.552895699</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2866,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C68" t="n">
         <v>184</v>
       </c>
       <c r="D68" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E68" t="n">
         <v>184</v>
       </c>
       <c r="F68" t="n">
-        <v>433.9274</v>
+        <v>10413</v>
       </c>
       <c r="G68" t="n">
-        <v>184</v>
+        <v>-4926096.552895699</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2853,19 +2905,19 @@
         <v>184</v>
       </c>
       <c r="C69" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D69" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E69" t="n">
         <v>184</v>
       </c>
       <c r="F69" t="n">
-        <v>1586.1432</v>
+        <v>1302589</v>
       </c>
       <c r="G69" t="n">
-        <v>184</v>
+        <v>-3623507.552895699</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,7 +2938,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C70" t="n">
         <v>186</v>
@@ -2895,13 +2947,13 @@
         <v>186</v>
       </c>
       <c r="E70" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F70" t="n">
-        <v>580</v>
+        <v>26089.0513</v>
       </c>
       <c r="G70" t="n">
-        <v>184.6666666666667</v>
+        <v>-3623507.552895699</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2974,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C71" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D71" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E71" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F71" t="n">
-        <v>430.337</v>
+        <v>2284698</v>
       </c>
       <c r="G71" t="n">
-        <v>185.3333333333333</v>
+        <v>-5908205.552895699</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +3010,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C72" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D72" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E72" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F72" t="n">
-        <v>20</v>
+        <v>2646535</v>
       </c>
       <c r="G72" t="n">
-        <v>186.3333333333333</v>
+        <v>-5908205.552895699</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +3046,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C73" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D73" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E73" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F73" t="n">
-        <v>413.9274</v>
+        <v>2357064</v>
       </c>
       <c r="G73" t="n">
-        <v>186.6666666666667</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3082,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C74" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D74" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E74" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F74" t="n">
-        <v>1556.52230852</v>
+        <v>2625852</v>
       </c>
       <c r="G74" t="n">
-        <v>187.3333333333333</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3118,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C75" t="n">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D75" t="n">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E75" t="n">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F75" t="n">
-        <v>836.3809</v>
+        <v>2660540.29</v>
       </c>
       <c r="G75" t="n">
-        <v>188</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3154,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C76" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D76" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E76" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F76" t="n">
-        <v>6.25</v>
+        <v>2625852</v>
       </c>
       <c r="G76" t="n">
-        <v>187</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3190,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C77" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D77" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E77" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F77" t="n">
-        <v>336.75</v>
+        <v>2646528</v>
       </c>
       <c r="G77" t="n">
-        <v>185.6666666666667</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3226,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C78" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D78" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E78" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F78" t="n">
-        <v>841.17112299</v>
+        <v>2656866</v>
       </c>
       <c r="G78" t="n">
-        <v>184</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3262,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C79" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D79" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E79" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F79" t="n">
-        <v>310.3428</v>
+        <v>2667540.334</v>
       </c>
       <c r="G79" t="n">
-        <v>184</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3298,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C80" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D80" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E80" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F80" t="n">
-        <v>1314.2981</v>
+        <v>2615514</v>
       </c>
       <c r="G80" t="n">
-        <v>184</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3334,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C81" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D81" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E81" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F81" t="n">
-        <v>649.4127</v>
+        <v>2656866</v>
       </c>
       <c r="G81" t="n">
-        <v>184.6666666666667</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3370,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C82" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D82" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E82" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F82" t="n">
-        <v>1061.5427</v>
+        <v>2667204</v>
       </c>
       <c r="G82" t="n">
-        <v>185.6666666666667</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3406,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C83" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D83" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E83" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F83" t="n">
-        <v>1349.6303</v>
+        <v>2625852</v>
       </c>
       <c r="G83" t="n">
-        <v>186.3333333333333</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3442,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C84" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D84" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E84" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F84" t="n">
-        <v>1207.0456</v>
+        <v>2605176</v>
       </c>
       <c r="G84" t="n">
-        <v>186.6666666666667</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3478,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C85" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D85" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E85" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F85" t="n">
-        <v>856.7375</v>
+        <v>2653968.4373</v>
       </c>
       <c r="G85" t="n">
-        <v>186.6666666666667</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3514,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C86" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D86" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E86" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F86" t="n">
-        <v>341.1392</v>
+        <v>2687880</v>
       </c>
       <c r="G86" t="n">
-        <v>187</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3550,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C87" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D87" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E87" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F87" t="n">
-        <v>659.6739</v>
+        <v>2708579</v>
       </c>
       <c r="G87" t="n">
-        <v>186.3333333333333</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3586,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C88" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D88" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E88" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F88" t="n">
-        <v>511.704</v>
+        <v>2636190</v>
       </c>
       <c r="G88" t="n">
-        <v>185.6666666666667</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3622,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C89" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D89" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E89" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F89" t="n">
-        <v>139.8204</v>
+        <v>2594838</v>
       </c>
       <c r="G89" t="n">
-        <v>185.3333333333333</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3658,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C90" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D90" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E90" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F90" t="n">
-        <v>1207.5107</v>
+        <v>2669764.0713</v>
       </c>
       <c r="G90" t="n">
-        <v>185.6666666666667</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3694,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C91" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D91" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E91" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F91" t="n">
-        <v>65.7252</v>
+        <v>2678725.8014</v>
       </c>
       <c r="G91" t="n">
-        <v>185.6666666666667</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3730,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C92" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D92" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E92" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F92" t="n">
-        <v>6064.1657</v>
+        <v>2708556</v>
       </c>
       <c r="G92" t="n">
-        <v>185.6666666666667</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3766,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C93" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D93" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E93" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F93" t="n">
-        <v>563022</v>
+        <v>2667204</v>
       </c>
       <c r="G93" t="n">
-        <v>185.6666666666667</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3802,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C94" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D94" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E94" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F94" t="n">
-        <v>1604310.1907</v>
+        <v>1323264</v>
       </c>
       <c r="G94" t="n">
-        <v>186</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3838,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C95" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D95" t="n">
         <v>186</v>
       </c>
       <c r="E95" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F95" t="n">
-        <v>1150260</v>
+        <v>1665358.4827</v>
       </c>
       <c r="G95" t="n">
-        <v>186</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3874,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C96" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D96" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E96" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F96" t="n">
-        <v>216000</v>
+        <v>2592408.47</v>
       </c>
       <c r="G96" t="n">
-        <v>186</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3910,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C97" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D97" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E97" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F97" t="n">
-        <v>170120.975</v>
+        <v>302001.6687</v>
       </c>
       <c r="G97" t="n">
-        <v>186.3333333333333</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3946,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C98" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D98" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E98" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F98" t="n">
-        <v>4862.3003</v>
+        <v>2610657.5268</v>
       </c>
       <c r="G98" t="n">
-        <v>186</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3982,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C99" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D99" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E99" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F99" t="n">
-        <v>443.4233</v>
+        <v>2580000</v>
       </c>
       <c r="G99" t="n">
-        <v>185.3333333333333</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3978,10 +4030,10 @@
         <v>183</v>
       </c>
       <c r="F100" t="n">
-        <v>557.0767</v>
+        <v>2600000</v>
       </c>
       <c r="G100" t="n">
-        <v>184</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4054,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C101" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D101" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E101" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F101" t="n">
-        <v>7411.0464</v>
+        <v>1549341.4691</v>
       </c>
       <c r="G101" t="n">
-        <v>184.3333333333333</v>
+        <v>-8265269.552895699</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4090,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C102" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D102" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E102" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F102" t="n">
-        <v>325030.5001</v>
+        <v>691800</v>
       </c>
       <c r="G102" t="n">
-        <v>185</v>
+        <v>-7573469.552895699</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4126,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C103" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D103" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E103" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F103" t="n">
-        <v>992438</v>
+        <v>2601000</v>
       </c>
       <c r="G103" t="n">
-        <v>186</v>
+        <v>-7573469.552895699</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4162,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C104" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D104" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E104" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F104" t="n">
-        <v>1095388</v>
+        <v>2631600</v>
       </c>
       <c r="G104" t="n">
-        <v>186</v>
+        <v>-7573469.552895699</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4198,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C105" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D105" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E105" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F105" t="n">
-        <v>1103624</v>
+        <v>2611200</v>
       </c>
       <c r="G105" t="n">
-        <v>186</v>
+        <v>-7573469.552895699</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4234,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C106" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D106" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E106" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F106" t="n">
-        <v>1103625</v>
+        <v>2601000</v>
       </c>
       <c r="G106" t="n">
-        <v>186</v>
+        <v>-7573469.552895699</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4218,22 +4270,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C107" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D107" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E107" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F107" t="n">
-        <v>1095388</v>
+        <v>2366400</v>
       </c>
       <c r="G107" t="n">
-        <v>186</v>
+        <v>-7573469.552895699</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4257,19 +4309,19 @@
         <v>186</v>
       </c>
       <c r="C108" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D108" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E108" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F108" t="n">
-        <v>1083034</v>
+        <v>22602.52529523</v>
       </c>
       <c r="G108" t="n">
-        <v>186</v>
+        <v>-7573469.552895699</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4342,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C109" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D109" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E109" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F109" t="n">
-        <v>1074852.8057</v>
+        <v>739000</v>
       </c>
       <c r="G109" t="n">
-        <v>186</v>
+        <v>-6834469.552895699</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4378,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C110" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D110" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E110" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F110" t="n">
-        <v>1087152</v>
+        <v>193382.1061</v>
       </c>
       <c r="G110" t="n">
-        <v>186</v>
+        <v>-7027851.658995699</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4414,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C111" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D111" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E111" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F111" t="n">
-        <v>448862</v>
+        <v>10000</v>
       </c>
       <c r="G111" t="n">
-        <v>186</v>
+        <v>-7027851.658995699</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4450,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C112" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D112" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E112" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F112" t="n">
-        <v>296.6471</v>
+        <v>91.97839999999999</v>
       </c>
       <c r="G112" t="n">
-        <v>186</v>
+        <v>-7027851.658995699</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4486,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C113" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D113" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E113" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F113" t="n">
-        <v>1494.8507</v>
+        <v>1362.5351</v>
       </c>
       <c r="G113" t="n">
-        <v>186</v>
+        <v>-7026489.123895699</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,22 +4522,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C114" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D114" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E114" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F114" t="n">
-        <v>2106.2654</v>
+        <v>664.64</v>
       </c>
       <c r="G114" t="n">
-        <v>186.3333333333333</v>
+        <v>-7027153.763895699</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,22 +4558,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C115" t="n">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D115" t="n">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E115" t="n">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F115" t="n">
-        <v>6.7433</v>
+        <v>744.1034</v>
       </c>
       <c r="G115" t="n">
-        <v>186.6666666666667</v>
+        <v>-7027897.867295699</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4542,22 +4594,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C116" t="n">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D116" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E116" t="n">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F116" t="n">
-        <v>15516.6053</v>
+        <v>2966.3603</v>
       </c>
       <c r="G116" t="n">
-        <v>187</v>
+        <v>-7027897.867295699</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,22 +4630,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C117" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D117" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E117" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F117" t="n">
-        <v>421</v>
+        <v>289.5372</v>
       </c>
       <c r="G117" t="n">
-        <v>187</v>
+        <v>-7027608.330095699</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,22 +4666,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C118" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D118" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E118" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F118" t="n">
-        <v>7219</v>
+        <v>29506.6491</v>
       </c>
       <c r="G118" t="n">
-        <v>187.3333333333333</v>
+        <v>-6998101.680995699</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4650,22 +4702,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C119" t="n">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D119" t="n">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E119" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F119" t="n">
-        <v>8475.794400000001</v>
+        <v>295000</v>
       </c>
       <c r="G119" t="n">
-        <v>188.3333333333333</v>
+        <v>-6998101.680995699</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,22 +4738,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C120" t="n">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D120" t="n">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E120" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F120" t="n">
-        <v>31985.56250419</v>
+        <v>314267.8273</v>
       </c>
       <c r="G120" t="n">
-        <v>190.3333333333333</v>
+        <v>-6998101.680995699</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4722,22 +4774,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C121" t="n">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D121" t="n">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E121" t="n">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F121" t="n">
-        <v>17309.7061</v>
+        <v>131823.9512</v>
       </c>
       <c r="G121" t="n">
-        <v>192.3333333333333</v>
+        <v>-6866277.729795699</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4758,22 +4810,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C122" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D122" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E122" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F122" t="n">
-        <v>95.43899999999999</v>
+        <v>842234.4441</v>
       </c>
       <c r="G122" t="n">
-        <v>192.6666666666667</v>
+        <v>-6866277.729795699</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,22 +4846,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C123" t="n">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D123" t="n">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E123" t="n">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F123" t="n">
-        <v>1380.9415</v>
+        <v>1255352.5559</v>
       </c>
       <c r="G123" t="n">
-        <v>191.6666666666667</v>
+        <v>-6866277.729795699</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4830,22 +4882,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C124" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D124" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E124" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F124" t="n">
-        <v>203</v>
+        <v>1131322.3043</v>
       </c>
       <c r="G124" t="n">
-        <v>190</v>
+        <v>-6866277.729795699</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4866,22 +4918,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C125" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D125" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E125" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F125" t="n">
-        <v>555.684</v>
+        <v>1061703</v>
       </c>
       <c r="G125" t="n">
-        <v>189</v>
+        <v>-6866277.729795699</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4902,22 +4954,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C126" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D126" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E126" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F126" t="n">
-        <v>721.4974999999999</v>
+        <v>1611831.1398</v>
       </c>
       <c r="G126" t="n">
-        <v>188.3333333333333</v>
+        <v>-6866277.729795699</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4938,22 +4990,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C127" t="n">
+        <v>184</v>
+      </c>
+      <c r="D127" t="n">
         <v>187</v>
       </c>
-      <c r="D127" t="n">
-        <v>188</v>
-      </c>
       <c r="E127" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F127" t="n">
-        <v>8000</v>
+        <v>1195167.5862</v>
       </c>
       <c r="G127" t="n">
-        <v>187.6666666666667</v>
+        <v>-6866277.729795699</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4974,22 +5026,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C128" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D128" t="n">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E128" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>552500</v>
       </c>
       <c r="G128" t="n">
-        <v>188</v>
+        <v>-6866277.729795699</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5010,22 +5062,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C129" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D129" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E129" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F129" t="n">
-        <v>1508.074</v>
+        <v>1301333.07389148</v>
       </c>
       <c r="G129" t="n">
-        <v>188.3333333333333</v>
+        <v>-6866277.729795699</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5046,22 +5098,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C130" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D130" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E130" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F130" t="n">
-        <v>244932.7422</v>
+        <v>1306500</v>
       </c>
       <c r="G130" t="n">
-        <v>189</v>
+        <v>-6866277.729795699</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5082,22 +5134,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C131" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D131" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E131" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F131" t="n">
-        <v>71876.1776</v>
+        <v>526500</v>
       </c>
       <c r="G131" t="n">
-        <v>189</v>
+        <v>-6866277.729795699</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5118,22 +5170,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C132" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D132" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E132" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F132" t="n">
-        <v>3911.9687</v>
+        <v>715.135</v>
       </c>
       <c r="G132" t="n">
-        <v>189.6666666666667</v>
+        <v>-6866277.729795699</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5154,22 +5206,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C133" t="n">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D133" t="n">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E133" t="n">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F133" t="n">
-        <v>1.1099</v>
+        <v>400</v>
       </c>
       <c r="G133" t="n">
-        <v>190.3333333333333</v>
+        <v>-6866677.729795699</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5190,22 +5242,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C134" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D134" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E134" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F134" t="n">
-        <v>217.0996</v>
+        <v>345.7978</v>
       </c>
       <c r="G134" t="n">
-        <v>191</v>
+        <v>-6866331.931995699</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5226,22 +5278,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C135" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D135" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E135" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F135" t="n">
-        <v>82.9004</v>
+        <v>301.4399</v>
       </c>
       <c r="G135" t="n">
-        <v>191</v>
+        <v>-6866331.931995699</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5262,22 +5314,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C136" t="n">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D136" t="n">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E136" t="n">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F136" t="n">
-        <v>5382.4906</v>
+        <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>190</v>
+        <v>-6866341.931995699</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5298,22 +5350,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C137" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D137" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E137" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F137" t="n">
-        <v>24.3757</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>189</v>
+        <v>-6866340.931995699</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5334,22 +5386,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C138" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D138" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E138" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F138" t="n">
-        <v>178.5705</v>
+        <v>2020.0706</v>
       </c>
       <c r="G138" t="n">
-        <v>188</v>
+        <v>-6866340.931995699</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5370,35 +5422,31 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C139" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D139" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E139" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F139" t="n">
-        <v>2.1693</v>
+        <v>433.9274</v>
       </c>
       <c r="G139" t="n">
-        <v>188.3333333333333</v>
+        <v>-6866340.931995699</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>188</v>
-      </c>
-      <c r="K139" t="n">
-        <v>188</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
@@ -5410,22 +5458,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C140" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D140" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E140" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F140" t="n">
-        <v>3903.2959</v>
+        <v>1586.1432</v>
       </c>
       <c r="G140" t="n">
-        <v>187.6666666666667</v>
+        <v>-6866340.931995699</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5434,14 +5482,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>188</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5452,40 +5494,32 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C141" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D141" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E141" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>580</v>
       </c>
       <c r="G141" t="n">
-        <v>188</v>
+        <v>-6865760.931995699</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>186</v>
-      </c>
-      <c r="K141" t="n">
-        <v>188</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5496,22 +5530,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C142" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D142" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E142" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>430.337</v>
       </c>
       <c r="G142" t="n">
-        <v>188</v>
+        <v>-6865760.931995699</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5520,14 +5554,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>188</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5538,22 +5566,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C143" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D143" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E143" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F143" t="n">
-        <v>436.0791</v>
+        <v>20</v>
       </c>
       <c r="G143" t="n">
-        <v>188.6666666666667</v>
+        <v>-6865740.931995699</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5562,14 +5590,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>188</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5580,22 +5602,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C144" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D144" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E144" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F144" t="n">
-        <v>13049.0776</v>
+        <v>413.9274</v>
       </c>
       <c r="G144" t="n">
-        <v>187.6666666666667</v>
+        <v>-6865740.931995699</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5604,14 +5626,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>188</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5634,28 +5650,20 @@
         <v>188</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>1556.52230852</v>
       </c>
       <c r="G145" t="n">
-        <v>187.3333333333333</v>
+        <v>-6864184.409687179</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>186</v>
-      </c>
-      <c r="K145" t="n">
-        <v>188</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5666,40 +5674,32 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C146" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D146" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E146" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F146" t="n">
-        <v>8.297800000000001</v>
+        <v>836.3809</v>
       </c>
       <c r="G146" t="n">
-        <v>187.3333333333333</v>
+        <v>-6863348.028787179</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>188</v>
-      </c>
-      <c r="K146" t="n">
-        <v>188</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5710,40 +5710,32 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C147" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D147" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E147" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F147" t="n">
-        <v>8.276999999999999</v>
+        <v>6.25</v>
       </c>
       <c r="G147" t="n">
-        <v>187.3333333333333</v>
+        <v>-6863354.278787179</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>188</v>
-      </c>
-      <c r="K147" t="n">
-        <v>188</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5754,40 +5746,32 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C148" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D148" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E148" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>336.75</v>
       </c>
       <c r="G148" t="n">
-        <v>187.3333333333333</v>
+        <v>-6863354.278787179</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>186</v>
-      </c>
-      <c r="K148" t="n">
-        <v>188</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5798,40 +5782,32 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C149" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D149" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E149" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F149" t="n">
-        <v>4700.6848</v>
+        <v>841.17112299</v>
       </c>
       <c r="G149" t="n">
-        <v>187.3333333333333</v>
+        <v>-6863354.278787179</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>188</v>
-      </c>
-      <c r="K149" t="n">
-        <v>188</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5842,40 +5818,32 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C150" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D150" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E150" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F150" t="n">
-        <v>281.2087</v>
+        <v>310.3428</v>
       </c>
       <c r="G150" t="n">
-        <v>188</v>
+        <v>-6863354.278787179</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>188</v>
-      </c>
-      <c r="K150" t="n">
-        <v>188</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5886,40 +5854,32 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C151" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D151" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E151" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F151" t="n">
-        <v>5667.7711</v>
+        <v>1314.2981</v>
       </c>
       <c r="G151" t="n">
-        <v>187.3333333333333</v>
+        <v>-6863354.278787179</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>188</v>
-      </c>
-      <c r="K151" t="n">
-        <v>188</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5930,40 +5890,32 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C152" t="n">
         <v>186</v>
       </c>
       <c r="D152" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E152" t="n">
         <v>186</v>
       </c>
       <c r="F152" t="n">
-        <v>856.3132000000001</v>
+        <v>649.4127</v>
       </c>
       <c r="G152" t="n">
-        <v>186.6666666666667</v>
+        <v>-6862704.866087179</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>186</v>
-      </c>
-      <c r="K152" t="n">
-        <v>188</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5974,40 +5926,32 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C153" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D153" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E153" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F153" t="n">
-        <v>2</v>
+        <v>1061.5427</v>
       </c>
       <c r="G153" t="n">
-        <v>187</v>
+        <v>-6861643.323387179</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>186</v>
-      </c>
-      <c r="K153" t="n">
-        <v>188</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6018,40 +5962,32 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C154" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D154" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E154" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F154" t="n">
-        <v>369</v>
+        <v>1349.6303</v>
       </c>
       <c r="G154" t="n">
-        <v>188</v>
+        <v>-6862992.953687179</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>189</v>
-      </c>
-      <c r="K154" t="n">
-        <v>188</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6062,40 +5998,32 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C155" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D155" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E155" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F155" t="n">
-        <v>9</v>
+        <v>1207.0456</v>
       </c>
       <c r="G155" t="n">
-        <v>189.3333333333333</v>
+        <v>-6861785.908087179</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>189</v>
-      </c>
-      <c r="K155" t="n">
-        <v>188</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6106,40 +6034,32 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C156" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D156" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E156" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F156" t="n">
-        <v>703.4578</v>
+        <v>856.7375</v>
       </c>
       <c r="G156" t="n">
-        <v>189.6666666666667</v>
+        <v>-6861785.908087179</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>190</v>
-      </c>
-      <c r="K156" t="n">
-        <v>188</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6150,40 +6070,32 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C157" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D157" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E157" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F157" t="n">
-        <v>931.6057</v>
+        <v>341.1392</v>
       </c>
       <c r="G157" t="n">
-        <v>190</v>
+        <v>-6861785.908087179</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>190</v>
-      </c>
-      <c r="K157" t="n">
-        <v>188</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6194,40 +6106,32 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C158" t="n">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D158" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E158" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F158" t="n">
-        <v>5245.96858638</v>
+        <v>659.6739</v>
       </c>
       <c r="G158" t="n">
-        <v>190.3333333333333</v>
+        <v>-6862445.581987179</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>190</v>
-      </c>
-      <c r="K158" t="n">
-        <v>188</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6238,40 +6142,32 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C159" t="n">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D159" t="n">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E159" t="n">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F159" t="n">
-        <v>1713.49781362</v>
+        <v>511.704</v>
       </c>
       <c r="G159" t="n">
-        <v>190.6666666666667</v>
+        <v>-6862445.581987179</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>191</v>
-      </c>
-      <c r="K159" t="n">
-        <v>188</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6282,40 +6178,34 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C160" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D160" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E160" t="n">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>139.8204</v>
       </c>
       <c r="G160" t="n">
-        <v>191.6666666666667</v>
+        <v>-6862305.761587179</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>188</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>1.021595744680851</v>
+        <v>1</v>
       </c>
       <c r="N160" t="inlineStr"/>
     </row>
@@ -6324,28 +6214,28 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C161" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D161" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E161" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F161" t="n">
-        <v>1005.9896</v>
+        <v>1207.5107</v>
       </c>
       <c r="G161" t="n">
-        <v>192.3333333333333</v>
+        <v>-6862305.761587179</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6360,28 +6250,28 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C162" t="n">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D162" t="n">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E162" t="n">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F162" t="n">
-        <v>1137.75758556</v>
+        <v>65.7252</v>
       </c>
       <c r="G162" t="n">
-        <v>193.3333333333333</v>
+        <v>-6862371.486787179</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -6396,28 +6286,28 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C163" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D163" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E163" t="n">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F163" t="n">
-        <v>150</v>
+        <v>6064.1657</v>
       </c>
       <c r="G163" t="n">
-        <v>193.3333333333333</v>
+        <v>-6856307.32108718</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -6432,28 +6322,28 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C164" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D164" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E164" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F164" t="n">
-        <v>501.2017</v>
+        <v>563022</v>
       </c>
       <c r="G164" t="n">
-        <v>192.6666666666667</v>
+        <v>-6856307.32108718</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -6468,28 +6358,28 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C165" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D165" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E165" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F165" t="n">
-        <v>65.26983333</v>
+        <v>1604310.1907</v>
       </c>
       <c r="G165" t="n">
-        <v>192</v>
+        <v>-6856307.32108718</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -6504,28 +6394,28 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C166" t="n">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D166" t="n">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E166" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F166" t="n">
-        <v>5740.15149793</v>
+        <v>1150260</v>
       </c>
       <c r="G166" t="n">
-        <v>192.3333333333333</v>
+        <v>-6856307.32108718</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -6540,28 +6430,28 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C167" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D167" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E167" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F167" t="n">
-        <v>2518.6528</v>
+        <v>216000</v>
       </c>
       <c r="G167" t="n">
-        <v>193</v>
+        <v>-6856307.32108718</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -6576,28 +6466,28 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C168" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D168" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E168" t="n">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F168" t="n">
-        <v>150</v>
+        <v>170120.975</v>
       </c>
       <c r="G168" t="n">
-        <v>192.3333333333333</v>
+        <v>-6686186.34608718</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -6612,28 +6502,28 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C169" t="n">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D169" t="n">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E169" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F169" t="n">
-        <v>1478.7876</v>
+        <v>4862.3003</v>
       </c>
       <c r="G169" t="n">
-        <v>191.6666666666667</v>
+        <v>-6691048.64638718</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
@@ -6648,31 +6538,35 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C170" t="n">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D170" t="n">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E170" t="n">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F170" t="n">
-        <v>710.526</v>
+        <v>443.4233</v>
       </c>
       <c r="G170" t="n">
-        <v>191.6666666666667</v>
+        <v>-6691492.06968718</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>185</v>
+      </c>
+      <c r="K170" t="n">
+        <v>185</v>
+      </c>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
@@ -6684,32 +6578,40 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C171" t="n">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D171" t="n">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E171" t="n">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F171" t="n">
-        <v>466.32124352</v>
+        <v>557.0767</v>
       </c>
       <c r="G171" t="n">
-        <v>192.6666666666667</v>
+        <v>-6692049.14638718</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>184</v>
+      </c>
+      <c r="K171" t="n">
+        <v>185</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6720,32 +6622,40 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C172" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D172" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E172" t="n">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F172" t="n">
-        <v>2000</v>
+        <v>7411.0464</v>
       </c>
       <c r="G172" t="n">
-        <v>192.6666666666667</v>
+        <v>-6684638.09998718</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>183</v>
+      </c>
+      <c r="K172" t="n">
+        <v>185</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6756,32 +6666,40 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C173" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D173" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E173" t="n">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F173" t="n">
-        <v>2.8445</v>
+        <v>325030.5001</v>
       </c>
       <c r="G173" t="n">
-        <v>192.6666666666667</v>
+        <v>-6684638.09998718</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>186</v>
+      </c>
+      <c r="K173" t="n">
+        <v>185</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6792,32 +6710,38 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C174" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D174" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E174" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F174" t="n">
-        <v>780.454</v>
+        <v>992438</v>
       </c>
       <c r="G174" t="n">
-        <v>192.6666666666667</v>
+        <v>-6684638.09998718</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>185</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6828,32 +6752,38 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C175" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D175" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E175" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F175" t="n">
-        <v>87.4455</v>
+        <v>1095388</v>
       </c>
       <c r="G175" t="n">
-        <v>192.6666666666667</v>
+        <v>-6684638.09998718</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>185</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6864,22 +6794,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C176" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D176" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E176" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F176" t="n">
-        <v>585.2218</v>
+        <v>1103624</v>
       </c>
       <c r="G176" t="n">
-        <v>191.6666666666667</v>
+        <v>-6684638.09998718</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6888,8 +6818,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>185</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6900,22 +6836,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C177" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D177" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E177" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F177" t="n">
-        <v>142.4827</v>
+        <v>1103625</v>
       </c>
       <c r="G177" t="n">
-        <v>190.3333333333333</v>
+        <v>-6684638.09998718</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6924,8 +6860,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>185</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6936,22 +6878,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C178" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D178" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E178" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F178" t="n">
-        <v>200</v>
+        <v>1095388</v>
       </c>
       <c r="G178" t="n">
-        <v>189.3333333333333</v>
+        <v>-6684638.09998718</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6960,8 +6902,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>185</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6972,22 +6920,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C179" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D179" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E179" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F179" t="n">
-        <v>525.7140000000001</v>
+        <v>1083034</v>
       </c>
       <c r="G179" t="n">
-        <v>189.3333333333333</v>
+        <v>-6684638.09998718</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6996,8 +6944,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>185</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7008,32 +6962,40 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C180" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D180" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E180" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F180" t="n">
-        <v>99</v>
+        <v>1074852.8057</v>
       </c>
       <c r="G180" t="n">
-        <v>190</v>
+        <v>-6684638.09998718</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>186</v>
+      </c>
+      <c r="K180" t="n">
+        <v>185</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7044,32 +7006,40 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C181" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D181" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E181" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F181" t="n">
-        <v>83.625</v>
+        <v>1087152</v>
       </c>
       <c r="G181" t="n">
-        <v>190.6666666666667</v>
+        <v>-6684638.09998718</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>186</v>
+      </c>
+      <c r="K181" t="n">
+        <v>185</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7080,32 +7050,40 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C182" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D182" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E182" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F182" t="n">
-        <v>9.2302</v>
+        <v>448862</v>
       </c>
       <c r="G182" t="n">
-        <v>191</v>
+        <v>-6684638.09998718</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>186</v>
+      </c>
+      <c r="K182" t="n">
+        <v>185</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7116,32 +7094,40 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C183" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D183" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E183" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F183" t="n">
-        <v>3255.0025</v>
+        <v>296.6471</v>
       </c>
       <c r="G183" t="n">
-        <v>191</v>
+        <v>-6684638.09998718</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>186</v>
+      </c>
+      <c r="K183" t="n">
+        <v>185</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7152,32 +7138,40 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C184" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D184" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E184" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F184" t="n">
-        <v>2364.9548</v>
+        <v>1494.8507</v>
       </c>
       <c r="G184" t="n">
-        <v>191</v>
+        <v>-6684638.09998718</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>186</v>
+      </c>
+      <c r="K184" t="n">
+        <v>185</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7188,32 +7182,40 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C185" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D185" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E185" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F185" t="n">
-        <v>174.286</v>
+        <v>2106.2654</v>
       </c>
       <c r="G185" t="n">
-        <v>190.6666666666667</v>
+        <v>-6682531.83458718</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>186</v>
+      </c>
+      <c r="K185" t="n">
+        <v>185</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7224,32 +7226,40 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C186" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D186" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E186" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F186" t="n">
-        <v>1058.8888</v>
+        <v>6.7433</v>
       </c>
       <c r="G186" t="n">
-        <v>189.6666666666667</v>
+        <v>-6682531.83458718</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>187</v>
+      </c>
+      <c r="K186" t="n">
+        <v>185</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7260,32 +7270,40 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C187" t="n">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D187" t="n">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E187" t="n">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F187" t="n">
-        <v>6273.19421458</v>
+        <v>15516.6053</v>
       </c>
       <c r="G187" t="n">
-        <v>190</v>
+        <v>-6682531.83458718</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>187</v>
+      </c>
+      <c r="K187" t="n">
+        <v>185</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7296,32 +7314,40 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C188" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D188" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E188" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F188" t="n">
-        <v>1641.3526</v>
+        <v>421</v>
       </c>
       <c r="G188" t="n">
-        <v>190</v>
+        <v>-6682531.83458718</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>187</v>
+      </c>
+      <c r="K188" t="n">
+        <v>185</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7332,32 +7358,40 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>187</v>
+      </c>
+      <c r="C189" t="n">
         <v>188</v>
       </c>
-      <c r="C189" t="n">
-        <v>190</v>
-      </c>
       <c r="D189" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E189" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F189" t="n">
-        <v>1497.7806</v>
+        <v>7219</v>
       </c>
       <c r="G189" t="n">
-        <v>190.6666666666667</v>
+        <v>-6675312.83458718</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>187</v>
+      </c>
+      <c r="K189" t="n">
+        <v>185</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7368,7 +7402,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C190" t="n">
         <v>190</v>
@@ -7377,23 +7411,31 @@
         <v>190</v>
       </c>
       <c r="E190" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F190" t="n">
-        <v>335.5086</v>
+        <v>8475.794400000001</v>
       </c>
       <c r="G190" t="n">
-        <v>190</v>
+        <v>-6666837.04018718</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>188</v>
+      </c>
+      <c r="K190" t="n">
+        <v>185</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7404,32 +7446,40 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C191" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D191" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E191" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F191" t="n">
-        <v>617.9854</v>
+        <v>31985.56250419</v>
       </c>
       <c r="G191" t="n">
-        <v>189.3333333333333</v>
+        <v>-6634851.47768299</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>190</v>
+      </c>
+      <c r="K191" t="n">
+        <v>185</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7440,22 +7490,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C192" t="n">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D192" t="n">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E192" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F192" t="n">
-        <v>2</v>
+        <v>17309.7061</v>
       </c>
       <c r="G192" t="n">
-        <v>188.6666666666667</v>
+        <v>-6617541.77158299</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7464,8 +7514,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>185</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7476,22 +7532,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C193" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D193" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E193" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F193" t="n">
-        <v>11350.0146</v>
+        <v>95.43899999999999</v>
       </c>
       <c r="G193" t="n">
-        <v>186.6666666666667</v>
+        <v>-6617637.21058299</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7500,8 +7556,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>185</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7512,36 +7574,3066 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
+        <v>190</v>
+      </c>
+      <c r="C194" t="n">
+        <v>190</v>
+      </c>
+      <c r="D194" t="n">
+        <v>190</v>
+      </c>
+      <c r="E194" t="n">
+        <v>190</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1380.9415</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-6619018.15208299</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>185</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>189</v>
+      </c>
+      <c r="C195" t="n">
+        <v>189</v>
+      </c>
+      <c r="D195" t="n">
+        <v>189</v>
+      </c>
+      <c r="E195" t="n">
+        <v>189</v>
+      </c>
+      <c r="F195" t="n">
+        <v>203</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-6619221.15208299</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>185</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>188</v>
+      </c>
+      <c r="C196" t="n">
+        <v>188</v>
+      </c>
+      <c r="D196" t="n">
+        <v>188</v>
+      </c>
+      <c r="E196" t="n">
+        <v>188</v>
+      </c>
+      <c r="F196" t="n">
+        <v>555.684</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-6619776.83608299</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>185</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>188</v>
+      </c>
+      <c r="C197" t="n">
+        <v>188</v>
+      </c>
+      <c r="D197" t="n">
+        <v>188</v>
+      </c>
+      <c r="E197" t="n">
+        <v>188</v>
+      </c>
+      <c r="F197" t="n">
+        <v>721.4974999999999</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-6619776.83608299</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>185</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>188</v>
+      </c>
+      <c r="C198" t="n">
         <v>187</v>
       </c>
-      <c r="C194" t="n">
+      <c r="D198" t="n">
+        <v>188</v>
+      </c>
+      <c r="E198" t="n">
         <v>187</v>
       </c>
-      <c r="D194" t="n">
+      <c r="F198" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-6627776.83608299</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>188</v>
+      </c>
+      <c r="K198" t="n">
+        <v>185</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>189</v>
+      </c>
+      <c r="C199" t="n">
+        <v>189</v>
+      </c>
+      <c r="D199" t="n">
+        <v>189</v>
+      </c>
+      <c r="E199" t="n">
+        <v>189</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-6627775.83608299</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
         <v>187</v>
       </c>
-      <c r="E194" t="n">
+      <c r="K199" t="n">
+        <v>185</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>189</v>
+      </c>
+      <c r="C200" t="n">
+        <v>189</v>
+      </c>
+      <c r="D200" t="n">
+        <v>189</v>
+      </c>
+      <c r="E200" t="n">
+        <v>189</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1508.074</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-6627775.83608299</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>185</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>189</v>
+      </c>
+      <c r="C201" t="n">
+        <v>189</v>
+      </c>
+      <c r="D201" t="n">
+        <v>189</v>
+      </c>
+      <c r="E201" t="n">
+        <v>189</v>
+      </c>
+      <c r="F201" t="n">
+        <v>244932.7422</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-6627775.83608299</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>189</v>
+      </c>
+      <c r="K201" t="n">
+        <v>185</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>189</v>
+      </c>
+      <c r="C202" t="n">
+        <v>189</v>
+      </c>
+      <c r="D202" t="n">
+        <v>189</v>
+      </c>
+      <c r="E202" t="n">
+        <v>189</v>
+      </c>
+      <c r="F202" t="n">
+        <v>71876.1776</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-6627775.83608299</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>189</v>
+      </c>
+      <c r="K202" t="n">
+        <v>185</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>189</v>
+      </c>
+      <c r="C203" t="n">
+        <v>191</v>
+      </c>
+      <c r="D203" t="n">
+        <v>191</v>
+      </c>
+      <c r="E203" t="n">
+        <v>189</v>
+      </c>
+      <c r="F203" t="n">
+        <v>3911.9687</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-6623863.86738299</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>185</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>191</v>
+      </c>
+      <c r="C204" t="n">
+        <v>191</v>
+      </c>
+      <c r="D204" t="n">
+        <v>191</v>
+      </c>
+      <c r="E204" t="n">
+        <v>191</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1.1099</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-6623863.86738299</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>185</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>191</v>
+      </c>
+      <c r="C205" t="n">
+        <v>191</v>
+      </c>
+      <c r="D205" t="n">
+        <v>191</v>
+      </c>
+      <c r="E205" t="n">
+        <v>191</v>
+      </c>
+      <c r="F205" t="n">
+        <v>217.0996</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-6623863.86738299</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>185</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>191</v>
+      </c>
+      <c r="C206" t="n">
+        <v>191</v>
+      </c>
+      <c r="D206" t="n">
+        <v>191</v>
+      </c>
+      <c r="E206" t="n">
+        <v>191</v>
+      </c>
+      <c r="F206" t="n">
+        <v>82.9004</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-6623863.86738299</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>185</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>188</v>
+      </c>
+      <c r="C207" t="n">
+        <v>188</v>
+      </c>
+      <c r="D207" t="n">
+        <v>190</v>
+      </c>
+      <c r="E207" t="n">
         <v>187</v>
       </c>
-      <c r="F194" t="n">
+      <c r="F207" t="n">
+        <v>5382.4906</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-6629246.35798299</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>185</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>188</v>
+      </c>
+      <c r="C208" t="n">
+        <v>188</v>
+      </c>
+      <c r="D208" t="n">
+        <v>188</v>
+      </c>
+      <c r="E208" t="n">
+        <v>188</v>
+      </c>
+      <c r="F208" t="n">
+        <v>24.3757</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-6629246.35798299</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>185</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>188</v>
+      </c>
+      <c r="C209" t="n">
+        <v>188</v>
+      </c>
+      <c r="D209" t="n">
+        <v>188</v>
+      </c>
+      <c r="E209" t="n">
+        <v>188</v>
+      </c>
+      <c r="F209" t="n">
+        <v>178.5705</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-6629246.35798299</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>185</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>189</v>
+      </c>
+      <c r="C210" t="n">
+        <v>189</v>
+      </c>
+      <c r="D210" t="n">
+        <v>189</v>
+      </c>
+      <c r="E210" t="n">
+        <v>189</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2.1693</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-6629244.18868299</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>188</v>
+      </c>
+      <c r="K210" t="n">
+        <v>185</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>187</v>
+      </c>
+      <c r="C211" t="n">
+        <v>186</v>
+      </c>
+      <c r="D211" t="n">
+        <v>187</v>
+      </c>
+      <c r="E211" t="n">
+        <v>186</v>
+      </c>
+      <c r="F211" t="n">
+        <v>3903.2959</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-6633147.48458299</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>185</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>189</v>
+      </c>
+      <c r="C212" t="n">
+        <v>189</v>
+      </c>
+      <c r="D212" t="n">
+        <v>189</v>
+      </c>
+      <c r="E212" t="n">
+        <v>189</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-6633146.48458299</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>186</v>
+      </c>
+      <c r="K212" t="n">
+        <v>185</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>189</v>
+      </c>
+      <c r="C213" t="n">
+        <v>189</v>
+      </c>
+      <c r="D213" t="n">
+        <v>189</v>
+      </c>
+      <c r="E213" t="n">
+        <v>189</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-6633146.48458299</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>185</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>188</v>
+      </c>
+      <c r="C214" t="n">
+        <v>188</v>
+      </c>
+      <c r="D214" t="n">
+        <v>188</v>
+      </c>
+      <c r="E214" t="n">
+        <v>188</v>
+      </c>
+      <c r="F214" t="n">
+        <v>436.0791</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-6633582.56368299</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>185</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>186</v>
+      </c>
+      <c r="C215" t="n">
+        <v>186</v>
+      </c>
+      <c r="D215" t="n">
+        <v>186</v>
+      </c>
+      <c r="E215" t="n">
+        <v>186</v>
+      </c>
+      <c r="F215" t="n">
+        <v>13049.0776</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-6646631.641282991</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>188</v>
+      </c>
+      <c r="K215" t="n">
+        <v>185</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>188</v>
+      </c>
+      <c r="C216" t="n">
+        <v>188</v>
+      </c>
+      <c r="D216" t="n">
+        <v>188</v>
+      </c>
+      <c r="E216" t="n">
+        <v>188</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-6646630.641282991</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>186</v>
+      </c>
+      <c r="K216" t="n">
+        <v>185</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>188</v>
+      </c>
+      <c r="C217" t="n">
+        <v>188</v>
+      </c>
+      <c r="D217" t="n">
+        <v>188</v>
+      </c>
+      <c r="E217" t="n">
+        <v>188</v>
+      </c>
+      <c r="F217" t="n">
+        <v>8.297800000000001</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-6646630.641282991</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>188</v>
+      </c>
+      <c r="K217" t="n">
+        <v>185</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>186</v>
+      </c>
+      <c r="C218" t="n">
+        <v>186</v>
+      </c>
+      <c r="D218" t="n">
+        <v>186</v>
+      </c>
+      <c r="E218" t="n">
+        <v>186</v>
+      </c>
+      <c r="F218" t="n">
+        <v>8.276999999999999</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-6646638.91828299</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>188</v>
+      </c>
+      <c r="K218" t="n">
+        <v>185</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>188</v>
+      </c>
+      <c r="C219" t="n">
+        <v>188</v>
+      </c>
+      <c r="D219" t="n">
+        <v>188</v>
+      </c>
+      <c r="E219" t="n">
+        <v>188</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-6646637.91828299</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>186</v>
+      </c>
+      <c r="K219" t="n">
+        <v>185</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>188</v>
+      </c>
+      <c r="C220" t="n">
+        <v>188</v>
+      </c>
+      <c r="D220" t="n">
+        <v>188</v>
+      </c>
+      <c r="E220" t="n">
+        <v>188</v>
+      </c>
+      <c r="F220" t="n">
+        <v>4700.6848</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-6646637.91828299</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>188</v>
+      </c>
+      <c r="K220" t="n">
+        <v>185</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>188</v>
+      </c>
+      <c r="C221" t="n">
+        <v>188</v>
+      </c>
+      <c r="D221" t="n">
+        <v>188</v>
+      </c>
+      <c r="E221" t="n">
+        <v>188</v>
+      </c>
+      <c r="F221" t="n">
+        <v>281.2087</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-6646637.91828299</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>185</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>188</v>
+      </c>
+      <c r="C222" t="n">
+        <v>186</v>
+      </c>
+      <c r="D222" t="n">
+        <v>188</v>
+      </c>
+      <c r="E222" t="n">
+        <v>186</v>
+      </c>
+      <c r="F222" t="n">
+        <v>5667.7711</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-6652305.68938299</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>188</v>
+      </c>
+      <c r="K222" t="n">
+        <v>185</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>187</v>
+      </c>
+      <c r="C223" t="n">
+        <v>186</v>
+      </c>
+      <c r="D223" t="n">
+        <v>187</v>
+      </c>
+      <c r="E223" t="n">
+        <v>186</v>
+      </c>
+      <c r="F223" t="n">
+        <v>856.3132000000001</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-6652305.68938299</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>186</v>
+      </c>
+      <c r="K223" t="n">
+        <v>185</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>188</v>
+      </c>
+      <c r="C224" t="n">
+        <v>189</v>
+      </c>
+      <c r="D224" t="n">
+        <v>189</v>
+      </c>
+      <c r="E224" t="n">
+        <v>188</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-6652303.68938299</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>186</v>
+      </c>
+      <c r="K224" t="n">
+        <v>185</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>189</v>
+      </c>
+      <c r="C225" t="n">
+        <v>189</v>
+      </c>
+      <c r="D225" t="n">
+        <v>189</v>
+      </c>
+      <c r="E225" t="n">
+        <v>189</v>
+      </c>
+      <c r="F225" t="n">
+        <v>369</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-6652303.68938299</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>189</v>
+      </c>
+      <c r="K225" t="n">
+        <v>185</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>189</v>
+      </c>
+      <c r="C226" t="n">
+        <v>190</v>
+      </c>
+      <c r="D226" t="n">
+        <v>190</v>
+      </c>
+      <c r="E226" t="n">
+        <v>189</v>
+      </c>
+      <c r="F226" t="n">
+        <v>9</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-6652294.68938299</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>189</v>
+      </c>
+      <c r="K226" t="n">
+        <v>185</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>189</v>
+      </c>
+      <c r="C227" t="n">
+        <v>190</v>
+      </c>
+      <c r="D227" t="n">
+        <v>190</v>
+      </c>
+      <c r="E227" t="n">
+        <v>189</v>
+      </c>
+      <c r="F227" t="n">
+        <v>703.4578</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-6652294.68938299</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>185</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>190</v>
+      </c>
+      <c r="C228" t="n">
+        <v>190</v>
+      </c>
+      <c r="D228" t="n">
+        <v>190</v>
+      </c>
+      <c r="E228" t="n">
+        <v>190</v>
+      </c>
+      <c r="F228" t="n">
+        <v>931.6057</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-6652294.68938299</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>185</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>191</v>
+      </c>
+      <c r="C229" t="n">
+        <v>191</v>
+      </c>
+      <c r="D229" t="n">
+        <v>191</v>
+      </c>
+      <c r="E229" t="n">
+        <v>191</v>
+      </c>
+      <c r="F229" t="n">
+        <v>5245.96858638</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-6647048.72079661</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>185</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>191</v>
+      </c>
+      <c r="C230" t="n">
+        <v>191</v>
+      </c>
+      <c r="D230" t="n">
+        <v>191</v>
+      </c>
+      <c r="E230" t="n">
+        <v>191</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1713.49781362</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-6647048.72079661</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>185</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>193</v>
+      </c>
+      <c r="C231" t="n">
+        <v>193</v>
+      </c>
+      <c r="D231" t="n">
+        <v>193</v>
+      </c>
+      <c r="E231" t="n">
+        <v>193</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-6647047.72079661</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>185</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>193</v>
+      </c>
+      <c r="C232" t="n">
+        <v>193</v>
+      </c>
+      <c r="D232" t="n">
+        <v>193</v>
+      </c>
+      <c r="E232" t="n">
+        <v>193</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1005.9896</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-6647047.72079661</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>185</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>193</v>
+      </c>
+      <c r="C233" t="n">
+        <v>194</v>
+      </c>
+      <c r="D233" t="n">
+        <v>194</v>
+      </c>
+      <c r="E233" t="n">
+        <v>193</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1137.75758556</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-6645909.96321105</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>185</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>193</v>
+      </c>
+      <c r="C234" t="n">
+        <v>193</v>
+      </c>
+      <c r="D234" t="n">
+        <v>193</v>
+      </c>
+      <c r="E234" t="n">
+        <v>193</v>
+      </c>
+      <c r="F234" t="n">
+        <v>150</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-6646059.96321105</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>185</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>191</v>
+      </c>
+      <c r="C235" t="n">
+        <v>191</v>
+      </c>
+      <c r="D235" t="n">
+        <v>191</v>
+      </c>
+      <c r="E235" t="n">
+        <v>191</v>
+      </c>
+      <c r="F235" t="n">
+        <v>501.2017</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-6646561.16491105</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>185</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>192</v>
+      </c>
+      <c r="C236" t="n">
+        <v>192</v>
+      </c>
+      <c r="D236" t="n">
+        <v>192</v>
+      </c>
+      <c r="E236" t="n">
+        <v>192</v>
+      </c>
+      <c r="F236" t="n">
+        <v>65.26983333</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-6646495.89507772</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>185</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>192</v>
+      </c>
+      <c r="C237" t="n">
+        <v>194</v>
+      </c>
+      <c r="D237" t="n">
+        <v>194</v>
+      </c>
+      <c r="E237" t="n">
+        <v>192</v>
+      </c>
+      <c r="F237" t="n">
+        <v>5740.15149793</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-6640755.74357979</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>185</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>193</v>
+      </c>
+      <c r="C238" t="n">
+        <v>193</v>
+      </c>
+      <c r="D238" t="n">
+        <v>193</v>
+      </c>
+      <c r="E238" t="n">
+        <v>193</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2518.6528</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-6643274.39637979</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>185</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>190</v>
+      </c>
+      <c r="C239" t="n">
+        <v>190</v>
+      </c>
+      <c r="D239" t="n">
+        <v>190</v>
+      </c>
+      <c r="E239" t="n">
+        <v>190</v>
+      </c>
+      <c r="F239" t="n">
+        <v>150</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-6643424.39637979</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>185</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>190</v>
+      </c>
+      <c r="C240" t="n">
+        <v>192</v>
+      </c>
+      <c r="D240" t="n">
+        <v>192</v>
+      </c>
+      <c r="E240" t="n">
+        <v>188</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1478.7876</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-6641945.60877979</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>185</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>192</v>
+      </c>
+      <c r="C241" t="n">
+        <v>193</v>
+      </c>
+      <c r="D241" t="n">
+        <v>193</v>
+      </c>
+      <c r="E241" t="n">
+        <v>192</v>
+      </c>
+      <c r="F241" t="n">
+        <v>710.526</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-6641235.08277979</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>185</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>193</v>
+      </c>
+      <c r="C242" t="n">
+        <v>193</v>
+      </c>
+      <c r="D242" t="n">
+        <v>193</v>
+      </c>
+      <c r="E242" t="n">
+        <v>193</v>
+      </c>
+      <c r="F242" t="n">
+        <v>466.32124352</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-6641235.08277979</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>185</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>192</v>
+      </c>
+      <c r="C243" t="n">
+        <v>192</v>
+      </c>
+      <c r="D243" t="n">
+        <v>192</v>
+      </c>
+      <c r="E243" t="n">
+        <v>192</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-6643235.08277979</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>185</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>193</v>
+      </c>
+      <c r="C244" t="n">
+        <v>193</v>
+      </c>
+      <c r="D244" t="n">
+        <v>193</v>
+      </c>
+      <c r="E244" t="n">
+        <v>193</v>
+      </c>
+      <c r="F244" t="n">
+        <v>2.8445</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-6643232.238279791</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>185</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>192</v>
+      </c>
+      <c r="C245" t="n">
+        <v>193</v>
+      </c>
+      <c r="D245" t="n">
+        <v>193</v>
+      </c>
+      <c r="E245" t="n">
+        <v>192</v>
+      </c>
+      <c r="F245" t="n">
+        <v>780.454</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-6643232.238279791</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>185</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>192</v>
+      </c>
+      <c r="C246" t="n">
+        <v>192</v>
+      </c>
+      <c r="D246" t="n">
+        <v>192</v>
+      </c>
+      <c r="E246" t="n">
+        <v>192</v>
+      </c>
+      <c r="F246" t="n">
+        <v>87.4455</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-6643319.683779791</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>185</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>192</v>
+      </c>
+      <c r="C247" t="n">
+        <v>190</v>
+      </c>
+      <c r="D247" t="n">
+        <v>192</v>
+      </c>
+      <c r="E247" t="n">
+        <v>190</v>
+      </c>
+      <c r="F247" t="n">
+        <v>585.2218</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-6643904.905579791</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>185</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>189</v>
+      </c>
+      <c r="C248" t="n">
+        <v>189</v>
+      </c>
+      <c r="D248" t="n">
+        <v>189</v>
+      </c>
+      <c r="E248" t="n">
+        <v>189</v>
+      </c>
+      <c r="F248" t="n">
+        <v>142.4827</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-6644047.388279791</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>185</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>189</v>
+      </c>
+      <c r="C249" t="n">
+        <v>189</v>
+      </c>
+      <c r="D249" t="n">
+        <v>189</v>
+      </c>
+      <c r="E249" t="n">
+        <v>189</v>
+      </c>
+      <c r="F249" t="n">
+        <v>200</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-6644047.388279791</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>185</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>190</v>
+      </c>
+      <c r="C250" t="n">
+        <v>190</v>
+      </c>
+      <c r="D250" t="n">
+        <v>190</v>
+      </c>
+      <c r="E250" t="n">
+        <v>190</v>
+      </c>
+      <c r="F250" t="n">
+        <v>525.7140000000001</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-6643521.674279791</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>189</v>
+      </c>
+      <c r="K250" t="n">
+        <v>185</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>191</v>
+      </c>
+      <c r="C251" t="n">
+        <v>191</v>
+      </c>
+      <c r="D251" t="n">
+        <v>191</v>
+      </c>
+      <c r="E251" t="n">
+        <v>191</v>
+      </c>
+      <c r="F251" t="n">
+        <v>99</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-6643422.674279791</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>185</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>192</v>
+      </c>
+      <c r="C252" t="n">
+        <v>191</v>
+      </c>
+      <c r="D252" t="n">
+        <v>192</v>
+      </c>
+      <c r="E252" t="n">
+        <v>191</v>
+      </c>
+      <c r="F252" t="n">
+        <v>83.625</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-6643422.674279791</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>185</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>191</v>
+      </c>
+      <c r="C253" t="n">
+        <v>191</v>
+      </c>
+      <c r="D253" t="n">
+        <v>191</v>
+      </c>
+      <c r="E253" t="n">
+        <v>191</v>
+      </c>
+      <c r="F253" t="n">
+        <v>9.2302</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-6643422.674279791</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>185</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>191</v>
+      </c>
+      <c r="C254" t="n">
+        <v>191</v>
+      </c>
+      <c r="D254" t="n">
+        <v>191</v>
+      </c>
+      <c r="E254" t="n">
+        <v>191</v>
+      </c>
+      <c r="F254" t="n">
+        <v>3255.0025</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-6643422.674279791</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>185</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>191</v>
+      </c>
+      <c r="C255" t="n">
+        <v>191</v>
+      </c>
+      <c r="D255" t="n">
+        <v>191</v>
+      </c>
+      <c r="E255" t="n">
+        <v>191</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2364.9548</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-6643422.674279791</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>185</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>190</v>
+      </c>
+      <c r="C256" t="n">
+        <v>190</v>
+      </c>
+      <c r="D256" t="n">
+        <v>190</v>
+      </c>
+      <c r="E256" t="n">
+        <v>190</v>
+      </c>
+      <c r="F256" t="n">
+        <v>174.286</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-6643596.960279792</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>185</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>188</v>
+      </c>
+      <c r="C257" t="n">
+        <v>188</v>
+      </c>
+      <c r="D257" t="n">
+        <v>188</v>
+      </c>
+      <c r="E257" t="n">
+        <v>188</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1058.8888</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-6644655.849079791</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>185</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>191</v>
+      </c>
+      <c r="C258" t="n">
+        <v>192</v>
+      </c>
+      <c r="D258" t="n">
+        <v>192</v>
+      </c>
+      <c r="E258" t="n">
+        <v>191</v>
+      </c>
+      <c r="F258" t="n">
+        <v>6273.19421458</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-6638382.654865212</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>185</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>190</v>
+      </c>
+      <c r="C259" t="n">
+        <v>190</v>
+      </c>
+      <c r="D259" t="n">
+        <v>190</v>
+      </c>
+      <c r="E259" t="n">
+        <v>190</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1641.3526</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-6640024.007465212</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>185</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>188</v>
+      </c>
+      <c r="C260" t="n">
+        <v>190</v>
+      </c>
+      <c r="D260" t="n">
+        <v>190</v>
+      </c>
+      <c r="E260" t="n">
+        <v>188</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1497.7806</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-6640024.007465212</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>185</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>190</v>
+      </c>
+      <c r="C261" t="n">
+        <v>190</v>
+      </c>
+      <c r="D261" t="n">
+        <v>190</v>
+      </c>
+      <c r="E261" t="n">
+        <v>190</v>
+      </c>
+      <c r="F261" t="n">
+        <v>335.5086</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-6640024.007465212</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>185</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>188</v>
+      </c>
+      <c r="C262" t="n">
+        <v>188</v>
+      </c>
+      <c r="D262" t="n">
+        <v>188</v>
+      </c>
+      <c r="E262" t="n">
+        <v>188</v>
+      </c>
+      <c r="F262" t="n">
+        <v>617.9854</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-6640641.992865211</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>185</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>188</v>
+      </c>
+      <c r="C263" t="n">
+        <v>188</v>
+      </c>
+      <c r="D263" t="n">
+        <v>188</v>
+      </c>
+      <c r="E263" t="n">
+        <v>188</v>
+      </c>
+      <c r="F263" t="n">
+        <v>2</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-6640641.992865211</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>188</v>
+      </c>
+      <c r="K263" t="n">
+        <v>185</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>185</v>
+      </c>
+      <c r="C264" t="n">
+        <v>184</v>
+      </c>
+      <c r="D264" t="n">
+        <v>185</v>
+      </c>
+      <c r="E264" t="n">
+        <v>184</v>
+      </c>
+      <c r="F264" t="n">
+        <v>11350.0146</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-6651992.007465212</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>188</v>
+      </c>
+      <c r="K264" t="n">
+        <v>185</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>187</v>
+      </c>
+      <c r="C265" t="n">
+        <v>187</v>
+      </c>
+      <c r="D265" t="n">
+        <v>187</v>
+      </c>
+      <c r="E265" t="n">
+        <v>187</v>
+      </c>
+      <c r="F265" t="n">
         <v>15.957</v>
       </c>
-      <c r="G194" t="n">
-        <v>186.3333333333333</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="G265" t="n">
+        <v>-6651976.050465211</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>184</v>
+      </c>
+      <c r="K265" t="n">
+        <v>185</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-28 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-28 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N265"/>
+  <dimension ref="A1:M265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>1004342.3275</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>1004342.3275</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,22 +585,13 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>184</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -644,20 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -684,20 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -724,20 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -762,22 +715,15 @@
         <v>1004342.3275</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -802,22 +748,15 @@
         <v>1004342.3275</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -842,22 +781,15 @@
         <v>1429270.8099043</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -884,20 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -922,22 +847,15 @@
         <v>2005904.0351043</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -962,22 +880,15 @@
         <v>2005904.0351043</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1002,22 +913,19 @@
         <v>2005904.0351043</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="J16" t="n">
+        <v>187</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1044,20 +952,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>187</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1082,20 +989,23 @@
         <v>2005904.0351043</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>187</v>
+      </c>
+      <c r="J18" t="n">
+        <v>187</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
       </c>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1122,16 +1032,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1156,18 +1063,19 @@
         <v>2005904.0351043</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="J20" t="n">
+        <v>187</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1194,16 +1102,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>187</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1230,16 +1141,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>187</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1264,18 +1178,21 @@
         <v>-465779.4525956998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>187</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1302,16 +1219,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>187</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1338,16 +1258,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>187</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1374,16 +1297,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>187</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1410,16 +1336,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>187</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1446,16 +1375,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>187</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1482,16 +1414,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>187</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1518,16 +1453,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>187</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1554,16 +1492,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>187</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1590,16 +1531,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>187</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1626,16 +1570,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>187</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1662,16 +1609,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>187</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1698,16 +1648,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>187</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1734,16 +1687,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>187</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1768,18 +1724,23 @@
         <v>-3353200.098795699</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J37" t="n">
+        <v>187</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1806,16 +1767,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>187</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1842,16 +1806,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>187</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1878,16 +1845,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>187</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1912,18 +1882,23 @@
         <v>-5379142.552895699</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>182</v>
+      </c>
+      <c r="J41" t="n">
+        <v>187</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1950,16 +1925,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>187</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1986,16 +1964,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>187</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2022,16 +2003,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>187</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2058,16 +2042,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>187</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2094,16 +2081,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>187</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2130,16 +2120,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>187</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2166,16 +2159,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>187</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2202,16 +2198,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>187</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2238,16 +2237,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>187</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2274,16 +2276,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>187</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2310,16 +2315,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>187</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2346,16 +2354,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>187</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2382,16 +2393,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>187</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2418,16 +2432,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>187</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2454,16 +2471,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>187</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2490,16 +2510,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>187</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2526,16 +2549,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>187</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2562,16 +2588,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>187</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2598,16 +2627,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>187</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2634,16 +2666,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>187</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2670,16 +2705,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>187</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2706,16 +2744,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>187</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2742,16 +2783,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>187</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2778,16 +2822,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>187</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2814,16 +2861,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>187</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2850,16 +2900,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>187</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2886,16 +2939,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>187</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2922,16 +2978,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>187</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2958,16 +3017,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>187</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2994,16 +3056,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>187</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3030,16 +3095,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>187</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3066,16 +3134,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>187</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3102,16 +3173,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>187</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3138,16 +3212,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>187</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3174,16 +3251,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>187</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3210,16 +3290,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>187</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3246,16 +3329,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>187</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3282,16 +3368,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>187</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3318,16 +3407,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>187</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3354,16 +3446,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>187</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3390,16 +3485,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>187</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3426,16 +3524,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>187</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3462,16 +3563,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>187</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3498,16 +3602,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>187</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3534,16 +3641,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>187</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3570,16 +3680,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>187</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3606,16 +3719,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>187</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3642,16 +3758,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>187</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3678,16 +3797,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>187</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3714,16 +3836,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>187</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3750,16 +3875,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>187</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3786,16 +3914,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>187</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3822,16 +3953,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>187</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3858,16 +3992,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>187</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3894,16 +4031,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>187</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3930,16 +4070,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>187</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3966,16 +4109,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>187</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4002,16 +4148,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>187</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4038,16 +4187,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>187</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4074,16 +4226,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>187</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4110,16 +4265,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>187</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4146,16 +4304,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>187</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4182,16 +4343,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>187</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4218,16 +4382,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>187</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4254,16 +4421,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>187</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4290,16 +4460,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>187</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4326,16 +4499,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>187</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4362,16 +4538,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>187</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4398,16 +4577,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>187</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4434,16 +4616,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>187</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4470,16 +4655,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>187</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4506,16 +4694,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>187</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4542,16 +4733,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>187</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4578,16 +4772,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>187</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4614,16 +4811,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>187</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4650,16 +4850,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>187</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4686,16 +4889,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>187</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4722,16 +4928,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>187</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4758,16 +4967,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>187</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4794,16 +5006,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>187</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4830,16 +5045,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>187</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4866,16 +5084,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>187</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4902,16 +5123,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>187</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4938,16 +5162,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>187</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4974,16 +5201,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>187</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5010,16 +5240,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>187</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5046,16 +5279,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>187</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5082,16 +5318,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>187</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5118,16 +5357,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>187</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5154,16 +5396,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>187</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5190,16 +5435,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>187</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5226,16 +5474,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>187</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5262,16 +5513,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>187</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5298,16 +5552,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>187</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5334,16 +5591,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>187</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5370,16 +5630,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>187</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5406,16 +5669,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>187</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5442,16 +5708,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>187</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5478,16 +5747,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>187</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5514,16 +5786,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>187</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5550,16 +5825,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>187</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5586,16 +5864,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>187</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5622,16 +5903,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>187</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5658,16 +5942,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>187</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5694,16 +5981,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>187</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5730,16 +6020,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>187</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5766,16 +6059,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>187</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5802,16 +6098,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>187</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5838,16 +6137,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>187</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5874,16 +6176,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>187</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5908,18 +6213,23 @@
         <v>-6862704.866087179</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J152" t="n">
+        <v>187</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5946,16 +6256,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>187</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5982,16 +6295,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>187</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6018,16 +6334,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>187</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6054,16 +6373,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>187</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6090,16 +6412,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>187</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6126,16 +6451,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>187</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6162,16 +6490,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>187</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6198,16 +6529,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>187</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6234,16 +6568,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>187</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6270,16 +6607,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>187</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6304,18 +6644,23 @@
         <v>-6856307.32108718</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>185</v>
+      </c>
+      <c r="J163" t="n">
+        <v>187</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6342,16 +6687,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>187</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6378,16 +6726,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>187</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6414,16 +6765,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>187</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6450,16 +6804,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>187</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6486,16 +6843,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>187</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6522,16 +6882,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>187</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6556,22 +6919,23 @@
         <v>-6691492.06968718</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="J170" t="n">
-        <v>185</v>
-      </c>
-      <c r="K170" t="n">
-        <v>185</v>
-      </c>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6596,26 +6960,23 @@
         <v>-6692049.14638718</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J171" t="n">
-        <v>184</v>
-      </c>
-      <c r="K171" t="n">
-        <v>185</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6640,26 +7001,23 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="J172" t="n">
-        <v>183</v>
-      </c>
-      <c r="K172" t="n">
-        <v>185</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6684,26 +7042,23 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="J173" t="n">
-        <v>186</v>
-      </c>
-      <c r="K173" t="n">
-        <v>185</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6728,24 +7083,23 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>185</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>186</v>
+      </c>
+      <c r="J174" t="n">
+        <v>187</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6770,24 +7124,23 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>185</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>186</v>
+      </c>
+      <c r="J175" t="n">
+        <v>187</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6812,24 +7165,23 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>185</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>186</v>
+      </c>
+      <c r="J176" t="n">
+        <v>187</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6854,24 +7206,23 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>185</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+        <v>186</v>
+      </c>
+      <c r="J177" t="n">
+        <v>187</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6896,24 +7247,23 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>185</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>186</v>
+      </c>
+      <c r="J178" t="n">
+        <v>187</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6938,24 +7288,23 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>185</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+        <v>186</v>
+      </c>
+      <c r="J179" t="n">
+        <v>187</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6980,26 +7329,23 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="J180" t="n">
-        <v>186</v>
-      </c>
-      <c r="K180" t="n">
-        <v>185</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7024,26 +7370,23 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="J181" t="n">
-        <v>186</v>
-      </c>
-      <c r="K181" t="n">
-        <v>185</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7068,26 +7411,23 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="J182" t="n">
-        <v>186</v>
-      </c>
-      <c r="K182" t="n">
-        <v>185</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7112,26 +7452,21 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>186</v>
-      </c>
-      <c r="K183" t="n">
-        <v>185</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7156,26 +7491,21 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>186</v>
-      </c>
-      <c r="K184" t="n">
-        <v>185</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7200,26 +7530,21 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>186</v>
-      </c>
-      <c r="K185" t="n">
-        <v>185</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7244,26 +7569,21 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
         <v>187</v>
       </c>
-      <c r="K186" t="n">
-        <v>185</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7288,26 +7608,21 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
         <v>187</v>
       </c>
-      <c r="K187" t="n">
-        <v>185</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7332,26 +7647,21 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
         <v>187</v>
       </c>
-      <c r="K188" t="n">
-        <v>185</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7376,26 +7686,23 @@
         <v>-6675312.83458718</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="J189" t="n">
         <v>187</v>
       </c>
-      <c r="K189" t="n">
-        <v>185</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7420,26 +7727,21 @@
         <v>-6666837.04018718</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>188</v>
-      </c>
-      <c r="K190" t="n">
-        <v>185</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7464,26 +7766,21 @@
         <v>-6634851.47768299</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>190</v>
-      </c>
-      <c r="K191" t="n">
-        <v>185</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7508,24 +7805,21 @@
         <v>-6617541.77158299</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>185</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>187</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1.032433155080214</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7550,24 +7844,15 @@
         <v>-6617637.21058299</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>185</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7592,24 +7877,15 @@
         <v>-6619018.15208299</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>185</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7634,24 +7910,15 @@
         <v>-6619221.15208299</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>185</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7678,22 +7945,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>185</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7720,22 +7978,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>185</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7760,26 +8009,15 @@
         <v>-6627776.83608299</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>188</v>
-      </c>
-      <c r="K198" t="n">
-        <v>185</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7804,26 +8042,15 @@
         <v>-6627775.83608299</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>187</v>
-      </c>
-      <c r="K199" t="n">
-        <v>185</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7850,22 +8077,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>185</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7890,26 +8108,15 @@
         <v>-6627775.83608299</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
-        <v>189</v>
-      </c>
-      <c r="K201" t="n">
-        <v>185</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7934,26 +8141,15 @@
         <v>-6627775.83608299</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
-        <v>189</v>
-      </c>
-      <c r="K202" t="n">
-        <v>185</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7980,22 +8176,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>185</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8022,22 +8209,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>185</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8064,22 +8242,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>185</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8106,22 +8275,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>185</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8148,22 +8308,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>185</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8190,22 +8341,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>185</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8232,22 +8374,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>185</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8272,26 +8405,15 @@
         <v>-6629244.18868299</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>188</v>
-      </c>
-      <c r="K210" t="n">
-        <v>185</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8318,22 +8440,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>185</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8358,26 +8471,15 @@
         <v>-6633146.48458299</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="n">
-        <v>186</v>
-      </c>
-      <c r="K212" t="n">
-        <v>185</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8404,22 +8506,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>185</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8446,22 +8539,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>185</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8486,26 +8570,15 @@
         <v>-6646631.641282991</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
-        <v>188</v>
-      </c>
-      <c r="K215" t="n">
-        <v>185</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8532,24 +8605,13 @@
       <c r="H216" t="n">
         <v>1</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
-        <v>186</v>
-      </c>
-      <c r="K216" t="n">
-        <v>185</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8574,26 +8636,15 @@
         <v>-6646630.641282991</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="n">
-        <v>188</v>
-      </c>
-      <c r="K217" t="n">
-        <v>185</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8618,26 +8669,15 @@
         <v>-6646638.91828299</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>188</v>
-      </c>
-      <c r="K218" t="n">
-        <v>185</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8662,26 +8702,15 @@
         <v>-6646637.91828299</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>186</v>
-      </c>
-      <c r="K219" t="n">
-        <v>185</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8708,24 +8737,13 @@
       <c r="H220" t="n">
         <v>1</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
-        <v>188</v>
-      </c>
-      <c r="K220" t="n">
-        <v>185</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8752,22 +8770,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>185</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8792,26 +8801,15 @@
         <v>-6652305.68938299</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="n">
-        <v>188</v>
-      </c>
-      <c r="K222" t="n">
-        <v>185</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8836,26 +8834,15 @@
         <v>-6652305.68938299</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="n">
-        <v>186</v>
-      </c>
-      <c r="K223" t="n">
-        <v>185</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8882,24 +8869,13 @@
       <c r="H224" t="n">
         <v>1</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="n">
-        <v>186</v>
-      </c>
-      <c r="K224" t="n">
-        <v>185</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8926,24 +8902,13 @@
       <c r="H225" t="n">
         <v>1</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="n">
-        <v>189</v>
-      </c>
-      <c r="K225" t="n">
-        <v>185</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8968,26 +8933,15 @@
         <v>-6652294.68938299</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>189</v>
-      </c>
-      <c r="K226" t="n">
-        <v>185</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9014,22 +8968,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>185</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9054,24 +8999,15 @@
         <v>-6652294.68938299</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>185</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9098,22 +9034,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>185</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9140,22 +9067,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>185</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9182,22 +9100,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>185</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9224,22 +9133,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>185</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9266,22 +9166,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>185</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9308,22 +9199,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>185</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9350,22 +9232,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>185</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9392,22 +9265,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>185</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9434,22 +9298,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>185</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9474,24 +9329,15 @@
         <v>-6643274.39637979</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>185</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9516,24 +9362,15 @@
         <v>-6643424.39637979</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>185</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9560,22 +9397,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>185</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9602,22 +9430,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>185</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9644,22 +9463,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>185</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9686,22 +9496,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>185</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9728,22 +9529,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>185</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9770,22 +9562,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>185</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9812,22 +9595,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>185</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9854,22 +9628,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>185</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9896,22 +9661,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>185</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9938,22 +9694,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>185</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9978,26 +9725,15 @@
         <v>-6643521.674279791</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="n">
-        <v>189</v>
-      </c>
-      <c r="K250" t="n">
-        <v>185</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10024,22 +9760,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>185</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10066,22 +9793,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>185</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10108,22 +9826,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>185</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10150,22 +9859,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>185</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10192,22 +9892,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>185</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10234,22 +9925,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>185</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10276,22 +9958,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>185</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10318,22 +9991,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>185</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10360,22 +10024,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>185</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10402,22 +10057,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>185</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10444,22 +10090,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>185</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10486,22 +10123,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>185</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10526,26 +10154,15 @@
         <v>-6640641.992865211</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="n">
-        <v>188</v>
-      </c>
-      <c r="K263" t="n">
-        <v>185</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10570,26 +10187,15 @@
         <v>-6651992.007465212</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="n">
-        <v>188</v>
-      </c>
-      <c r="K264" t="n">
-        <v>185</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10614,28 +10220,17 @@
         <v>-6651976.050465211</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="n">
-        <v>184</v>
-      </c>
-      <c r="K265" t="n">
-        <v>185</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-28 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1004342.3275</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1004342.3275</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1004342.3275</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1004342.3275</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1004342.3275</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1004342.3275</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1004342.3275</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1429270.8099043</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1429270.8099043</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2005904.0351043</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1202904.6404043</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-465779.4525956998</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-465779.4525956998</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-3352372.6647957</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3352371.6647957</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3353200.098795699</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3353200.098795699</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-3353200.098795699</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-5367220.098795699</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-5379142.552895699</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-5379142.552895699</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-5379142.552895699</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-5379142.552895699</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-5379142.552895699</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-6863354.278787179</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5698,14 +5698,10 @@
         <v>-6862305.761587179</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>186</v>
-      </c>
-      <c r="J161" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
@@ -5735,19 +5731,11 @@
         <v>-6862371.486787179</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>186</v>
-      </c>
-      <c r="J162" t="n">
-        <v>186</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5781,9 +5769,7 @@
       <c r="I163" t="n">
         <v>185</v>
       </c>
-      <c r="J163" t="n">
-        <v>186</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -5822,9 +5808,7 @@
       <c r="I164" t="n">
         <v>186</v>
       </c>
-      <c r="J164" t="n">
-        <v>186</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5858,14 +5842,10 @@
         <v>-6856307.32108718</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>186</v>
-      </c>
-      <c r="J165" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5899,14 +5879,10 @@
         <v>-6856307.32108718</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>186</v>
-      </c>
-      <c r="J166" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5940,14 +5916,10 @@
         <v>-6856307.32108718</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>186</v>
-      </c>
-      <c r="J167" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5981,14 +5953,10 @@
         <v>-6686186.34608718</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>186</v>
-      </c>
-      <c r="J168" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6022,14 +5990,10 @@
         <v>-6691048.64638718</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>187</v>
-      </c>
-      <c r="J169" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6063,14 +6027,10 @@
         <v>-6691492.06968718</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>185</v>
-      </c>
-      <c r="J170" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6104,14 +6064,10 @@
         <v>-6692049.14638718</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>184</v>
-      </c>
-      <c r="J171" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6150,9 +6106,7 @@
       <c r="I172" t="n">
         <v>183</v>
       </c>
-      <c r="J172" t="n">
-        <v>186</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6186,14 +6140,10 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>186</v>
-      </c>
-      <c r="J173" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6227,14 +6177,10 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>186</v>
-      </c>
-      <c r="J174" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6268,14 +6214,10 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>186</v>
-      </c>
-      <c r="J175" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6309,14 +6251,10 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>186</v>
-      </c>
-      <c r="J176" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6350,14 +6288,10 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>186</v>
-      </c>
-      <c r="J177" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6391,14 +6325,10 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>186</v>
-      </c>
-      <c r="J178" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6432,14 +6362,10 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>186</v>
-      </c>
-      <c r="J179" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6473,14 +6399,10 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>186</v>
-      </c>
-      <c r="J180" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6514,14 +6436,10 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>186</v>
-      </c>
-      <c r="J181" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6555,14 +6473,10 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>186</v>
-      </c>
-      <c r="J182" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6596,14 +6510,10 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>186</v>
-      </c>
-      <c r="J183" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6637,14 +6547,10 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>186</v>
-      </c>
-      <c r="J184" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6678,14 +6584,10 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>186</v>
-      </c>
-      <c r="J185" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6719,14 +6621,10 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>187</v>
-      </c>
-      <c r="J186" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6760,14 +6658,10 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>187</v>
-      </c>
-      <c r="J187" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6801,14 +6695,10 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>187</v>
-      </c>
-      <c r="J188" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6842,14 +6732,10 @@
         <v>-6675312.83458718</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>187</v>
-      </c>
-      <c r="J189" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6883,14 +6769,10 @@
         <v>-6666837.04018718</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>188</v>
-      </c>
-      <c r="J190" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6927,9 +6809,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>186</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6966,9 +6846,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>186</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7005,9 +6883,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>186</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7044,9 +6920,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>186</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7083,9 +6957,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>186</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7119,12 +6991,12 @@
         <v>-6619776.83608299</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>186</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>189</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7161,9 +7033,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>186</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7200,9 +7070,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>186</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7239,9 +7107,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>186</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7278,9 +7144,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>186</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7317,9 +7181,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>186</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7356,9 +7218,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>186</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7395,9 +7255,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>186</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7434,9 +7292,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>186</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7473,9 +7329,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>186</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7512,9 +7366,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>186</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7551,9 +7403,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>186</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7590,9 +7440,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>186</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7629,9 +7477,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>186</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7668,9 +7514,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>186</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7707,9 +7551,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>186</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7746,9 +7588,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>186</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7785,9 +7625,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>186</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7824,9 +7662,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>186</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7863,9 +7699,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>186</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7899,14 +7733,10 @@
         <v>-6646630.641282991</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>186</v>
-      </c>
-      <c r="J216" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7943,9 +7773,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>186</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7982,9 +7810,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>186</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8018,14 +7844,10 @@
         <v>-6646637.91828299</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>186</v>
-      </c>
-      <c r="J219" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8062,9 +7884,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>186</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8101,9 +7921,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>186</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8140,9 +7958,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>186</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8179,9 +7995,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>186</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8215,14 +8029,10 @@
         <v>-6652303.68938299</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>186</v>
-      </c>
-      <c r="J224" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8259,9 +8069,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>186</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8298,9 +8106,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>186</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8337,9 +8143,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>186</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8376,9 +8180,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>186</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8415,9 +8217,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>186</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8454,9 +8254,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>186</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8493,9 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>186</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8532,9 +8328,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>186</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8571,9 +8365,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>186</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8610,9 +8402,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>186</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8649,9 +8439,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>186</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8688,9 +8476,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>186</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8727,9 +8513,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>186</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8766,9 +8550,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>186</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8805,9 +8587,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>186</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8844,9 +8624,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>186</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8883,9 +8661,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>186</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8922,9 +8698,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>186</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8958,19 +8732,17 @@
         <v>-6643235.08277979</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>186</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L243" t="n">
-        <v>1.027258064516129</v>
+        <v>1</v>
       </c>
       <c r="M243" t="inlineStr"/>
     </row>
@@ -9001,7 +8773,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9034,7 +8810,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9067,7 +8847,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9100,7 +8884,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9133,7 +8921,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9166,7 +8958,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9199,7 +8995,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9232,7 +9032,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9265,7 +9069,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9298,7 +9106,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9331,7 +9143,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9364,7 +9180,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9397,7 +9217,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9430,7 +9254,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9463,7 +9291,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9496,7 +9328,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9529,7 +9365,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9562,7 +9402,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9595,7 +9439,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9628,7 +9476,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9661,7 +9513,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9694,13 +9550,17 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
       <c r="M265" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-28 BackTest STEEM.xlsx
@@ -517,7 +517,7 @@
         <v>1004342.3275</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1004342.3275</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1004342.3275</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2005904.0351043</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2005904.0351043</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2005904.0351043</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2005904.0351043</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-465779.4525956998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-465779.4525956998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-465779.4525956998</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-465779.4525956998</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-465779.4525956998</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1392179.4525957</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1392179.4525957</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-3352917.624795699</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-6863354.278787179</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5665,11 +5665,17 @@
         <v>-6862305.761587179</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>185</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5704,17 @@
         <v>-6862305.761587179</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>186</v>
+      </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5743,17 @@
         <v>-6862371.486787179</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>186</v>
+      </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5772,7 +5790,7 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L163" t="n">
@@ -5842,9 +5860,11 @@
         <v>-6856307.32108718</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>186</v>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -5879,9 +5899,11 @@
         <v>-6856307.32108718</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>186</v>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -5916,9 +5938,11 @@
         <v>-6856307.32108718</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>186</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -5953,9 +5977,11 @@
         <v>-6686186.34608718</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>186</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -5990,9 +6016,11 @@
         <v>-6691048.64638718</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>187</v>
+      </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6027,9 +6055,11 @@
         <v>-6691492.06968718</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>185</v>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6064,9 +6094,11 @@
         <v>-6692049.14638718</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>184</v>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6140,9 +6172,11 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>186</v>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6177,9 +6211,11 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>186</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6214,9 +6250,11 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>186</v>
+      </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6251,9 +6289,11 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>186</v>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6288,9 +6328,11 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>186</v>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6325,9 +6367,11 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>186</v>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -6362,9 +6406,11 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>186</v>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -6399,9 +6445,11 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>186</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6436,9 +6484,11 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>186</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6473,9 +6523,11 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>186</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -6510,9 +6562,11 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>186</v>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -6547,9 +6601,11 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>186</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -6584,9 +6640,11 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>186</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -6621,9 +6679,11 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>187</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -6658,9 +6718,11 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>187</v>
+      </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -6695,9 +6757,11 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>187</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -6732,9 +6796,11 @@
         <v>-6675312.83458718</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>187</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -6769,9 +6835,11 @@
         <v>-6666837.04018718</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>188</v>
+      </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -6806,9 +6874,11 @@
         <v>-6634851.47768299</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>190</v>
+      </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -6843,18 +6913,16 @@
         <v>-6617541.77158299</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
@@ -6880,13 +6948,15 @@
         <v>-6617637.21058299</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>190</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L193" t="n">
@@ -6917,15 +6987,11 @@
         <v>-6619018.15208299</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6954,15 +7020,11 @@
         <v>-6619221.15208299</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6991,17 +7053,11 @@
         <v>-6619776.83608299</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>189</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7034,11 +7090,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7071,11 +7123,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7108,11 +7156,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7145,11 +7189,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7178,15 +7218,15 @@
         <v>-6627775.83608299</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>189</v>
+      </c>
+      <c r="J201" t="n">
+        <v>189</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7215,13 +7255,17 @@
         <v>-6627775.83608299</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>189</v>
+      </c>
+      <c r="J202" t="n">
+        <v>189</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L202" t="n">
@@ -7252,13 +7296,17 @@
         <v>-6623863.86738299</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>189</v>
+      </c>
+      <c r="J203" t="n">
+        <v>189</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7289,10 +7337,14 @@
         <v>-6623863.86738299</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>191</v>
+      </c>
+      <c r="J204" t="n">
+        <v>189</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7326,10 +7378,12 @@
         <v>-6623863.86738299</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>189</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7363,10 +7417,12 @@
         <v>-6623863.86738299</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>189</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7400,10 +7456,12 @@
         <v>-6629246.35798299</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>189</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7437,10 +7495,14 @@
         <v>-6629246.35798299</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>188</v>
+      </c>
+      <c r="J208" t="n">
+        <v>189</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7474,10 +7536,14 @@
         <v>-6629246.35798299</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>188</v>
+      </c>
+      <c r="J209" t="n">
+        <v>189</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7511,10 +7577,14 @@
         <v>-6629244.18868299</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>188</v>
+      </c>
+      <c r="J210" t="n">
+        <v>189</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7548,10 +7618,14 @@
         <v>-6633147.48458299</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>189</v>
+      </c>
+      <c r="J211" t="n">
+        <v>189</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7585,10 +7659,14 @@
         <v>-6633146.48458299</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>186</v>
+      </c>
+      <c r="J212" t="n">
+        <v>189</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7622,10 +7700,14 @@
         <v>-6633146.48458299</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>189</v>
+      </c>
+      <c r="J213" t="n">
+        <v>189</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7659,10 +7741,14 @@
         <v>-6633582.56368299</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>189</v>
+      </c>
+      <c r="J214" t="n">
+        <v>189</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7696,10 +7782,14 @@
         <v>-6646631.641282991</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>188</v>
+      </c>
+      <c r="J215" t="n">
+        <v>189</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7733,10 +7823,14 @@
         <v>-6646630.641282991</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>186</v>
+      </c>
+      <c r="J216" t="n">
+        <v>189</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7770,10 +7864,14 @@
         <v>-6646630.641282991</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>188</v>
+      </c>
+      <c r="J217" t="n">
+        <v>189</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7807,10 +7905,14 @@
         <v>-6646638.91828299</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>188</v>
+      </c>
+      <c r="J218" t="n">
+        <v>189</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7844,10 +7946,14 @@
         <v>-6646637.91828299</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>186</v>
+      </c>
+      <c r="J219" t="n">
+        <v>189</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7881,10 +7987,14 @@
         <v>-6646637.91828299</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>188</v>
+      </c>
+      <c r="J220" t="n">
+        <v>189</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7918,10 +8028,14 @@
         <v>-6646637.91828299</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>188</v>
+      </c>
+      <c r="J221" t="n">
+        <v>189</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7955,10 +8069,14 @@
         <v>-6652305.68938299</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>188</v>
+      </c>
+      <c r="J222" t="n">
+        <v>189</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7992,10 +8110,14 @@
         <v>-6652305.68938299</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>186</v>
+      </c>
+      <c r="J223" t="n">
+        <v>189</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8029,10 +8151,14 @@
         <v>-6652303.68938299</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>186</v>
+      </c>
+      <c r="J224" t="n">
+        <v>189</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8066,10 +8192,14 @@
         <v>-6652303.68938299</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>189</v>
+      </c>
+      <c r="J225" t="n">
+        <v>189</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8103,10 +8233,14 @@
         <v>-6652294.68938299</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>189</v>
+      </c>
+      <c r="J226" t="n">
+        <v>189</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8140,17 +8274,19 @@
         <v>-6652294.68938299</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>189</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L227" t="n">
-        <v>1</v>
+        <v>1.000291005291005</v>
       </c>
       <c r="M227" t="inlineStr"/>
     </row>
@@ -8177,15 +8313,11 @@
         <v>-6652294.68938299</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8214,15 +8346,11 @@
         <v>-6647048.72079661</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8251,15 +8379,11 @@
         <v>-6647048.72079661</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8288,15 +8412,11 @@
         <v>-6647047.72079661</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8325,15 +8445,11 @@
         <v>-6647047.72079661</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8362,15 +8478,11 @@
         <v>-6645909.96321105</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8399,15 +8511,11 @@
         <v>-6646059.96321105</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8436,15 +8544,11 @@
         <v>-6646561.16491105</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8473,15 +8577,11 @@
         <v>-6646495.89507772</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8510,15 +8610,11 @@
         <v>-6640755.74357979</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8547,15 +8643,11 @@
         <v>-6643274.39637979</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8584,15 +8676,11 @@
         <v>-6643424.39637979</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8621,15 +8709,11 @@
         <v>-6641945.60877979</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8658,15 +8742,11 @@
         <v>-6641235.08277979</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8695,15 +8775,11 @@
         <v>-6641235.08277979</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8732,15 +8808,11 @@
         <v>-6643235.08277979</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8769,15 +8841,11 @@
         <v>-6643232.238279791</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8806,15 +8874,11 @@
         <v>-6643232.238279791</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8843,15 +8907,11 @@
         <v>-6643319.683779791</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8880,15 +8940,11 @@
         <v>-6643904.905579791</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8917,15 +8973,11 @@
         <v>-6644047.388279791</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8958,11 +9010,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8991,15 +9039,15 @@
         <v>-6643521.674279791</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>189</v>
+      </c>
+      <c r="J250" t="n">
+        <v>189</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9031,10 +9079,12 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>189</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L251" t="n">
@@ -9065,13 +9115,15 @@
         <v>-6643422.674279791</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>189</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L252" t="n">
@@ -9102,15 +9154,11 @@
         <v>-6643422.674279791</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9139,15 +9187,11 @@
         <v>-6643422.674279791</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9176,15 +9220,11 @@
         <v>-6643422.674279791</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9213,15 +9253,11 @@
         <v>-6643596.960279792</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9254,11 +9290,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9287,15 +9319,15 @@
         <v>-6638382.654865212</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>188</v>
+      </c>
+      <c r="J258" t="n">
+        <v>188</v>
+      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9324,13 +9356,15 @@
         <v>-6640024.007465212</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>188</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L259" t="n">
@@ -9361,13 +9395,15 @@
         <v>-6640024.007465212</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>188</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L260" t="n">
@@ -9398,10 +9434,14 @@
         <v>-6640024.007465212</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>190</v>
+      </c>
+      <c r="J261" t="n">
+        <v>188</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9435,10 +9475,14 @@
         <v>-6640641.992865211</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>190</v>
+      </c>
+      <c r="J262" t="n">
+        <v>188</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9475,7 +9519,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>188</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9509,10 +9555,14 @@
         <v>-6651992.007465212</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>188</v>
+      </c>
+      <c r="J264" t="n">
+        <v>188</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9546,10 +9596,14 @@
         <v>-6651976.050465211</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>184</v>
+      </c>
+      <c r="J265" t="n">
+        <v>188</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-28 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-28 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M265"/>
+  <dimension ref="A1:L265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2213500</v>
       </c>
       <c r="G2" t="n">
-        <v>1004342.3275</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2232500</v>
       </c>
       <c r="G3" t="n">
-        <v>1004342.3275</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,19 @@
         <v>2242000</v>
       </c>
       <c r="G4" t="n">
-        <v>1004342.3275</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I4" t="n">
+        <v>184</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +537,23 @@
         <v>679289.2544</v>
       </c>
       <c r="G5" t="n">
-        <v>1004342.3275</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I5" t="n">
+        <v>184</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +575,23 @@
         <v>1425228.9229</v>
       </c>
       <c r="G6" t="n">
-        <v>1004342.3275</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I6" t="n">
+        <v>184</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +613,21 @@
         <v>2309500</v>
       </c>
       <c r="G7" t="n">
-        <v>1004342.3275</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>184</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +649,23 @@
         <v>2360500</v>
       </c>
       <c r="G8" t="n">
-        <v>1004342.3275</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I8" t="n">
+        <v>184</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +687,21 @@
         <v>2390000</v>
       </c>
       <c r="G9" t="n">
-        <v>1004342.3275</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>184</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +723,23 @@
         <v>2409500</v>
       </c>
       <c r="G10" t="n">
-        <v>1004342.3275</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I10" t="n">
+        <v>184</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +761,23 @@
         <v>2400500</v>
       </c>
       <c r="G11" t="n">
-        <v>1004342.3275</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I11" t="n">
+        <v>184</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +799,23 @@
         <v>424928.4824043</v>
       </c>
       <c r="G12" t="n">
-        <v>1429270.8099043</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I12" t="n">
+        <v>184</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +837,23 @@
         <v>1281000</v>
       </c>
       <c r="G13" t="n">
-        <v>1429270.8099043</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>186</v>
+      </c>
+      <c r="I13" t="n">
+        <v>184</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +875,23 @@
         <v>576633.2252</v>
       </c>
       <c r="G14" t="n">
-        <v>2005904.0351043</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>186</v>
+      </c>
+      <c r="I14" t="n">
+        <v>184</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +913,23 @@
         <v>1362650.0214</v>
       </c>
       <c r="G15" t="n">
-        <v>2005904.0351043</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="I15" t="n">
+        <v>184</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +951,21 @@
         <v>1604137.9786</v>
       </c>
       <c r="G16" t="n">
-        <v>2005904.0351043</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>184</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +987,21 @@
         <v>424962.3967</v>
       </c>
       <c r="G17" t="n">
-        <v>2005904.0351043</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>184</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1023,21 @@
         <v>968000</v>
       </c>
       <c r="G18" t="n">
-        <v>2005904.0351043</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>184</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1059,21 @@
         <v>976000</v>
       </c>
       <c r="G19" t="n">
-        <v>2005904.0351043</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>184</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1095,21 @@
         <v>956000</v>
       </c>
       <c r="G20" t="n">
-        <v>2005904.0351043</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>184</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1131,21 @@
         <v>802999.3946999999</v>
       </c>
       <c r="G21" t="n">
-        <v>1202904.6404043</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>184</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1167,21 @@
         <v>1668684.093</v>
       </c>
       <c r="G22" t="n">
-        <v>-465779.4525956998</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>184</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1203,21 @@
         <v>2544427.8541</v>
       </c>
       <c r="G23" t="n">
-        <v>-465779.4525956998</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>184</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1239,23 @@
         <v>2481982.2709</v>
       </c>
       <c r="G24" t="n">
-        <v>-465779.4525956998</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>185</v>
+      </c>
+      <c r="I24" t="n">
+        <v>184</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1277,23 @@
         <v>2578603.79273246</v>
       </c>
       <c r="G25" t="n">
-        <v>-465779.4525956998</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>185</v>
+      </c>
+      <c r="I25" t="n">
+        <v>184</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1315,23 @@
         <v>2472000</v>
       </c>
       <c r="G26" t="n">
-        <v>-465779.4525956998</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>185</v>
+      </c>
+      <c r="I26" t="n">
+        <v>184</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1353,21 @@
         <v>2493934.393</v>
       </c>
       <c r="G27" t="n">
-        <v>-465779.4525956998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>184</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1389,21 @@
         <v>2410200</v>
       </c>
       <c r="G28" t="n">
-        <v>-465779.4525956998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>184</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1425,21 @@
         <v>422589.9902</v>
       </c>
       <c r="G29" t="n">
-        <v>-465779.4525956998</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>184</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1461,21 @@
         <v>926400</v>
       </c>
       <c r="G30" t="n">
-        <v>-1392179.4525957</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>184</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1497,21 @@
         <v>1359601</v>
       </c>
       <c r="G31" t="n">
-        <v>-1392179.4525957</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>184</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1533,21 @@
         <v>1960738.1722</v>
       </c>
       <c r="G32" t="n">
-        <v>-3352917.624795699</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>184</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1569,21 @@
         <v>544.96</v>
       </c>
       <c r="G33" t="n">
-        <v>-3352372.6647957</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>184</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1605,23 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>-3352371.6647957</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I34" t="n">
+        <v>184</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1643,21 @@
         <v>828.434</v>
       </c>
       <c r="G35" t="n">
-        <v>-3353200.098795699</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>184</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1679,21 @@
         <v>932753</v>
       </c>
       <c r="G36" t="n">
-        <v>-3353200.098795699</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>184</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1715,21 @@
         <v>163472</v>
       </c>
       <c r="G37" t="n">
-        <v>-3353200.098795699</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>184</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1751,21 @@
         <v>2014020</v>
       </c>
       <c r="G38" t="n">
-        <v>-5367220.098795699</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>184</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1787,21 @@
         <v>11922.4541</v>
       </c>
       <c r="G39" t="n">
-        <v>-5379142.552895699</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>184</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1823,21 @@
         <v>1619199.5163</v>
       </c>
       <c r="G40" t="n">
-        <v>-5379142.552895699</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>184</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1859,23 @@
         <v>1837417.6226</v>
       </c>
       <c r="G41" t="n">
-        <v>-5379142.552895699</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>182</v>
+      </c>
+      <c r="I41" t="n">
+        <v>184</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1897,23 @@
         <v>1836294.5494</v>
       </c>
       <c r="G42" t="n">
-        <v>-5379142.552895699</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>182</v>
+      </c>
+      <c r="I42" t="n">
+        <v>184</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1935,23 @@
         <v>911820</v>
       </c>
       <c r="G43" t="n">
-        <v>-5379142.552895699</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>182</v>
+      </c>
+      <c r="I43" t="n">
+        <v>184</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1973,23 @@
         <v>1624461.53230434</v>
       </c>
       <c r="G44" t="n">
-        <v>-5379142.552895699</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>182</v>
+      </c>
+      <c r="I44" t="n">
+        <v>184</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +2011,23 @@
         <v>2484960</v>
       </c>
       <c r="G45" t="n">
-        <v>-5379142.552895699</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>182</v>
+      </c>
+      <c r="I45" t="n">
+        <v>184</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +2049,23 @@
         <v>2535061</v>
       </c>
       <c r="G46" t="n">
-        <v>-5379142.552895699</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>182</v>
+      </c>
+      <c r="I46" t="n">
+        <v>184</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2087,23 @@
         <v>2515020</v>
       </c>
       <c r="G47" t="n">
-        <v>-5379142.552895699</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>182</v>
+      </c>
+      <c r="I47" t="n">
+        <v>184</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2125,23 @@
         <v>2525468.415</v>
       </c>
       <c r="G48" t="n">
-        <v>-5379142.552895699</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>182</v>
+      </c>
+      <c r="I48" t="n">
+        <v>184</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2163,23 @@
         <v>2394780</v>
       </c>
       <c r="G49" t="n">
-        <v>-5379142.552895699</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>182</v>
+      </c>
+      <c r="I49" t="n">
+        <v>184</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2201,23 @@
         <v>330661</v>
       </c>
       <c r="G50" t="n">
-        <v>-5048481.552895699</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>182</v>
+      </c>
+      <c r="I50" t="n">
+        <v>184</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2239,23 @@
         <v>2545080</v>
       </c>
       <c r="G51" t="n">
-        <v>-5048481.552895699</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I51" t="n">
+        <v>184</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2277,23 @@
         <v>2515020</v>
       </c>
       <c r="G52" t="n">
-        <v>-5048481.552895699</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I52" t="n">
+        <v>184</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2315,23 @@
         <v>2525040</v>
       </c>
       <c r="G53" t="n">
-        <v>-5048481.552895699</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I53" t="n">
+        <v>184</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2353,23 @@
         <v>721440</v>
       </c>
       <c r="G54" t="n">
-        <v>-5048481.552895699</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I54" t="n">
+        <v>184</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2391,23 @@
         <v>1893780</v>
       </c>
       <c r="G55" t="n">
-        <v>-3154701.552895699</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I55" t="n">
+        <v>184</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2429,23 @@
         <v>2535060</v>
       </c>
       <c r="G56" t="n">
-        <v>-3154701.552895699</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I56" t="n">
+        <v>184</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2467,23 @@
         <v>2555181.08108108</v>
       </c>
       <c r="G57" t="n">
-        <v>-3154701.552895699</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I57" t="n">
+        <v>184</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2505,21 @@
         <v>1781808</v>
       </c>
       <c r="G58" t="n">
-        <v>-4936509.552895699</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>184</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2541,21 @@
         <v>2239056</v>
       </c>
       <c r="G59" t="n">
-        <v>-4936509.552895699</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>184</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2577,23 @@
         <v>37627.7744</v>
       </c>
       <c r="G60" t="n">
-        <v>-4936509.552895699</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I60" t="n">
+        <v>184</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2615,23 @@
         <v>2113636</v>
       </c>
       <c r="G61" t="n">
-        <v>-4936509.552895699</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I61" t="n">
+        <v>184</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2653,23 @@
         <v>2686296</v>
       </c>
       <c r="G62" t="n">
-        <v>-4936509.552895699</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I62" t="n">
+        <v>184</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2691,23 @@
         <v>2655073.7975</v>
       </c>
       <c r="G63" t="n">
-        <v>-4936509.552895699</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I63" t="n">
+        <v>184</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2729,21 @@
         <v>2623810.2025</v>
       </c>
       <c r="G64" t="n">
-        <v>-4936509.552895699</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>184</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2765,21 @@
         <v>2644648</v>
       </c>
       <c r="G65" t="n">
-        <v>-4936509.552895699</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>184</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2801,21 @@
         <v>2644648</v>
       </c>
       <c r="G66" t="n">
-        <v>-4936509.552895699</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>184</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2837,21 @@
         <v>1207792</v>
       </c>
       <c r="G67" t="n">
-        <v>-4936509.552895699</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>184</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2873,23 @@
         <v>10413</v>
       </c>
       <c r="G68" t="n">
-        <v>-4926096.552895699</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I68" t="n">
+        <v>184</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2911,21 @@
         <v>1302589</v>
       </c>
       <c r="G69" t="n">
-        <v>-3623507.552895699</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>184</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2947,21 @@
         <v>26089.0513</v>
       </c>
       <c r="G70" t="n">
-        <v>-3623507.552895699</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>184</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2983,21 @@
         <v>2284698</v>
       </c>
       <c r="G71" t="n">
-        <v>-5908205.552895699</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>184</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +3019,21 @@
         <v>2646535</v>
       </c>
       <c r="G72" t="n">
-        <v>-5908205.552895699</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>184</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +3055,21 @@
         <v>2357064</v>
       </c>
       <c r="G73" t="n">
-        <v>-8265269.552895699</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>184</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +3091,21 @@
         <v>2625852</v>
       </c>
       <c r="G74" t="n">
-        <v>-8265269.552895699</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>184</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +3127,23 @@
         <v>2660540.29</v>
       </c>
       <c r="G75" t="n">
-        <v>-8265269.552895699</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I75" t="n">
+        <v>184</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +3165,21 @@
         <v>2625852</v>
       </c>
       <c r="G76" t="n">
-        <v>-8265269.552895699</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>184</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +3201,21 @@
         <v>2646528</v>
       </c>
       <c r="G77" t="n">
-        <v>-8265269.552895699</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>184</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3237,21 @@
         <v>2656866</v>
       </c>
       <c r="G78" t="n">
-        <v>-8265269.552895699</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>184</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3273,21 @@
         <v>2667540.334</v>
       </c>
       <c r="G79" t="n">
-        <v>-8265269.552895699</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>184</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3309,21 @@
         <v>2615514</v>
       </c>
       <c r="G80" t="n">
-        <v>-8265269.552895699</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>184</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3345,21 @@
         <v>2656866</v>
       </c>
       <c r="G81" t="n">
-        <v>-8265269.552895699</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>184</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3381,21 @@
         <v>2667204</v>
       </c>
       <c r="G82" t="n">
-        <v>-8265269.552895699</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>184</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3417,21 @@
         <v>2625852</v>
       </c>
       <c r="G83" t="n">
-        <v>-8265269.552895699</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>184</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3453,23 @@
         <v>2605176</v>
       </c>
       <c r="G84" t="n">
-        <v>-8265269.552895699</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I84" t="n">
+        <v>184</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3491,23 @@
         <v>2653968.4373</v>
       </c>
       <c r="G85" t="n">
-        <v>-8265269.552895699</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I85" t="n">
+        <v>184</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3529,23 @@
         <v>2687880</v>
       </c>
       <c r="G86" t="n">
-        <v>-8265269.552895699</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I86" t="n">
+        <v>184</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3567,23 @@
         <v>2708579</v>
       </c>
       <c r="G87" t="n">
-        <v>-8265269.552895699</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I87" t="n">
+        <v>184</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3605,23 @@
         <v>2636190</v>
       </c>
       <c r="G88" t="n">
-        <v>-8265269.552895699</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I88" t="n">
+        <v>184</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3643,23 @@
         <v>2594838</v>
       </c>
       <c r="G89" t="n">
-        <v>-8265269.552895699</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I89" t="n">
+        <v>184</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3681,23 @@
         <v>2669764.0713</v>
       </c>
       <c r="G90" t="n">
-        <v>-8265269.552895699</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I90" t="n">
+        <v>184</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3719,23 @@
         <v>2678725.8014</v>
       </c>
       <c r="G91" t="n">
-        <v>-8265269.552895699</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I91" t="n">
+        <v>184</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3757,23 @@
         <v>2708556</v>
       </c>
       <c r="G92" t="n">
-        <v>-8265269.552895699</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I92" t="n">
+        <v>184</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3795,23 @@
         <v>2667204</v>
       </c>
       <c r="G93" t="n">
-        <v>-8265269.552895699</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I93" t="n">
+        <v>184</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3833,23 @@
         <v>1323264</v>
       </c>
       <c r="G94" t="n">
-        <v>-8265269.552895699</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I94" t="n">
+        <v>184</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3871,23 @@
         <v>1665358.4827</v>
       </c>
       <c r="G95" t="n">
-        <v>-8265269.552895699</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I95" t="n">
+        <v>184</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3909,23 @@
         <v>2592408.47</v>
       </c>
       <c r="G96" t="n">
-        <v>-8265269.552895699</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I96" t="n">
+        <v>184</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3947,23 @@
         <v>302001.6687</v>
       </c>
       <c r="G97" t="n">
-        <v>-8265269.552895699</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I97" t="n">
+        <v>184</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3985,23 @@
         <v>2610657.5268</v>
       </c>
       <c r="G98" t="n">
-        <v>-8265269.552895699</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I98" t="n">
+        <v>184</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +4023,23 @@
         <v>2580000</v>
       </c>
       <c r="G99" t="n">
-        <v>-8265269.552895699</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I99" t="n">
+        <v>184</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +4061,23 @@
         <v>2600000</v>
       </c>
       <c r="G100" t="n">
-        <v>-8265269.552895699</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I100" t="n">
+        <v>184</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +4099,23 @@
         <v>1549341.4691</v>
       </c>
       <c r="G101" t="n">
-        <v>-8265269.552895699</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I101" t="n">
+        <v>184</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +4137,23 @@
         <v>691800</v>
       </c>
       <c r="G102" t="n">
-        <v>-7573469.552895699</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I102" t="n">
+        <v>184</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +4175,23 @@
         <v>2601000</v>
       </c>
       <c r="G103" t="n">
-        <v>-7573469.552895699</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I103" t="n">
+        <v>184</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +4213,23 @@
         <v>2631600</v>
       </c>
       <c r="G104" t="n">
-        <v>-7573469.552895699</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I104" t="n">
+        <v>184</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +4251,23 @@
         <v>2611200</v>
       </c>
       <c r="G105" t="n">
-        <v>-7573469.552895699</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I105" t="n">
+        <v>184</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +4289,23 @@
         <v>2601000</v>
       </c>
       <c r="G106" t="n">
-        <v>-7573469.552895699</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I106" t="n">
+        <v>184</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +4327,23 @@
         <v>2366400</v>
       </c>
       <c r="G107" t="n">
-        <v>-7573469.552895699</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I107" t="n">
+        <v>184</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4365,23 @@
         <v>22602.52529523</v>
       </c>
       <c r="G108" t="n">
-        <v>-7573469.552895699</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I108" t="n">
+        <v>184</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4403,23 @@
         <v>739000</v>
       </c>
       <c r="G109" t="n">
-        <v>-6834469.552895699</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I109" t="n">
+        <v>184</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4441,23 @@
         <v>193382.1061</v>
       </c>
       <c r="G110" t="n">
-        <v>-7027851.658995699</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>185</v>
+      </c>
+      <c r="I110" t="n">
+        <v>184</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4479,23 @@
         <v>10000</v>
       </c>
       <c r="G111" t="n">
-        <v>-7027851.658995699</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I111" t="n">
+        <v>184</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4517,23 @@
         <v>91.97839999999999</v>
       </c>
       <c r="G112" t="n">
-        <v>-7027851.658995699</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I112" t="n">
+        <v>184</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4555,23 @@
         <v>1362.5351</v>
       </c>
       <c r="G113" t="n">
-        <v>-7026489.123895699</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I113" t="n">
+        <v>184</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4593,21 @@
         <v>664.64</v>
       </c>
       <c r="G114" t="n">
-        <v>-7027153.763895699</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>184</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4629,21 @@
         <v>744.1034</v>
       </c>
       <c r="G115" t="n">
-        <v>-7027897.867295699</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>184</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4665,21 @@
         <v>2966.3603</v>
       </c>
       <c r="G116" t="n">
-        <v>-7027897.867295699</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>184</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4701,23 @@
         <v>289.5372</v>
       </c>
       <c r="G117" t="n">
-        <v>-7027608.330095699</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>180</v>
+      </c>
+      <c r="I117" t="n">
+        <v>184</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4739,23 @@
         <v>29506.6491</v>
       </c>
       <c r="G118" t="n">
-        <v>-6998101.680995699</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>181</v>
+      </c>
+      <c r="I118" t="n">
+        <v>184</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4777,23 @@
         <v>295000</v>
       </c>
       <c r="G119" t="n">
-        <v>-6998101.680995699</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I119" t="n">
+        <v>184</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4815,23 @@
         <v>314267.8273</v>
       </c>
       <c r="G120" t="n">
-        <v>-6998101.680995699</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I120" t="n">
+        <v>184</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4853,21 @@
         <v>131823.9512</v>
       </c>
       <c r="G121" t="n">
-        <v>-6866277.729795699</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>184</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4889,21 @@
         <v>842234.4441</v>
       </c>
       <c r="G122" t="n">
-        <v>-6866277.729795699</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>184</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4925,21 @@
         <v>1255352.5559</v>
       </c>
       <c r="G123" t="n">
-        <v>-6866277.729795699</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>184</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4961,21 @@
         <v>1131322.3043</v>
       </c>
       <c r="G124" t="n">
-        <v>-6866277.729795699</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>184</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4997,21 @@
         <v>1061703</v>
       </c>
       <c r="G125" t="n">
-        <v>-6866277.729795699</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>184</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +5033,23 @@
         <v>1611831.1398</v>
       </c>
       <c r="G126" t="n">
-        <v>-6866277.729795699</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I126" t="n">
+        <v>184</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +5071,23 @@
         <v>1195167.5862</v>
       </c>
       <c r="G127" t="n">
-        <v>-6866277.729795699</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I127" t="n">
+        <v>184</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +5109,21 @@
         <v>552500</v>
       </c>
       <c r="G128" t="n">
-        <v>-6866277.729795699</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>184</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +5145,21 @@
         <v>1301333.07389148</v>
       </c>
       <c r="G129" t="n">
-        <v>-6866277.729795699</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>184</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +5181,21 @@
         <v>1306500</v>
       </c>
       <c r="G130" t="n">
-        <v>-6866277.729795699</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>184</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +5217,21 @@
         <v>526500</v>
       </c>
       <c r="G131" t="n">
-        <v>-6866277.729795699</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>184</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +5253,21 @@
         <v>715.135</v>
       </c>
       <c r="G132" t="n">
-        <v>-6866277.729795699</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>184</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +5289,21 @@
         <v>400</v>
       </c>
       <c r="G133" t="n">
-        <v>-6866677.729795699</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>184</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +5325,23 @@
         <v>345.7978</v>
       </c>
       <c r="G134" t="n">
-        <v>-6866331.931995699</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>181</v>
+      </c>
+      <c r="I134" t="n">
+        <v>184</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +5363,23 @@
         <v>301.4399</v>
       </c>
       <c r="G135" t="n">
-        <v>-6866331.931995699</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I135" t="n">
+        <v>184</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +5401,21 @@
         <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>-6866341.931995699</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>184</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +5437,21 @@
         <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>-6866340.931995699</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>184</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +5473,21 @@
         <v>2020.0706</v>
       </c>
       <c r="G138" t="n">
-        <v>-6866340.931995699</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>184</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +5509,21 @@
         <v>433.9274</v>
       </c>
       <c r="G139" t="n">
-        <v>-6866340.931995699</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>184</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +5545,21 @@
         <v>1586.1432</v>
       </c>
       <c r="G140" t="n">
-        <v>-6866340.931995699</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>184</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +5581,21 @@
         <v>580</v>
       </c>
       <c r="G141" t="n">
-        <v>-6865760.931995699</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>184</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +5617,21 @@
         <v>430.337</v>
       </c>
       <c r="G142" t="n">
-        <v>-6865760.931995699</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>184</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +5653,21 @@
         <v>20</v>
       </c>
       <c r="G143" t="n">
-        <v>-6865740.931995699</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>184</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5689,21 @@
         <v>413.9274</v>
       </c>
       <c r="G144" t="n">
-        <v>-6865740.931995699</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>184</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5725,21 @@
         <v>1556.52230852</v>
       </c>
       <c r="G145" t="n">
-        <v>-6864184.409687179</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>184</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5761,21 @@
         <v>836.3809</v>
       </c>
       <c r="G146" t="n">
-        <v>-6863348.028787179</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>184</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5797,21 @@
         <v>6.25</v>
       </c>
       <c r="G147" t="n">
-        <v>-6863354.278787179</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>184</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5833,21 @@
         <v>336.75</v>
       </c>
       <c r="G148" t="n">
-        <v>-6863354.278787179</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>184</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5869,21 @@
         <v>841.17112299</v>
       </c>
       <c r="G149" t="n">
-        <v>-6863354.278787179</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>184</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5905,21 @@
         <v>310.3428</v>
       </c>
       <c r="G150" t="n">
-        <v>-6863354.278787179</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>184</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5941,21 @@
         <v>1314.2981</v>
       </c>
       <c r="G151" t="n">
-        <v>-6863354.278787179</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>184</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5977,21 @@
         <v>649.4127</v>
       </c>
       <c r="G152" t="n">
-        <v>-6862704.866087179</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>184</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +6013,21 @@
         <v>1061.5427</v>
       </c>
       <c r="G153" t="n">
-        <v>-6861643.323387179</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>184</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +6049,21 @@
         <v>1349.6303</v>
       </c>
       <c r="G154" t="n">
-        <v>-6862992.953687179</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>184</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +6085,21 @@
         <v>1207.0456</v>
       </c>
       <c r="G155" t="n">
-        <v>-6861785.908087179</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>184</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +6121,21 @@
         <v>856.7375</v>
       </c>
       <c r="G156" t="n">
-        <v>-6861785.908087179</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>184</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +6157,21 @@
         <v>341.1392</v>
       </c>
       <c r="G157" t="n">
-        <v>-6861785.908087179</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>184</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +6193,21 @@
         <v>659.6739</v>
       </c>
       <c r="G158" t="n">
-        <v>-6862445.581987179</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>184</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +6229,21 @@
         <v>511.704</v>
       </c>
       <c r="G159" t="n">
-        <v>-6862445.581987179</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>184</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,24 +6265,21 @@
         <v>139.8204</v>
       </c>
       <c r="G160" t="n">
-        <v>-6862305.761587179</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>185</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5701,24 +6301,21 @@
         <v>1207.5107</v>
       </c>
       <c r="G161" t="n">
-        <v>-6862305.761587179</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>186</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5740,24 +6337,21 @@
         <v>65.7252</v>
       </c>
       <c r="G162" t="n">
-        <v>-6862371.486787179</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
-        <v>186</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5779,24 +6373,21 @@
         <v>6064.1657</v>
       </c>
       <c r="G163" t="n">
-        <v>-6856307.32108718</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="n">
-        <v>185</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5818,24 +6409,21 @@
         <v>563022</v>
       </c>
       <c r="G164" t="n">
-        <v>-6856307.32108718</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
-        <v>186</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5857,24 +6445,21 @@
         <v>1604310.1907</v>
       </c>
       <c r="G165" t="n">
-        <v>-6856307.32108718</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="n">
-        <v>186</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5896,24 +6481,21 @@
         <v>1150260</v>
       </c>
       <c r="G166" t="n">
-        <v>-6856307.32108718</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
-        <v>186</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5935,24 +6517,21 @@
         <v>216000</v>
       </c>
       <c r="G167" t="n">
-        <v>-6856307.32108718</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="n">
-        <v>186</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5974,24 +6553,21 @@
         <v>170120.975</v>
       </c>
       <c r="G168" t="n">
-        <v>-6686186.34608718</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="n">
-        <v>186</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6013,24 +6589,21 @@
         <v>4862.3003</v>
       </c>
       <c r="G169" t="n">
-        <v>-6691048.64638718</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="n">
-        <v>187</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6052,24 +6625,21 @@
         <v>443.4233</v>
       </c>
       <c r="G170" t="n">
-        <v>-6691492.06968718</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="n">
-        <v>185</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6091,24 +6661,21 @@
         <v>557.0767</v>
       </c>
       <c r="G171" t="n">
-        <v>-6692049.14638718</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
         <v>184</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6130,24 +6697,21 @@
         <v>7411.0464</v>
       </c>
       <c r="G172" t="n">
-        <v>-6684638.09998718</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
-        <v>183</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6169,24 +6733,21 @@
         <v>325030.5001</v>
       </c>
       <c r="G173" t="n">
-        <v>-6684638.09998718</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
-        <v>186</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6208,24 +6769,21 @@
         <v>992438</v>
       </c>
       <c r="G174" t="n">
-        <v>-6684638.09998718</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>186</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6247,24 +6805,21 @@
         <v>1095388</v>
       </c>
       <c r="G175" t="n">
-        <v>-6684638.09998718</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>186</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6286,24 +6841,21 @@
         <v>1103624</v>
       </c>
       <c r="G176" t="n">
-        <v>-6684638.09998718</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="n">
-        <v>186</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6325,24 +6877,21 @@
         <v>1103625</v>
       </c>
       <c r="G177" t="n">
-        <v>-6684638.09998718</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
-        <v>186</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6364,24 +6913,21 @@
         <v>1095388</v>
       </c>
       <c r="G178" t="n">
-        <v>-6684638.09998718</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="n">
-        <v>186</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6403,24 +6949,21 @@
         <v>1083034</v>
       </c>
       <c r="G179" t="n">
-        <v>-6684638.09998718</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>186</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6442,24 +6985,21 @@
         <v>1074852.8057</v>
       </c>
       <c r="G180" t="n">
-        <v>-6684638.09998718</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
-        <v>186</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6481,24 +7021,21 @@
         <v>1087152</v>
       </c>
       <c r="G181" t="n">
-        <v>-6684638.09998718</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="n">
-        <v>186</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6520,24 +7057,21 @@
         <v>448862</v>
       </c>
       <c r="G182" t="n">
-        <v>-6684638.09998718</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="n">
-        <v>186</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6559,24 +7093,21 @@
         <v>296.6471</v>
       </c>
       <c r="G183" t="n">
-        <v>-6684638.09998718</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="n">
-        <v>186</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6598,24 +7129,21 @@
         <v>1494.8507</v>
       </c>
       <c r="G184" t="n">
-        <v>-6684638.09998718</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="n">
-        <v>186</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6637,24 +7165,21 @@
         <v>2106.2654</v>
       </c>
       <c r="G185" t="n">
-        <v>-6682531.83458718</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="n">
-        <v>186</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6676,24 +7201,21 @@
         <v>6.7433</v>
       </c>
       <c r="G186" t="n">
-        <v>-6682531.83458718</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="n">
-        <v>187</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6715,24 +7237,21 @@
         <v>15516.6053</v>
       </c>
       <c r="G187" t="n">
-        <v>-6682531.83458718</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
-        <v>187</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6754,24 +7273,21 @@
         <v>421</v>
       </c>
       <c r="G188" t="n">
-        <v>-6682531.83458718</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="n">
-        <v>187</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6793,24 +7309,21 @@
         <v>7219</v>
       </c>
       <c r="G189" t="n">
-        <v>-6675312.83458718</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="n">
-        <v>187</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6832,24 +7345,21 @@
         <v>8475.794400000001</v>
       </c>
       <c r="G190" t="n">
-        <v>-6666837.04018718</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="n">
-        <v>188</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6871,24 +7381,21 @@
         <v>31985.56250419</v>
       </c>
       <c r="G191" t="n">
-        <v>-6634851.47768299</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="n">
-        <v>190</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6910,20 +7417,21 @@
         <v>17309.7061</v>
       </c>
       <c r="G192" t="n">
-        <v>-6617541.77158299</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>184</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
       </c>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6945,24 +7453,21 @@
         <v>95.43899999999999</v>
       </c>
       <c r="G193" t="n">
-        <v>-6617637.21058299</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>190</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>184</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6984,18 +7489,21 @@
         <v>1380.9415</v>
       </c>
       <c r="G194" t="n">
-        <v>-6619018.15208299</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>184</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7017,18 +7525,21 @@
         <v>203</v>
       </c>
       <c r="G195" t="n">
-        <v>-6619221.15208299</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>184</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7050,18 +7561,21 @@
         <v>555.684</v>
       </c>
       <c r="G196" t="n">
-        <v>-6619776.83608299</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>184</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7083,18 +7597,21 @@
         <v>721.4974999999999</v>
       </c>
       <c r="G197" t="n">
-        <v>-6619776.83608299</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>184</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7116,18 +7633,21 @@
         <v>8000</v>
       </c>
       <c r="G198" t="n">
-        <v>-6627776.83608299</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>184</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7149,18 +7669,21 @@
         <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>-6627775.83608299</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>184</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7182,18 +7705,21 @@
         <v>1508.074</v>
       </c>
       <c r="G200" t="n">
-        <v>-6627775.83608299</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>184</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7215,22 +7741,21 @@
         <v>244932.7422</v>
       </c>
       <c r="G201" t="n">
-        <v>-6627775.83608299</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="n">
-        <v>189</v>
-      </c>
-      <c r="J201" t="n">
-        <v>189</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7252,26 +7777,21 @@
         <v>71876.1776</v>
       </c>
       <c r="G202" t="n">
-        <v>-6627775.83608299</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="n">
-        <v>189</v>
-      </c>
-      <c r="J202" t="n">
-        <v>189</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7293,26 +7813,21 @@
         <v>3911.9687</v>
       </c>
       <c r="G203" t="n">
-        <v>-6623863.86738299</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="n">
-        <v>189</v>
-      </c>
-      <c r="J203" t="n">
-        <v>189</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7334,26 +7849,21 @@
         <v>1.1099</v>
       </c>
       <c r="G204" t="n">
-        <v>-6623863.86738299</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="n">
-        <v>191</v>
-      </c>
-      <c r="J204" t="n">
-        <v>189</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7375,24 +7885,21 @@
         <v>217.0996</v>
       </c>
       <c r="G205" t="n">
-        <v>-6623863.86738299</v>
-      </c>
-      <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>189</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>184</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7414,24 +7921,21 @@
         <v>82.9004</v>
       </c>
       <c r="G206" t="n">
-        <v>-6623863.86738299</v>
-      </c>
-      <c r="H206" t="n">
         <v>2</v>
       </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>189</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>184</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1.03304347826087</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7453,24 +7957,15 @@
         <v>5382.4906</v>
       </c>
       <c r="G207" t="n">
-        <v>-6629246.35798299</v>
-      </c>
-      <c r="H207" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>189</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7492,26 +7987,15 @@
         <v>24.3757</v>
       </c>
       <c r="G208" t="n">
-        <v>-6629246.35798299</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>188</v>
-      </c>
-      <c r="J208" t="n">
-        <v>189</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7533,26 +8017,15 @@
         <v>178.5705</v>
       </c>
       <c r="G209" t="n">
-        <v>-6629246.35798299</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>188</v>
-      </c>
-      <c r="J209" t="n">
-        <v>189</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7574,26 +8047,15 @@
         <v>2.1693</v>
       </c>
       <c r="G210" t="n">
-        <v>-6629244.18868299</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>188</v>
-      </c>
-      <c r="J210" t="n">
-        <v>189</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7615,26 +8077,15 @@
         <v>3903.2959</v>
       </c>
       <c r="G211" t="n">
-        <v>-6633147.48458299</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>189</v>
-      </c>
-      <c r="J211" t="n">
-        <v>189</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7656,26 +8107,15 @@
         <v>1</v>
       </c>
       <c r="G212" t="n">
-        <v>-6633146.48458299</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>186</v>
-      </c>
-      <c r="J212" t="n">
-        <v>189</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7697,26 +8137,15 @@
         <v>2</v>
       </c>
       <c r="G213" t="n">
-        <v>-6633146.48458299</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>189</v>
-      </c>
-      <c r="J213" t="n">
-        <v>189</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7738,26 +8167,15 @@
         <v>436.0791</v>
       </c>
       <c r="G214" t="n">
-        <v>-6633582.56368299</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>189</v>
-      </c>
-      <c r="J214" t="n">
-        <v>189</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7779,26 +8197,15 @@
         <v>13049.0776</v>
       </c>
       <c r="G215" t="n">
-        <v>-6646631.641282991</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>188</v>
-      </c>
-      <c r="J215" t="n">
-        <v>189</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7820,26 +8227,15 @@
         <v>1</v>
       </c>
       <c r="G216" t="n">
-        <v>-6646630.641282991</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>186</v>
-      </c>
-      <c r="J216" t="n">
-        <v>189</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7861,26 +8257,15 @@
         <v>8.297800000000001</v>
       </c>
       <c r="G217" t="n">
-        <v>-6646630.641282991</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>188</v>
-      </c>
-      <c r="J217" t="n">
-        <v>189</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7902,26 +8287,15 @@
         <v>8.276999999999999</v>
       </c>
       <c r="G218" t="n">
-        <v>-6646638.91828299</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>188</v>
-      </c>
-      <c r="J218" t="n">
-        <v>189</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7943,26 +8317,15 @@
         <v>1</v>
       </c>
       <c r="G219" t="n">
-        <v>-6646637.91828299</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>186</v>
-      </c>
-      <c r="J219" t="n">
-        <v>189</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7984,26 +8347,15 @@
         <v>4700.6848</v>
       </c>
       <c r="G220" t="n">
-        <v>-6646637.91828299</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>188</v>
-      </c>
-      <c r="J220" t="n">
-        <v>189</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8025,26 +8377,15 @@
         <v>281.2087</v>
       </c>
       <c r="G221" t="n">
-        <v>-6646637.91828299</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>188</v>
-      </c>
-      <c r="J221" t="n">
-        <v>189</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8066,26 +8407,15 @@
         <v>5667.7711</v>
       </c>
       <c r="G222" t="n">
-        <v>-6652305.68938299</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>188</v>
-      </c>
-      <c r="J222" t="n">
-        <v>189</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8107,26 +8437,15 @@
         <v>856.3132000000001</v>
       </c>
       <c r="G223" t="n">
-        <v>-6652305.68938299</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>186</v>
-      </c>
-      <c r="J223" t="n">
-        <v>189</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8148,26 +8467,15 @@
         <v>2</v>
       </c>
       <c r="G224" t="n">
-        <v>-6652303.68938299</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>186</v>
-      </c>
-      <c r="J224" t="n">
-        <v>189</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8189,26 +8497,15 @@
         <v>369</v>
       </c>
       <c r="G225" t="n">
-        <v>-6652303.68938299</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>189</v>
-      </c>
-      <c r="J225" t="n">
-        <v>189</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8230,26 +8527,15 @@
         <v>9</v>
       </c>
       <c r="G226" t="n">
-        <v>-6652294.68938299</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>189</v>
-      </c>
-      <c r="J226" t="n">
-        <v>189</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8271,24 +8557,15 @@
         <v>703.4578</v>
       </c>
       <c r="G227" t="n">
-        <v>-6652294.68938299</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>189</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1.000291005291005</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8310,18 +8587,15 @@
         <v>931.6057</v>
       </c>
       <c r="G228" t="n">
-        <v>-6652294.68938299</v>
-      </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8343,18 +8617,15 @@
         <v>5245.96858638</v>
       </c>
       <c r="G229" t="n">
-        <v>-6647048.72079661</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8376,18 +8647,15 @@
         <v>1713.49781362</v>
       </c>
       <c r="G230" t="n">
-        <v>-6647048.72079661</v>
-      </c>
-      <c r="H230" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8409,18 +8677,15 @@
         <v>1</v>
       </c>
       <c r="G231" t="n">
-        <v>-6647047.72079661</v>
-      </c>
-      <c r="H231" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8442,18 +8707,15 @@
         <v>1005.9896</v>
       </c>
       <c r="G232" t="n">
-        <v>-6647047.72079661</v>
-      </c>
-      <c r="H232" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8475,18 +8737,15 @@
         <v>1137.75758556</v>
       </c>
       <c r="G233" t="n">
-        <v>-6645909.96321105</v>
-      </c>
-      <c r="H233" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8508,18 +8767,15 @@
         <v>150</v>
       </c>
       <c r="G234" t="n">
-        <v>-6646059.96321105</v>
-      </c>
-      <c r="H234" t="n">
         <v>2</v>
       </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8541,18 +8797,15 @@
         <v>501.2017</v>
       </c>
       <c r="G235" t="n">
-        <v>-6646561.16491105</v>
-      </c>
-      <c r="H235" t="n">
         <v>2</v>
       </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8574,18 +8827,15 @@
         <v>65.26983333</v>
       </c>
       <c r="G236" t="n">
-        <v>-6646495.89507772</v>
-      </c>
-      <c r="H236" t="n">
         <v>2</v>
       </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8607,18 +8857,15 @@
         <v>5740.15149793</v>
       </c>
       <c r="G237" t="n">
-        <v>-6640755.74357979</v>
-      </c>
-      <c r="H237" t="n">
         <v>2</v>
       </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8640,18 +8887,15 @@
         <v>2518.6528</v>
       </c>
       <c r="G238" t="n">
-        <v>-6643274.39637979</v>
-      </c>
-      <c r="H238" t="n">
         <v>2</v>
       </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8673,18 +8917,15 @@
         <v>150</v>
       </c>
       <c r="G239" t="n">
-        <v>-6643424.39637979</v>
-      </c>
-      <c r="H239" t="n">
         <v>2</v>
       </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8706,18 +8947,15 @@
         <v>1478.7876</v>
       </c>
       <c r="G240" t="n">
-        <v>-6641945.60877979</v>
-      </c>
-      <c r="H240" t="n">
         <v>2</v>
       </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8739,18 +8977,15 @@
         <v>710.526</v>
       </c>
       <c r="G241" t="n">
-        <v>-6641235.08277979</v>
-      </c>
-      <c r="H241" t="n">
         <v>2</v>
       </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8772,18 +9007,15 @@
         <v>466.32124352</v>
       </c>
       <c r="G242" t="n">
-        <v>-6641235.08277979</v>
-      </c>
-      <c r="H242" t="n">
         <v>2</v>
       </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8805,18 +9037,15 @@
         <v>2000</v>
       </c>
       <c r="G243" t="n">
-        <v>-6643235.08277979</v>
-      </c>
-      <c r="H243" t="n">
         <v>2</v>
       </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8838,18 +9067,15 @@
         <v>2.8445</v>
       </c>
       <c r="G244" t="n">
-        <v>-6643232.238279791</v>
-      </c>
-      <c r="H244" t="n">
         <v>2</v>
       </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8871,18 +9097,15 @@
         <v>780.454</v>
       </c>
       <c r="G245" t="n">
-        <v>-6643232.238279791</v>
-      </c>
-      <c r="H245" t="n">
         <v>2</v>
       </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8904,18 +9127,15 @@
         <v>87.4455</v>
       </c>
       <c r="G246" t="n">
-        <v>-6643319.683779791</v>
-      </c>
-      <c r="H246" t="n">
         <v>2</v>
       </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8937,18 +9157,15 @@
         <v>585.2218</v>
       </c>
       <c r="G247" t="n">
-        <v>-6643904.905579791</v>
-      </c>
-      <c r="H247" t="n">
         <v>2</v>
       </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8970,18 +9187,15 @@
         <v>142.4827</v>
       </c>
       <c r="G248" t="n">
-        <v>-6644047.388279791</v>
-      </c>
-      <c r="H248" t="n">
         <v>2</v>
       </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9003,18 +9217,15 @@
         <v>200</v>
       </c>
       <c r="G249" t="n">
-        <v>-6644047.388279791</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9036,22 +9247,15 @@
         <v>525.7140000000001</v>
       </c>
       <c r="G250" t="n">
-        <v>-6643521.674279791</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>189</v>
-      </c>
-      <c r="J250" t="n">
-        <v>189</v>
-      </c>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9073,24 +9277,15 @@
         <v>99</v>
       </c>
       <c r="G251" t="n">
-        <v>-6643422.674279791</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>189</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9112,24 +9307,15 @@
         <v>83.625</v>
       </c>
       <c r="G252" t="n">
-        <v>-6643422.674279791</v>
-      </c>
-      <c r="H252" t="n">
         <v>2</v>
       </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>189</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9151,18 +9337,15 @@
         <v>9.2302</v>
       </c>
       <c r="G253" t="n">
-        <v>-6643422.674279791</v>
-      </c>
-      <c r="H253" t="n">
         <v>2</v>
       </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9184,18 +9367,15 @@
         <v>3255.0025</v>
       </c>
       <c r="G254" t="n">
-        <v>-6643422.674279791</v>
-      </c>
-      <c r="H254" t="n">
         <v>2</v>
       </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9217,18 +9397,15 @@
         <v>2364.9548</v>
       </c>
       <c r="G255" t="n">
-        <v>-6643422.674279791</v>
-      </c>
-      <c r="H255" t="n">
         <v>2</v>
       </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9250,18 +9427,15 @@
         <v>174.286</v>
       </c>
       <c r="G256" t="n">
-        <v>-6643596.960279792</v>
-      </c>
-      <c r="H256" t="n">
         <v>2</v>
       </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9283,18 +9457,15 @@
         <v>1058.8888</v>
       </c>
       <c r="G257" t="n">
-        <v>-6644655.849079791</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9316,22 +9487,15 @@
         <v>6273.19421458</v>
       </c>
       <c r="G258" t="n">
-        <v>-6638382.654865212</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>188</v>
-      </c>
-      <c r="J258" t="n">
-        <v>188</v>
-      </c>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9353,24 +9517,15 @@
         <v>1641.3526</v>
       </c>
       <c r="G259" t="n">
-        <v>-6640024.007465212</v>
-      </c>
-      <c r="H259" t="n">
         <v>2</v>
       </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>188</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9392,24 +9547,15 @@
         <v>1497.7806</v>
       </c>
       <c r="G260" t="n">
-        <v>-6640024.007465212</v>
-      </c>
-      <c r="H260" t="n">
         <v>2</v>
       </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>188</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9431,26 +9577,15 @@
         <v>335.5086</v>
       </c>
       <c r="G261" t="n">
-        <v>-6640024.007465212</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>190</v>
-      </c>
-      <c r="J261" t="n">
-        <v>188</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9472,26 +9607,15 @@
         <v>617.9854</v>
       </c>
       <c r="G262" t="n">
-        <v>-6640641.992865211</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>190</v>
-      </c>
-      <c r="J262" t="n">
-        <v>188</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9513,24 +9637,15 @@
         <v>2</v>
       </c>
       <c r="G263" t="n">
-        <v>-6640641.992865211</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>188</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9552,26 +9667,15 @@
         <v>11350.0146</v>
       </c>
       <c r="G264" t="n">
-        <v>-6651992.007465212</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>188</v>
-      </c>
-      <c r="J264" t="n">
-        <v>188</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9593,26 +9697,15 @@
         <v>15.957</v>
       </c>
       <c r="G265" t="n">
-        <v>-6651976.050465211</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>184</v>
-      </c>
-      <c r="J265" t="n">
-        <v>188</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
